--- a/Week2/ManHinhChiTiet/ReservationTab.xlsx
+++ b/Week2/ManHinhChiTiet/ReservationTab.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="267">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -1191,6 +1191,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="20"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -1206,14 +1214,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2410,7 +2410,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2545,7 +2545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3389,6 +3389,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3403,13 +3410,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3771,7 +3778,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
@@ -3822,7 +3829,7 @@
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -16433,7 +16440,7 @@
   <sheetPr/>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="V144" sqref="V144"/>
     </sheetView>
   </sheetViews>
@@ -16444,7 +16451,7 @@
     <col min="60" max="16384" width="9" style="181"/>
   </cols>
   <sheetData>
-    <row r="1" s="298" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="1" s="301" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16513,7 +16520,7 @@
       <c r="AV1" s="145"/>
       <c r="AW1" s="160"/>
     </row>
-    <row r="2" s="298" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="2" s="301" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -16738,30 +16745,30 @@
       <c r="F6" s="188"/>
       <c r="G6" s="188"/>
       <c r="H6" s="188"/>
-      <c r="I6" s="343"/>
-      <c r="J6" s="343"/>
-      <c r="K6" s="343"/>
-      <c r="L6" s="343"/>
-      <c r="M6" s="343"/>
-      <c r="N6" s="343"/>
-      <c r="O6" s="343"/>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="343"/>
-      <c r="R6" s="343"/>
-      <c r="S6" s="343"/>
-      <c r="T6" s="343"/>
-      <c r="U6" s="343"/>
-      <c r="V6" s="343"/>
-      <c r="W6" s="343"/>
-      <c r="X6" s="343"/>
-      <c r="Y6" s="343"/>
-      <c r="Z6" s="343"/>
-      <c r="AA6" s="343"/>
-      <c r="AB6" s="343"/>
-      <c r="AC6" s="343"/>
-      <c r="AD6" s="343"/>
-      <c r="AE6" s="343"/>
-      <c r="AF6" s="343"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="346"/>
+      <c r="L6" s="346"/>
+      <c r="M6" s="346"/>
+      <c r="N6" s="346"/>
+      <c r="O6" s="346"/>
+      <c r="P6" s="346"/>
+      <c r="Q6" s="346"/>
+      <c r="R6" s="346"/>
+      <c r="S6" s="346"/>
+      <c r="T6" s="346"/>
+      <c r="U6" s="346"/>
+      <c r="V6" s="346"/>
+      <c r="W6" s="346"/>
+      <c r="X6" s="346"/>
+      <c r="Y6" s="346"/>
+      <c r="Z6" s="346"/>
+      <c r="AA6" s="346"/>
+      <c r="AB6" s="346"/>
+      <c r="AC6" s="346"/>
+      <c r="AD6" s="346"/>
+      <c r="AE6" s="346"/>
+      <c r="AF6" s="346"/>
       <c r="AG6" s="188"/>
       <c r="AH6" s="188"/>
       <c r="AI6" s="188"/>
@@ -16789,30 +16796,30 @@
       <c r="F7" s="188"/>
       <c r="G7" s="188"/>
       <c r="H7" s="188"/>
-      <c r="I7" s="343"/>
-      <c r="J7" s="343"/>
-      <c r="K7" s="343"/>
-      <c r="L7" s="343"/>
-      <c r="M7" s="343"/>
-      <c r="N7" s="343"/>
-      <c r="O7" s="343"/>
-      <c r="P7" s="343"/>
-      <c r="Q7" s="343"/>
-      <c r="R7" s="343"/>
-      <c r="S7" s="343"/>
-      <c r="T7" s="343"/>
-      <c r="U7" s="343"/>
-      <c r="V7" s="343"/>
-      <c r="W7" s="343"/>
-      <c r="X7" s="343"/>
-      <c r="Y7" s="343"/>
-      <c r="Z7" s="343"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="343"/>
-      <c r="AC7" s="343"/>
-      <c r="AD7" s="343"/>
-      <c r="AE7" s="343"/>
-      <c r="AF7" s="343"/>
+      <c r="I7" s="346"/>
+      <c r="J7" s="346"/>
+      <c r="K7" s="346"/>
+      <c r="L7" s="346"/>
+      <c r="M7" s="346"/>
+      <c r="N7" s="346"/>
+      <c r="O7" s="346"/>
+      <c r="P7" s="346"/>
+      <c r="Q7" s="346"/>
+      <c r="R7" s="346"/>
+      <c r="S7" s="346"/>
+      <c r="T7" s="346"/>
+      <c r="U7" s="346"/>
+      <c r="V7" s="346"/>
+      <c r="W7" s="346"/>
+      <c r="X7" s="346"/>
+      <c r="Y7" s="346"/>
+      <c r="Z7" s="346"/>
+      <c r="AA7" s="346"/>
+      <c r="AB7" s="346"/>
+      <c r="AC7" s="346"/>
+      <c r="AD7" s="346"/>
+      <c r="AE7" s="346"/>
+      <c r="AF7" s="346"/>
       <c r="AG7" s="188"/>
       <c r="AH7" s="188"/>
       <c r="AI7" s="188"/>
@@ -17088,259 +17095,259 @@
     </row>
     <row r="13" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A13" s="187"/>
-      <c r="B13" s="299" t="s">
+      <c r="B13" s="302" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="300"/>
-      <c r="L13" s="300"/>
-      <c r="M13" s="300"/>
-      <c r="N13" s="300"/>
-      <c r="O13" s="300"/>
-      <c r="P13" s="300"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="300"/>
-      <c r="S13" s="300"/>
-      <c r="T13" s="300"/>
-      <c r="U13" s="300"/>
-      <c r="V13" s="300"/>
-      <c r="W13" s="300"/>
-      <c r="X13" s="300"/>
-      <c r="Y13" s="300"/>
-      <c r="Z13" s="300"/>
-      <c r="AA13" s="300"/>
-      <c r="AB13" s="300"/>
-      <c r="AC13" s="300"/>
-      <c r="AD13" s="300"/>
-      <c r="AE13" s="300"/>
-      <c r="AF13" s="300"/>
-      <c r="AG13" s="300"/>
-      <c r="AH13" s="300"/>
-      <c r="AI13" s="300"/>
-      <c r="AJ13" s="300"/>
-      <c r="AK13" s="300"/>
-      <c r="AL13" s="300"/>
-      <c r="AM13" s="300"/>
-      <c r="AN13" s="300"/>
-      <c r="AO13" s="300"/>
-      <c r="AP13" s="300"/>
-      <c r="AQ13" s="300"/>
-      <c r="AR13" s="300"/>
-      <c r="AS13" s="300"/>
-      <c r="AT13" s="300"/>
-      <c r="AU13" s="300"/>
-      <c r="AV13" s="300"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="303"/>
+      <c r="I13" s="303"/>
+      <c r="J13" s="303"/>
+      <c r="K13" s="303"/>
+      <c r="L13" s="303"/>
+      <c r="M13" s="303"/>
+      <c r="N13" s="303"/>
+      <c r="O13" s="303"/>
+      <c r="P13" s="303"/>
+      <c r="Q13" s="303"/>
+      <c r="R13" s="303"/>
+      <c r="S13" s="303"/>
+      <c r="T13" s="303"/>
+      <c r="U13" s="303"/>
+      <c r="V13" s="303"/>
+      <c r="W13" s="303"/>
+      <c r="X13" s="303"/>
+      <c r="Y13" s="303"/>
+      <c r="Z13" s="303"/>
+      <c r="AA13" s="303"/>
+      <c r="AB13" s="303"/>
+      <c r="AC13" s="303"/>
+      <c r="AD13" s="303"/>
+      <c r="AE13" s="303"/>
+      <c r="AF13" s="303"/>
+      <c r="AG13" s="303"/>
+      <c r="AH13" s="303"/>
+      <c r="AI13" s="303"/>
+      <c r="AJ13" s="303"/>
+      <c r="AK13" s="303"/>
+      <c r="AL13" s="303"/>
+      <c r="AM13" s="303"/>
+      <c r="AN13" s="303"/>
+      <c r="AO13" s="303"/>
+      <c r="AP13" s="303"/>
+      <c r="AQ13" s="303"/>
+      <c r="AR13" s="303"/>
+      <c r="AS13" s="303"/>
+      <c r="AT13" s="303"/>
+      <c r="AU13" s="303"/>
+      <c r="AV13" s="303"/>
       <c r="AW13" s="265"/>
     </row>
     <row r="14" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A14" s="187"/>
-      <c r="B14" s="300"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="300"/>
-      <c r="K14" s="300"/>
-      <c r="L14" s="300"/>
-      <c r="M14" s="300"/>
-      <c r="N14" s="300"/>
-      <c r="O14" s="300"/>
-      <c r="P14" s="300"/>
-      <c r="Q14" s="300"/>
-      <c r="R14" s="300"/>
-      <c r="S14" s="300"/>
-      <c r="T14" s="300"/>
-      <c r="U14" s="300"/>
-      <c r="V14" s="300"/>
-      <c r="W14" s="300"/>
-      <c r="X14" s="300"/>
-      <c r="Y14" s="300"/>
-      <c r="Z14" s="300"/>
-      <c r="AA14" s="300"/>
-      <c r="AB14" s="300"/>
-      <c r="AC14" s="300"/>
-      <c r="AD14" s="300"/>
-      <c r="AE14" s="300"/>
-      <c r="AF14" s="300"/>
-      <c r="AG14" s="300"/>
-      <c r="AH14" s="300"/>
-      <c r="AI14" s="300"/>
-      <c r="AJ14" s="300"/>
-      <c r="AK14" s="300"/>
-      <c r="AL14" s="300"/>
-      <c r="AM14" s="300"/>
-      <c r="AN14" s="300"/>
-      <c r="AO14" s="300"/>
-      <c r="AP14" s="300"/>
-      <c r="AQ14" s="300"/>
-      <c r="AR14" s="300"/>
-      <c r="AS14" s="300"/>
-      <c r="AT14" s="300"/>
-      <c r="AU14" s="300"/>
-      <c r="AV14" s="300"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="303"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="303"/>
+      <c r="I14" s="303"/>
+      <c r="J14" s="303"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
+      <c r="M14" s="303"/>
+      <c r="N14" s="303"/>
+      <c r="O14" s="303"/>
+      <c r="P14" s="303"/>
+      <c r="Q14" s="303"/>
+      <c r="R14" s="303"/>
+      <c r="S14" s="303"/>
+      <c r="T14" s="303"/>
+      <c r="U14" s="303"/>
+      <c r="V14" s="303"/>
+      <c r="W14" s="303"/>
+      <c r="X14" s="303"/>
+      <c r="Y14" s="303"/>
+      <c r="Z14" s="303"/>
+      <c r="AA14" s="303"/>
+      <c r="AB14" s="303"/>
+      <c r="AC14" s="303"/>
+      <c r="AD14" s="303"/>
+      <c r="AE14" s="303"/>
+      <c r="AF14" s="303"/>
+      <c r="AG14" s="303"/>
+      <c r="AH14" s="303"/>
+      <c r="AI14" s="303"/>
+      <c r="AJ14" s="303"/>
+      <c r="AK14" s="303"/>
+      <c r="AL14" s="303"/>
+      <c r="AM14" s="303"/>
+      <c r="AN14" s="303"/>
+      <c r="AO14" s="303"/>
+      <c r="AP14" s="303"/>
+      <c r="AQ14" s="303"/>
+      <c r="AR14" s="303"/>
+      <c r="AS14" s="303"/>
+      <c r="AT14" s="303"/>
+      <c r="AU14" s="303"/>
+      <c r="AV14" s="303"/>
       <c r="AW14" s="265"/>
     </row>
     <row r="15" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A15" s="187"/>
-      <c r="B15" s="300"/>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="300"/>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
-      <c r="M15" s="300"/>
-      <c r="N15" s="300"/>
-      <c r="O15" s="300"/>
-      <c r="P15" s="300"/>
-      <c r="Q15" s="300"/>
-      <c r="R15" s="300"/>
-      <c r="S15" s="300"/>
-      <c r="T15" s="300"/>
-      <c r="U15" s="300"/>
-      <c r="V15" s="300"/>
-      <c r="W15" s="300"/>
-      <c r="X15" s="300"/>
-      <c r="Y15" s="300"/>
-      <c r="Z15" s="300"/>
-      <c r="AA15" s="300"/>
-      <c r="AB15" s="300"/>
-      <c r="AC15" s="300"/>
-      <c r="AD15" s="300"/>
-      <c r="AE15" s="300"/>
-      <c r="AF15" s="300"/>
-      <c r="AG15" s="300"/>
-      <c r="AH15" s="300"/>
-      <c r="AI15" s="300"/>
-      <c r="AJ15" s="300"/>
-      <c r="AK15" s="300"/>
-      <c r="AL15" s="300"/>
-      <c r="AM15" s="300"/>
-      <c r="AN15" s="300"/>
-      <c r="AO15" s="300"/>
-      <c r="AP15" s="300"/>
-      <c r="AQ15" s="300"/>
-      <c r="AR15" s="300"/>
-      <c r="AS15" s="300"/>
-      <c r="AT15" s="300"/>
-      <c r="AU15" s="300"/>
-      <c r="AV15" s="300"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
+      <c r="I15" s="303"/>
+      <c r="J15" s="303"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
+      <c r="M15" s="303"/>
+      <c r="N15" s="303"/>
+      <c r="O15" s="303"/>
+      <c r="P15" s="303"/>
+      <c r="Q15" s="303"/>
+      <c r="R15" s="303"/>
+      <c r="S15" s="303"/>
+      <c r="T15" s="303"/>
+      <c r="U15" s="303"/>
+      <c r="V15" s="303"/>
+      <c r="W15" s="303"/>
+      <c r="X15" s="303"/>
+      <c r="Y15" s="303"/>
+      <c r="Z15" s="303"/>
+      <c r="AA15" s="303"/>
+      <c r="AB15" s="303"/>
+      <c r="AC15" s="303"/>
+      <c r="AD15" s="303"/>
+      <c r="AE15" s="303"/>
+      <c r="AF15" s="303"/>
+      <c r="AG15" s="303"/>
+      <c r="AH15" s="303"/>
+      <c r="AI15" s="303"/>
+      <c r="AJ15" s="303"/>
+      <c r="AK15" s="303"/>
+      <c r="AL15" s="303"/>
+      <c r="AM15" s="303"/>
+      <c r="AN15" s="303"/>
+      <c r="AO15" s="303"/>
+      <c r="AP15" s="303"/>
+      <c r="AQ15" s="303"/>
+      <c r="AR15" s="303"/>
+      <c r="AS15" s="303"/>
+      <c r="AT15" s="303"/>
+      <c r="AU15" s="303"/>
+      <c r="AV15" s="303"/>
       <c r="AW15" s="265"/>
     </row>
     <row r="16" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A16" s="187"/>
-      <c r="B16" s="300"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="300"/>
-      <c r="K16" s="300"/>
-      <c r="L16" s="300"/>
-      <c r="M16" s="300"/>
-      <c r="N16" s="300"/>
-      <c r="O16" s="300"/>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="300"/>
-      <c r="R16" s="300"/>
-      <c r="S16" s="300"/>
-      <c r="T16" s="300"/>
-      <c r="U16" s="300"/>
-      <c r="V16" s="300"/>
-      <c r="W16" s="300"/>
-      <c r="X16" s="300"/>
-      <c r="Y16" s="300"/>
-      <c r="Z16" s="300"/>
-      <c r="AA16" s="300"/>
-      <c r="AB16" s="300"/>
-      <c r="AC16" s="300"/>
-      <c r="AD16" s="300"/>
-      <c r="AE16" s="300"/>
-      <c r="AF16" s="300"/>
-      <c r="AG16" s="300"/>
-      <c r="AH16" s="300"/>
-      <c r="AI16" s="300"/>
-      <c r="AJ16" s="300"/>
-      <c r="AK16" s="300"/>
-      <c r="AL16" s="300"/>
-      <c r="AM16" s="300"/>
-      <c r="AN16" s="300"/>
-      <c r="AO16" s="300"/>
-      <c r="AP16" s="300"/>
-      <c r="AQ16" s="300"/>
-      <c r="AR16" s="300"/>
-      <c r="AS16" s="300"/>
-      <c r="AT16" s="300"/>
-      <c r="AU16" s="300"/>
-      <c r="AV16" s="300"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303"/>
+      <c r="J16" s="303"/>
+      <c r="K16" s="303"/>
+      <c r="L16" s="303"/>
+      <c r="M16" s="303"/>
+      <c r="N16" s="303"/>
+      <c r="O16" s="303"/>
+      <c r="P16" s="303"/>
+      <c r="Q16" s="303"/>
+      <c r="R16" s="303"/>
+      <c r="S16" s="303"/>
+      <c r="T16" s="303"/>
+      <c r="U16" s="303"/>
+      <c r="V16" s="303"/>
+      <c r="W16" s="303"/>
+      <c r="X16" s="303"/>
+      <c r="Y16" s="303"/>
+      <c r="Z16" s="303"/>
+      <c r="AA16" s="303"/>
+      <c r="AB16" s="303"/>
+      <c r="AC16" s="303"/>
+      <c r="AD16" s="303"/>
+      <c r="AE16" s="303"/>
+      <c r="AF16" s="303"/>
+      <c r="AG16" s="303"/>
+      <c r="AH16" s="303"/>
+      <c r="AI16" s="303"/>
+      <c r="AJ16" s="303"/>
+      <c r="AK16" s="303"/>
+      <c r="AL16" s="303"/>
+      <c r="AM16" s="303"/>
+      <c r="AN16" s="303"/>
+      <c r="AO16" s="303"/>
+      <c r="AP16" s="303"/>
+      <c r="AQ16" s="303"/>
+      <c r="AR16" s="303"/>
+      <c r="AS16" s="303"/>
+      <c r="AT16" s="303"/>
+      <c r="AU16" s="303"/>
+      <c r="AV16" s="303"/>
       <c r="AW16" s="265"/>
     </row>
     <row r="17" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A17" s="187"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="300"/>
-      <c r="I17" s="300"/>
-      <c r="J17" s="300"/>
-      <c r="K17" s="300"/>
-      <c r="L17" s="300"/>
-      <c r="M17" s="300"/>
-      <c r="N17" s="300"/>
-      <c r="O17" s="300"/>
-      <c r="P17" s="300"/>
-      <c r="Q17" s="300"/>
-      <c r="R17" s="300"/>
-      <c r="S17" s="300"/>
-      <c r="T17" s="300"/>
-      <c r="U17" s="300"/>
-      <c r="V17" s="300"/>
-      <c r="W17" s="300"/>
-      <c r="X17" s="300"/>
-      <c r="Y17" s="300"/>
-      <c r="Z17" s="300"/>
-      <c r="AA17" s="300"/>
-      <c r="AB17" s="300"/>
-      <c r="AC17" s="300"/>
-      <c r="AD17" s="300"/>
-      <c r="AE17" s="300"/>
-      <c r="AF17" s="300"/>
-      <c r="AG17" s="300"/>
-      <c r="AH17" s="300"/>
-      <c r="AI17" s="300"/>
-      <c r="AJ17" s="300"/>
-      <c r="AK17" s="300"/>
-      <c r="AL17" s="300"/>
-      <c r="AM17" s="300"/>
-      <c r="AN17" s="300"/>
-      <c r="AO17" s="300"/>
-      <c r="AP17" s="300"/>
-      <c r="AQ17" s="300"/>
-      <c r="AR17" s="300"/>
-      <c r="AS17" s="300"/>
-      <c r="AT17" s="300"/>
-      <c r="AU17" s="300"/>
-      <c r="AV17" s="300"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="303"/>
+      <c r="K17" s="303"/>
+      <c r="L17" s="303"/>
+      <c r="M17" s="303"/>
+      <c r="N17" s="303"/>
+      <c r="O17" s="303"/>
+      <c r="P17" s="303"/>
+      <c r="Q17" s="303"/>
+      <c r="R17" s="303"/>
+      <c r="S17" s="303"/>
+      <c r="T17" s="303"/>
+      <c r="U17" s="303"/>
+      <c r="V17" s="303"/>
+      <c r="W17" s="303"/>
+      <c r="X17" s="303"/>
+      <c r="Y17" s="303"/>
+      <c r="Z17" s="303"/>
+      <c r="AA17" s="303"/>
+      <c r="AB17" s="303"/>
+      <c r="AC17" s="303"/>
+      <c r="AD17" s="303"/>
+      <c r="AE17" s="303"/>
+      <c r="AF17" s="303"/>
+      <c r="AG17" s="303"/>
+      <c r="AH17" s="303"/>
+      <c r="AI17" s="303"/>
+      <c r="AJ17" s="303"/>
+      <c r="AK17" s="303"/>
+      <c r="AL17" s="303"/>
+      <c r="AM17" s="303"/>
+      <c r="AN17" s="303"/>
+      <c r="AO17" s="303"/>
+      <c r="AP17" s="303"/>
+      <c r="AQ17" s="303"/>
+      <c r="AR17" s="303"/>
+      <c r="AS17" s="303"/>
+      <c r="AT17" s="303"/>
+      <c r="AU17" s="303"/>
+      <c r="AV17" s="303"/>
       <c r="AW17" s="265"/>
     </row>
     <row r="18" s="181" customFormat="1" customHeight="1" spans="1:49">
@@ -17600,208 +17607,208 @@
     </row>
     <row r="23" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A23" s="187"/>
-      <c r="B23" s="301" t="s">
+      <c r="B23" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
-      <c r="G23" s="301"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="301"/>
-      <c r="J23" s="301"/>
-      <c r="K23" s="301"/>
-      <c r="L23" s="301"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="301"/>
-      <c r="V23" s="301"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
-      <c r="Y23" s="301"/>
-      <c r="Z23" s="301"/>
-      <c r="AA23" s="301"/>
-      <c r="AB23" s="301"/>
-      <c r="AC23" s="301"/>
-      <c r="AD23" s="301"/>
-      <c r="AE23" s="301"/>
-      <c r="AF23" s="301"/>
-      <c r="AG23" s="301"/>
-      <c r="AH23" s="301"/>
-      <c r="AI23" s="301"/>
-      <c r="AJ23" s="301"/>
-      <c r="AK23" s="301"/>
-      <c r="AL23" s="301"/>
-      <c r="AM23" s="301"/>
-      <c r="AN23" s="301"/>
-      <c r="AO23" s="301"/>
-      <c r="AP23" s="301"/>
-      <c r="AQ23" s="301"/>
-      <c r="AR23" s="301"/>
-      <c r="AS23" s="301"/>
-      <c r="AT23" s="301"/>
-      <c r="AU23" s="301"/>
-      <c r="AV23" s="301"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="304"/>
+      <c r="G23" s="304"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="304"/>
+      <c r="K23" s="304"/>
+      <c r="L23" s="304"/>
+      <c r="M23" s="304"/>
+      <c r="N23" s="304"/>
+      <c r="O23" s="304"/>
+      <c r="P23" s="304"/>
+      <c r="Q23" s="304"/>
+      <c r="R23" s="304"/>
+      <c r="S23" s="304"/>
+      <c r="T23" s="304"/>
+      <c r="U23" s="304"/>
+      <c r="V23" s="304"/>
+      <c r="W23" s="304"/>
+      <c r="X23" s="304"/>
+      <c r="Y23" s="304"/>
+      <c r="Z23" s="304"/>
+      <c r="AA23" s="304"/>
+      <c r="AB23" s="304"/>
+      <c r="AC23" s="304"/>
+      <c r="AD23" s="304"/>
+      <c r="AE23" s="304"/>
+      <c r="AF23" s="304"/>
+      <c r="AG23" s="304"/>
+      <c r="AH23" s="304"/>
+      <c r="AI23" s="304"/>
+      <c r="AJ23" s="304"/>
+      <c r="AK23" s="304"/>
+      <c r="AL23" s="304"/>
+      <c r="AM23" s="304"/>
+      <c r="AN23" s="304"/>
+      <c r="AO23" s="304"/>
+      <c r="AP23" s="304"/>
+      <c r="AQ23" s="304"/>
+      <c r="AR23" s="304"/>
+      <c r="AS23" s="304"/>
+      <c r="AT23" s="304"/>
+      <c r="AU23" s="304"/>
+      <c r="AV23" s="304"/>
       <c r="AW23" s="265"/>
     </row>
     <row r="24" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A24" s="187"/>
-      <c r="B24" s="301"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="301"/>
-      <c r="I24" s="301"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="301"/>
-      <c r="N24" s="301"/>
-      <c r="O24" s="301"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="301"/>
-      <c r="R24" s="301"/>
-      <c r="S24" s="301"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="301"/>
-      <c r="V24" s="301"/>
-      <c r="W24" s="301"/>
-      <c r="X24" s="301"/>
-      <c r="Y24" s="301"/>
-      <c r="Z24" s="301"/>
-      <c r="AA24" s="301"/>
-      <c r="AB24" s="301"/>
-      <c r="AC24" s="301"/>
-      <c r="AD24" s="301"/>
-      <c r="AE24" s="301"/>
-      <c r="AF24" s="301"/>
-      <c r="AG24" s="301"/>
-      <c r="AH24" s="301"/>
-      <c r="AI24" s="301"/>
-      <c r="AJ24" s="301"/>
-      <c r="AK24" s="301"/>
-      <c r="AL24" s="301"/>
-      <c r="AM24" s="301"/>
-      <c r="AN24" s="301"/>
-      <c r="AO24" s="301"/>
-      <c r="AP24" s="301"/>
-      <c r="AQ24" s="301"/>
-      <c r="AR24" s="301"/>
-      <c r="AS24" s="301"/>
-      <c r="AT24" s="301"/>
-      <c r="AU24" s="301"/>
-      <c r="AV24" s="301"/>
+      <c r="B24" s="304"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="304"/>
+      <c r="K24" s="304"/>
+      <c r="L24" s="304"/>
+      <c r="M24" s="304"/>
+      <c r="N24" s="304"/>
+      <c r="O24" s="304"/>
+      <c r="P24" s="304"/>
+      <c r="Q24" s="304"/>
+      <c r="R24" s="304"/>
+      <c r="S24" s="304"/>
+      <c r="T24" s="304"/>
+      <c r="U24" s="304"/>
+      <c r="V24" s="304"/>
+      <c r="W24" s="304"/>
+      <c r="X24" s="304"/>
+      <c r="Y24" s="304"/>
+      <c r="Z24" s="304"/>
+      <c r="AA24" s="304"/>
+      <c r="AB24" s="304"/>
+      <c r="AC24" s="304"/>
+      <c r="AD24" s="304"/>
+      <c r="AE24" s="304"/>
+      <c r="AF24" s="304"/>
+      <c r="AG24" s="304"/>
+      <c r="AH24" s="304"/>
+      <c r="AI24" s="304"/>
+      <c r="AJ24" s="304"/>
+      <c r="AK24" s="304"/>
+      <c r="AL24" s="304"/>
+      <c r="AM24" s="304"/>
+      <c r="AN24" s="304"/>
+      <c r="AO24" s="304"/>
+      <c r="AP24" s="304"/>
+      <c r="AQ24" s="304"/>
+      <c r="AR24" s="304"/>
+      <c r="AS24" s="304"/>
+      <c r="AT24" s="304"/>
+      <c r="AU24" s="304"/>
+      <c r="AV24" s="304"/>
       <c r="AW24" s="265"/>
     </row>
     <row r="25" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A25" s="187"/>
-      <c r="B25" s="301"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
-      <c r="G25" s="301"/>
-      <c r="H25" s="301"/>
-      <c r="I25" s="301"/>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="301"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="301"/>
-      <c r="T25" s="301"/>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="301"/>
-      <c r="Z25" s="301"/>
-      <c r="AA25" s="301"/>
-      <c r="AB25" s="301"/>
-      <c r="AC25" s="301"/>
-      <c r="AD25" s="301"/>
-      <c r="AE25" s="301"/>
-      <c r="AF25" s="301"/>
-      <c r="AG25" s="301"/>
-      <c r="AH25" s="301"/>
-      <c r="AI25" s="301"/>
-      <c r="AJ25" s="301"/>
-      <c r="AK25" s="301"/>
-      <c r="AL25" s="301"/>
-      <c r="AM25" s="301"/>
-      <c r="AN25" s="301"/>
-      <c r="AO25" s="301"/>
-      <c r="AP25" s="301"/>
-      <c r="AQ25" s="301"/>
-      <c r="AR25" s="301"/>
-      <c r="AS25" s="301"/>
-      <c r="AT25" s="301"/>
-      <c r="AU25" s="301"/>
-      <c r="AV25" s="301"/>
+      <c r="B25" s="304"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="304"/>
+      <c r="G25" s="304"/>
+      <c r="H25" s="304"/>
+      <c r="I25" s="304"/>
+      <c r="J25" s="304"/>
+      <c r="K25" s="304"/>
+      <c r="L25" s="304"/>
+      <c r="M25" s="304"/>
+      <c r="N25" s="304"/>
+      <c r="O25" s="304"/>
+      <c r="P25" s="304"/>
+      <c r="Q25" s="304"/>
+      <c r="R25" s="304"/>
+      <c r="S25" s="304"/>
+      <c r="T25" s="304"/>
+      <c r="U25" s="304"/>
+      <c r="V25" s="304"/>
+      <c r="W25" s="304"/>
+      <c r="X25" s="304"/>
+      <c r="Y25" s="304"/>
+      <c r="Z25" s="304"/>
+      <c r="AA25" s="304"/>
+      <c r="AB25" s="304"/>
+      <c r="AC25" s="304"/>
+      <c r="AD25" s="304"/>
+      <c r="AE25" s="304"/>
+      <c r="AF25" s="304"/>
+      <c r="AG25" s="304"/>
+      <c r="AH25" s="304"/>
+      <c r="AI25" s="304"/>
+      <c r="AJ25" s="304"/>
+      <c r="AK25" s="304"/>
+      <c r="AL25" s="304"/>
+      <c r="AM25" s="304"/>
+      <c r="AN25" s="304"/>
+      <c r="AO25" s="304"/>
+      <c r="AP25" s="304"/>
+      <c r="AQ25" s="304"/>
+      <c r="AR25" s="304"/>
+      <c r="AS25" s="304"/>
+      <c r="AT25" s="304"/>
+      <c r="AU25" s="304"/>
+      <c r="AV25" s="304"/>
       <c r="AW25" s="265"/>
     </row>
     <row r="26" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A26" s="187"/>
-      <c r="B26" s="301"/>
-      <c r="C26" s="301"/>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
-      <c r="G26" s="301"/>
-      <c r="H26" s="301"/>
-      <c r="I26" s="301"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="301"/>
-      <c r="L26" s="301"/>
-      <c r="M26" s="301"/>
-      <c r="N26" s="301"/>
-      <c r="O26" s="301"/>
-      <c r="P26" s="301"/>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="301"/>
-      <c r="S26" s="301"/>
-      <c r="T26" s="301"/>
-      <c r="U26" s="301"/>
-      <c r="V26" s="301"/>
-      <c r="W26" s="301"/>
-      <c r="X26" s="301"/>
-      <c r="Y26" s="301"/>
-      <c r="Z26" s="301"/>
-      <c r="AA26" s="301"/>
-      <c r="AB26" s="301"/>
-      <c r="AC26" s="301"/>
-      <c r="AD26" s="301"/>
-      <c r="AE26" s="301"/>
-      <c r="AF26" s="301"/>
-      <c r="AG26" s="301"/>
-      <c r="AH26" s="301"/>
-      <c r="AI26" s="301"/>
-      <c r="AJ26" s="301"/>
-      <c r="AK26" s="301"/>
-      <c r="AL26" s="301"/>
-      <c r="AM26" s="301"/>
-      <c r="AN26" s="301"/>
-      <c r="AO26" s="301"/>
-      <c r="AP26" s="301"/>
-      <c r="AQ26" s="301"/>
-      <c r="AR26" s="301"/>
-      <c r="AS26" s="301"/>
-      <c r="AT26" s="301"/>
-      <c r="AU26" s="301"/>
-      <c r="AV26" s="301"/>
+      <c r="B26" s="304"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="304"/>
+      <c r="K26" s="304"/>
+      <c r="L26" s="304"/>
+      <c r="M26" s="304"/>
+      <c r="N26" s="304"/>
+      <c r="O26" s="304"/>
+      <c r="P26" s="304"/>
+      <c r="Q26" s="304"/>
+      <c r="R26" s="304"/>
+      <c r="S26" s="304"/>
+      <c r="T26" s="304"/>
+      <c r="U26" s="304"/>
+      <c r="V26" s="304"/>
+      <c r="W26" s="304"/>
+      <c r="X26" s="304"/>
+      <c r="Y26" s="304"/>
+      <c r="Z26" s="304"/>
+      <c r="AA26" s="304"/>
+      <c r="AB26" s="304"/>
+      <c r="AC26" s="304"/>
+      <c r="AD26" s="304"/>
+      <c r="AE26" s="304"/>
+      <c r="AF26" s="304"/>
+      <c r="AG26" s="304"/>
+      <c r="AH26" s="304"/>
+      <c r="AI26" s="304"/>
+      <c r="AJ26" s="304"/>
+      <c r="AK26" s="304"/>
+      <c r="AL26" s="304"/>
+      <c r="AM26" s="304"/>
+      <c r="AN26" s="304"/>
+      <c r="AO26" s="304"/>
+      <c r="AP26" s="304"/>
+      <c r="AQ26" s="304"/>
+      <c r="AR26" s="304"/>
+      <c r="AS26" s="304"/>
+      <c r="AT26" s="304"/>
+      <c r="AU26" s="304"/>
+      <c r="AV26" s="304"/>
       <c r="AW26" s="265"/>
     </row>
     <row r="27" s="181" customFormat="1" customHeight="1" spans="1:49">
@@ -17975,7 +17982,7 @@
       <c r="O30" s="190"/>
       <c r="P30" s="190"/>
       <c r="Q30" s="190"/>
-      <c r="R30" s="354" t="s">
+      <c r="R30" s="357" t="s">
         <v>16</v>
       </c>
       <c r="S30" s="256"/>
@@ -17986,7 +17993,7 @@
       <c r="X30" s="256"/>
       <c r="Y30" s="190"/>
       <c r="Z30" s="190"/>
-      <c r="AA30" s="354" t="s">
+      <c r="AA30" s="357" t="s">
         <v>17</v>
       </c>
       <c r="AB30" s="256"/>
@@ -18030,7 +18037,7 @@
       <c r="O31" s="190"/>
       <c r="P31" s="190"/>
       <c r="Q31" s="190"/>
-      <c r="R31" s="354" t="s">
+      <c r="R31" s="357" t="s">
         <v>18</v>
       </c>
       <c r="S31" s="256"/>
@@ -18041,7 +18048,7 @@
       <c r="X31" s="256"/>
       <c r="Y31" s="190"/>
       <c r="Z31" s="256"/>
-      <c r="AA31" s="354" t="s">
+      <c r="AA31" s="357" t="s">
         <v>19</v>
       </c>
       <c r="AB31" s="256"/>
@@ -18085,7 +18092,7 @@
       <c r="O32" s="190"/>
       <c r="P32" s="190"/>
       <c r="Q32" s="190"/>
-      <c r="R32" s="354" t="s">
+      <c r="R32" s="357" t="s">
         <v>20</v>
       </c>
       <c r="S32" s="256"/>
@@ -18096,7 +18103,7 @@
       <c r="X32" s="256"/>
       <c r="Y32" s="190"/>
       <c r="Z32" s="256"/>
-      <c r="AA32" s="354" t="s">
+      <c r="AA32" s="357" t="s">
         <v>21</v>
       </c>
       <c r="AB32" s="256"/>
@@ -18140,7 +18147,7 @@
       <c r="O33" s="190"/>
       <c r="P33" s="190"/>
       <c r="Q33" s="190"/>
-      <c r="R33" s="354" t="s">
+      <c r="R33" s="357" t="s">
         <v>22</v>
       </c>
       <c r="S33" s="256"/>
@@ -18195,7 +18202,7 @@
       <c r="O34" s="190"/>
       <c r="P34" s="190"/>
       <c r="Q34" s="190"/>
-      <c r="R34" s="354" t="s">
+      <c r="R34" s="357" t="s">
         <v>24</v>
       </c>
       <c r="S34" s="256"/>
@@ -18248,7 +18255,7 @@
       <c r="O35" s="190"/>
       <c r="P35" s="190"/>
       <c r="Q35" s="190"/>
-      <c r="R35" s="354" t="s">
+      <c r="R35" s="357" t="s">
         <v>25</v>
       </c>
       <c r="S35" s="256"/>
@@ -18488,57 +18495,57 @@
       <c r="AW39" s="265"/>
     </row>
     <row r="40" s="181" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A40" s="302"/>
-      <c r="B40" s="303"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="303"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="303"/>
-      <c r="G40" s="303"/>
-      <c r="H40" s="303"/>
-      <c r="I40" s="303"/>
-      <c r="J40" s="303"/>
-      <c r="K40" s="303"/>
-      <c r="L40" s="303"/>
-      <c r="M40" s="303"/>
-      <c r="N40" s="303"/>
-      <c r="O40" s="303"/>
-      <c r="P40" s="303"/>
-      <c r="Q40" s="303"/>
-      <c r="R40" s="303"/>
-      <c r="S40" s="303"/>
-      <c r="T40" s="303"/>
-      <c r="U40" s="303"/>
-      <c r="V40" s="303"/>
-      <c r="W40" s="303"/>
-      <c r="X40" s="303"/>
-      <c r="Y40" s="303"/>
-      <c r="Z40" s="303"/>
-      <c r="AA40" s="303"/>
-      <c r="AB40" s="303"/>
-      <c r="AC40" s="303"/>
-      <c r="AD40" s="303"/>
-      <c r="AE40" s="303"/>
-      <c r="AF40" s="303"/>
-      <c r="AG40" s="303"/>
-      <c r="AH40" s="303"/>
-      <c r="AI40" s="303"/>
-      <c r="AJ40" s="303"/>
-      <c r="AK40" s="303"/>
-      <c r="AL40" s="303"/>
-      <c r="AM40" s="303"/>
-      <c r="AN40" s="303"/>
-      <c r="AO40" s="303"/>
-      <c r="AP40" s="303"/>
-      <c r="AQ40" s="303"/>
-      <c r="AR40" s="303"/>
-      <c r="AS40" s="303"/>
-      <c r="AT40" s="303"/>
-      <c r="AU40" s="303"/>
-      <c r="AV40" s="303"/>
-      <c r="AW40" s="386"/>
-    </row>
-    <row r="41" s="298" customFormat="1" ht="17" customHeight="1" spans="1:49">
+      <c r="A40" s="305"/>
+      <c r="B40" s="306"/>
+      <c r="C40" s="306"/>
+      <c r="D40" s="306"/>
+      <c r="E40" s="306"/>
+      <c r="F40" s="306"/>
+      <c r="G40" s="306"/>
+      <c r="H40" s="306"/>
+      <c r="I40" s="306"/>
+      <c r="J40" s="306"/>
+      <c r="K40" s="306"/>
+      <c r="L40" s="306"/>
+      <c r="M40" s="306"/>
+      <c r="N40" s="306"/>
+      <c r="O40" s="306"/>
+      <c r="P40" s="306"/>
+      <c r="Q40" s="306"/>
+      <c r="R40" s="306"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="306"/>
+      <c r="V40" s="306"/>
+      <c r="W40" s="306"/>
+      <c r="X40" s="306"/>
+      <c r="Y40" s="306"/>
+      <c r="Z40" s="306"/>
+      <c r="AA40" s="306"/>
+      <c r="AB40" s="306"/>
+      <c r="AC40" s="306"/>
+      <c r="AD40" s="306"/>
+      <c r="AE40" s="306"/>
+      <c r="AF40" s="306"/>
+      <c r="AG40" s="306"/>
+      <c r="AH40" s="306"/>
+      <c r="AI40" s="306"/>
+      <c r="AJ40" s="306"/>
+      <c r="AK40" s="306"/>
+      <c r="AL40" s="306"/>
+      <c r="AM40" s="306"/>
+      <c r="AN40" s="306"/>
+      <c r="AO40" s="306"/>
+      <c r="AP40" s="306"/>
+      <c r="AQ40" s="306"/>
+      <c r="AR40" s="306"/>
+      <c r="AS40" s="306"/>
+      <c r="AT40" s="306"/>
+      <c r="AU40" s="306"/>
+      <c r="AV40" s="306"/>
+      <c r="AW40" s="389"/>
+    </row>
+    <row r="41" s="301" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
@@ -18607,7 +18614,7 @@
       <c r="AV41" s="145"/>
       <c r="AW41" s="160"/>
     </row>
-    <row r="42" s="298" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="42" s="301" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -18774,7 +18781,7 @@
     </row>
     <row r="45" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A45" s="187"/>
-      <c r="B45" s="304" t="s">
+      <c r="B45" s="307" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="256"/>
@@ -18878,1763 +18885,1763 @@
     </row>
     <row r="47" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A47" s="187"/>
-      <c r="B47" s="305" t="s">
+      <c r="B47" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="306"/>
-      <c r="D47" s="307" t="s">
+      <c r="C47" s="309"/>
+      <c r="D47" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="308"/>
-      <c r="F47" s="308"/>
-      <c r="G47" s="308"/>
-      <c r="H47" s="309"/>
-      <c r="I47" s="305" t="s">
+      <c r="E47" s="311"/>
+      <c r="F47" s="311"/>
+      <c r="G47" s="311"/>
+      <c r="H47" s="312"/>
+      <c r="I47" s="308" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="306"/>
-      <c r="K47" s="306"/>
-      <c r="L47" s="306"/>
-      <c r="M47" s="306"/>
-      <c r="N47" s="306"/>
-      <c r="O47" s="306"/>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="306"/>
-      <c r="R47" s="306"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="306"/>
-      <c r="V47" s="306"/>
-      <c r="W47" s="306"/>
-      <c r="X47" s="306"/>
-      <c r="Y47" s="306"/>
-      <c r="Z47" s="355"/>
-      <c r="AA47" s="307" t="s">
+      <c r="J47" s="309"/>
+      <c r="K47" s="309"/>
+      <c r="L47" s="309"/>
+      <c r="M47" s="309"/>
+      <c r="N47" s="309"/>
+      <c r="O47" s="309"/>
+      <c r="P47" s="309"/>
+      <c r="Q47" s="309"/>
+      <c r="R47" s="309"/>
+      <c r="S47" s="309"/>
+      <c r="T47" s="309"/>
+      <c r="U47" s="309"/>
+      <c r="V47" s="309"/>
+      <c r="W47" s="309"/>
+      <c r="X47" s="309"/>
+      <c r="Y47" s="309"/>
+      <c r="Z47" s="358"/>
+      <c r="AA47" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="308"/>
-      <c r="AC47" s="308"/>
-      <c r="AD47" s="309"/>
-      <c r="AE47" s="356"/>
-      <c r="AF47" s="357"/>
-      <c r="AG47" s="357"/>
-      <c r="AH47" s="357"/>
-      <c r="AI47" s="357"/>
-      <c r="AJ47" s="357"/>
-      <c r="AK47" s="357"/>
-      <c r="AL47" s="357"/>
-      <c r="AM47" s="381"/>
-      <c r="AN47" s="382"/>
-      <c r="AO47" s="384"/>
-      <c r="AP47" s="384"/>
-      <c r="AQ47" s="384"/>
-      <c r="AR47" s="384"/>
-      <c r="AS47" s="384"/>
-      <c r="AT47" s="384"/>
-      <c r="AU47" s="384"/>
-      <c r="AV47" s="385"/>
+      <c r="AB47" s="311"/>
+      <c r="AC47" s="311"/>
+      <c r="AD47" s="312"/>
+      <c r="AE47" s="359"/>
+      <c r="AF47" s="360"/>
+      <c r="AG47" s="360"/>
+      <c r="AH47" s="360"/>
+      <c r="AI47" s="360"/>
+      <c r="AJ47" s="360"/>
+      <c r="AK47" s="360"/>
+      <c r="AL47" s="360"/>
+      <c r="AM47" s="384"/>
+      <c r="AN47" s="385"/>
+      <c r="AO47" s="387"/>
+      <c r="AP47" s="387"/>
+      <c r="AQ47" s="387"/>
+      <c r="AR47" s="387"/>
+      <c r="AS47" s="387"/>
+      <c r="AT47" s="387"/>
+      <c r="AU47" s="387"/>
+      <c r="AV47" s="388"/>
       <c r="AW47" s="265"/>
     </row>
     <row r="48" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A48" s="187"/>
-      <c r="B48" s="310"/>
-      <c r="C48" s="311"/>
-      <c r="D48" s="312"/>
-      <c r="E48" s="313"/>
-      <c r="F48" s="313"/>
-      <c r="G48" s="313"/>
-      <c r="H48" s="314"/>
-      <c r="I48" s="310"/>
-      <c r="J48" s="311"/>
-      <c r="K48" s="311"/>
-      <c r="L48" s="311"/>
-      <c r="M48" s="311"/>
-      <c r="N48" s="311"/>
-      <c r="O48" s="311"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="311"/>
-      <c r="R48" s="311"/>
-      <c r="S48" s="311"/>
-      <c r="T48" s="311"/>
-      <c r="U48" s="311"/>
-      <c r="V48" s="311"/>
-      <c r="W48" s="311"/>
-      <c r="X48" s="311"/>
-      <c r="Y48" s="311"/>
-      <c r="Z48" s="358"/>
-      <c r="AA48" s="312"/>
-      <c r="AB48" s="313"/>
-      <c r="AC48" s="313"/>
-      <c r="AD48" s="314"/>
-      <c r="AE48" s="356" t="s">
+      <c r="B48" s="313"/>
+      <c r="C48" s="314"/>
+      <c r="D48" s="315"/>
+      <c r="E48" s="316"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="316"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="313"/>
+      <c r="J48" s="314"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="314"/>
+      <c r="N48" s="314"/>
+      <c r="O48" s="314"/>
+      <c r="P48" s="314"/>
+      <c r="Q48" s="314"/>
+      <c r="R48" s="314"/>
+      <c r="S48" s="314"/>
+      <c r="T48" s="314"/>
+      <c r="U48" s="314"/>
+      <c r="V48" s="314"/>
+      <c r="W48" s="314"/>
+      <c r="X48" s="314"/>
+      <c r="Y48" s="314"/>
+      <c r="Z48" s="361"/>
+      <c r="AA48" s="315"/>
+      <c r="AB48" s="316"/>
+      <c r="AC48" s="316"/>
+      <c r="AD48" s="317"/>
+      <c r="AE48" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AF48" s="357"/>
-      <c r="AG48" s="357"/>
-      <c r="AH48" s="357"/>
-      <c r="AI48" s="381"/>
-      <c r="AJ48" s="356" t="s">
+      <c r="AF48" s="360"/>
+      <c r="AG48" s="360"/>
+      <c r="AH48" s="360"/>
+      <c r="AI48" s="384"/>
+      <c r="AJ48" s="359" t="s">
         <v>30</v>
       </c>
-      <c r="AK48" s="357"/>
-      <c r="AL48" s="357"/>
-      <c r="AM48" s="381"/>
-      <c r="AN48" s="356" t="s">
+      <c r="AK48" s="360"/>
+      <c r="AL48" s="360"/>
+      <c r="AM48" s="384"/>
+      <c r="AN48" s="359" t="s">
         <v>29</v>
       </c>
-      <c r="AO48" s="357"/>
-      <c r="AP48" s="357"/>
-      <c r="AQ48" s="357"/>
-      <c r="AR48" s="381"/>
-      <c r="AS48" s="356" t="s">
+      <c r="AO48" s="360"/>
+      <c r="AP48" s="360"/>
+      <c r="AQ48" s="360"/>
+      <c r="AR48" s="384"/>
+      <c r="AS48" s="359" t="s">
         <v>30</v>
       </c>
-      <c r="AT48" s="357"/>
-      <c r="AU48" s="357"/>
-      <c r="AV48" s="381"/>
+      <c r="AT48" s="360"/>
+      <c r="AU48" s="360"/>
+      <c r="AV48" s="384"/>
       <c r="AW48" s="265"/>
     </row>
     <row r="49" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A49" s="187"/>
-      <c r="B49" s="315">
+      <c r="B49" s="318">
         <v>1</v>
       </c>
-      <c r="C49" s="316"/>
-      <c r="D49" s="317">
+      <c r="C49" s="319"/>
+      <c r="D49" s="320">
         <v>45209</v>
       </c>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="319"/>
-      <c r="I49" s="344" t="s">
+      <c r="E49" s="321"/>
+      <c r="F49" s="321"/>
+      <c r="G49" s="321"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="347" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="345"/>
-      <c r="K49" s="345"/>
-      <c r="L49" s="345"/>
-      <c r="M49" s="345"/>
-      <c r="N49" s="345"/>
-      <c r="O49" s="345"/>
-      <c r="P49" s="345"/>
-      <c r="Q49" s="345"/>
-      <c r="R49" s="345"/>
-      <c r="S49" s="345"/>
-      <c r="T49" s="345"/>
-      <c r="U49" s="345"/>
-      <c r="V49" s="345"/>
-      <c r="W49" s="345"/>
-      <c r="X49" s="345"/>
-      <c r="Y49" s="345"/>
-      <c r="Z49" s="359"/>
-      <c r="AA49" s="360" t="s">
+      <c r="J49" s="348"/>
+      <c r="K49" s="348"/>
+      <c r="L49" s="348"/>
+      <c r="M49" s="348"/>
+      <c r="N49" s="348"/>
+      <c r="O49" s="348"/>
+      <c r="P49" s="348"/>
+      <c r="Q49" s="348"/>
+      <c r="R49" s="348"/>
+      <c r="S49" s="348"/>
+      <c r="T49" s="348"/>
+      <c r="U49" s="348"/>
+      <c r="V49" s="348"/>
+      <c r="W49" s="348"/>
+      <c r="X49" s="348"/>
+      <c r="Y49" s="348"/>
+      <c r="Z49" s="362"/>
+      <c r="AA49" s="363" t="s">
         <v>6</v>
       </c>
-      <c r="AB49" s="361"/>
-      <c r="AC49" s="361"/>
-      <c r="AD49" s="362"/>
-      <c r="AE49" s="317"/>
-      <c r="AF49" s="318"/>
-      <c r="AG49" s="318"/>
-      <c r="AH49" s="318"/>
-      <c r="AI49" s="319"/>
-      <c r="AJ49" s="360"/>
-      <c r="AK49" s="361"/>
-      <c r="AL49" s="361"/>
-      <c r="AM49" s="362"/>
-      <c r="AN49" s="317"/>
-      <c r="AO49" s="318"/>
-      <c r="AP49" s="318"/>
-      <c r="AQ49" s="318"/>
-      <c r="AR49" s="319"/>
-      <c r="AS49" s="360"/>
-      <c r="AT49" s="361"/>
-      <c r="AU49" s="361"/>
-      <c r="AV49" s="362"/>
+      <c r="AB49" s="364"/>
+      <c r="AC49" s="364"/>
+      <c r="AD49" s="365"/>
+      <c r="AE49" s="320"/>
+      <c r="AF49" s="321"/>
+      <c r="AG49" s="321"/>
+      <c r="AH49" s="321"/>
+      <c r="AI49" s="322"/>
+      <c r="AJ49" s="363"/>
+      <c r="AK49" s="364"/>
+      <c r="AL49" s="364"/>
+      <c r="AM49" s="365"/>
+      <c r="AN49" s="320"/>
+      <c r="AO49" s="321"/>
+      <c r="AP49" s="321"/>
+      <c r="AQ49" s="321"/>
+      <c r="AR49" s="322"/>
+      <c r="AS49" s="363"/>
+      <c r="AT49" s="364"/>
+      <c r="AU49" s="364"/>
+      <c r="AV49" s="365"/>
       <c r="AW49" s="265"/>
     </row>
     <row r="50" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A50" s="187"/>
-      <c r="B50" s="320"/>
-      <c r="C50" s="321"/>
-      <c r="D50" s="322"/>
-      <c r="E50" s="323"/>
-      <c r="F50" s="323"/>
-      <c r="G50" s="323"/>
-      <c r="H50" s="324"/>
-      <c r="I50" s="346"/>
-      <c r="J50" s="347"/>
-      <c r="K50" s="347"/>
-      <c r="L50" s="347"/>
-      <c r="M50" s="347"/>
-      <c r="N50" s="347"/>
-      <c r="O50" s="347"/>
-      <c r="P50" s="347"/>
-      <c r="Q50" s="347"/>
-      <c r="R50" s="347"/>
-      <c r="S50" s="347"/>
-      <c r="T50" s="347"/>
-      <c r="U50" s="347"/>
-      <c r="V50" s="347"/>
-      <c r="W50" s="347"/>
-      <c r="X50" s="347"/>
-      <c r="Y50" s="347"/>
-      <c r="Z50" s="363"/>
-      <c r="AA50" s="364"/>
-      <c r="AB50" s="365"/>
-      <c r="AC50" s="365"/>
-      <c r="AD50" s="366"/>
-      <c r="AE50" s="322"/>
-      <c r="AF50" s="323"/>
-      <c r="AG50" s="323"/>
-      <c r="AH50" s="323"/>
-      <c r="AI50" s="324"/>
-      <c r="AJ50" s="364"/>
-      <c r="AK50" s="365"/>
-      <c r="AL50" s="365"/>
-      <c r="AM50" s="366"/>
-      <c r="AN50" s="322"/>
-      <c r="AO50" s="323"/>
-      <c r="AP50" s="323"/>
-      <c r="AQ50" s="323"/>
-      <c r="AR50" s="324"/>
-      <c r="AS50" s="364"/>
-      <c r="AT50" s="365"/>
-      <c r="AU50" s="365"/>
-      <c r="AV50" s="366"/>
+      <c r="B50" s="323"/>
+      <c r="C50" s="324"/>
+      <c r="D50" s="325"/>
+      <c r="E50" s="326"/>
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="327"/>
+      <c r="I50" s="349"/>
+      <c r="J50" s="350"/>
+      <c r="K50" s="350"/>
+      <c r="L50" s="350"/>
+      <c r="M50" s="350"/>
+      <c r="N50" s="350"/>
+      <c r="O50" s="350"/>
+      <c r="P50" s="350"/>
+      <c r="Q50" s="350"/>
+      <c r="R50" s="350"/>
+      <c r="S50" s="350"/>
+      <c r="T50" s="350"/>
+      <c r="U50" s="350"/>
+      <c r="V50" s="350"/>
+      <c r="W50" s="350"/>
+      <c r="X50" s="350"/>
+      <c r="Y50" s="350"/>
+      <c r="Z50" s="366"/>
+      <c r="AA50" s="367"/>
+      <c r="AB50" s="368"/>
+      <c r="AC50" s="368"/>
+      <c r="AD50" s="369"/>
+      <c r="AE50" s="325"/>
+      <c r="AF50" s="326"/>
+      <c r="AG50" s="326"/>
+      <c r="AH50" s="326"/>
+      <c r="AI50" s="327"/>
+      <c r="AJ50" s="367"/>
+      <c r="AK50" s="368"/>
+      <c r="AL50" s="368"/>
+      <c r="AM50" s="369"/>
+      <c r="AN50" s="325"/>
+      <c r="AO50" s="326"/>
+      <c r="AP50" s="326"/>
+      <c r="AQ50" s="326"/>
+      <c r="AR50" s="327"/>
+      <c r="AS50" s="367"/>
+      <c r="AT50" s="368"/>
+      <c r="AU50" s="368"/>
+      <c r="AV50" s="369"/>
       <c r="AW50" s="265"/>
     </row>
     <row r="51" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A51" s="187"/>
-      <c r="B51" s="325"/>
-      <c r="C51" s="326"/>
-      <c r="D51" s="327"/>
-      <c r="E51" s="328"/>
-      <c r="F51" s="328"/>
-      <c r="G51" s="328"/>
-      <c r="H51" s="329"/>
-      <c r="I51" s="348"/>
-      <c r="J51" s="349"/>
-      <c r="K51" s="349"/>
-      <c r="L51" s="349"/>
-      <c r="M51" s="349"/>
-      <c r="N51" s="349"/>
-      <c r="O51" s="349"/>
-      <c r="P51" s="349"/>
-      <c r="Q51" s="349"/>
-      <c r="R51" s="349"/>
-      <c r="S51" s="349"/>
-      <c r="T51" s="349"/>
-      <c r="U51" s="349"/>
-      <c r="V51" s="349"/>
-      <c r="W51" s="349"/>
-      <c r="X51" s="349"/>
-      <c r="Y51" s="349"/>
-      <c r="Z51" s="367"/>
-      <c r="AA51" s="368"/>
-      <c r="AB51" s="369"/>
-      <c r="AC51" s="369"/>
-      <c r="AD51" s="370"/>
-      <c r="AE51" s="371"/>
-      <c r="AF51" s="372"/>
-      <c r="AG51" s="372"/>
-      <c r="AH51" s="372"/>
-      <c r="AI51" s="383"/>
-      <c r="AJ51" s="368"/>
-      <c r="AK51" s="369"/>
-      <c r="AL51" s="369"/>
-      <c r="AM51" s="370"/>
-      <c r="AN51" s="371"/>
-      <c r="AO51" s="372"/>
-      <c r="AP51" s="372"/>
-      <c r="AQ51" s="372"/>
-      <c r="AR51" s="383"/>
-      <c r="AS51" s="368"/>
-      <c r="AT51" s="369"/>
-      <c r="AU51" s="369"/>
-      <c r="AV51" s="370"/>
+      <c r="B51" s="328"/>
+      <c r="C51" s="329"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="351"/>
+      <c r="J51" s="352"/>
+      <c r="K51" s="352"/>
+      <c r="L51" s="352"/>
+      <c r="M51" s="352"/>
+      <c r="N51" s="352"/>
+      <c r="O51" s="352"/>
+      <c r="P51" s="352"/>
+      <c r="Q51" s="352"/>
+      <c r="R51" s="352"/>
+      <c r="S51" s="352"/>
+      <c r="T51" s="352"/>
+      <c r="U51" s="352"/>
+      <c r="V51" s="352"/>
+      <c r="W51" s="352"/>
+      <c r="X51" s="352"/>
+      <c r="Y51" s="352"/>
+      <c r="Z51" s="370"/>
+      <c r="AA51" s="371"/>
+      <c r="AB51" s="372"/>
+      <c r="AC51" s="372"/>
+      <c r="AD51" s="373"/>
+      <c r="AE51" s="374"/>
+      <c r="AF51" s="375"/>
+      <c r="AG51" s="375"/>
+      <c r="AH51" s="375"/>
+      <c r="AI51" s="386"/>
+      <c r="AJ51" s="371"/>
+      <c r="AK51" s="372"/>
+      <c r="AL51" s="372"/>
+      <c r="AM51" s="373"/>
+      <c r="AN51" s="374"/>
+      <c r="AO51" s="375"/>
+      <c r="AP51" s="375"/>
+      <c r="AQ51" s="375"/>
+      <c r="AR51" s="386"/>
+      <c r="AS51" s="371"/>
+      <c r="AT51" s="372"/>
+      <c r="AU51" s="372"/>
+      <c r="AV51" s="373"/>
       <c r="AW51" s="265"/>
     </row>
     <row r="52" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A52" s="187"/>
-      <c r="B52" s="330"/>
-      <c r="C52" s="331"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="333"/>
-      <c r="F52" s="333"/>
-      <c r="G52" s="333"/>
-      <c r="H52" s="334"/>
-      <c r="I52" s="350"/>
-      <c r="J52" s="351"/>
-      <c r="K52" s="351"/>
-      <c r="L52" s="351"/>
-      <c r="M52" s="351"/>
-      <c r="N52" s="351"/>
-      <c r="O52" s="351"/>
-      <c r="P52" s="351"/>
-      <c r="Q52" s="351"/>
-      <c r="R52" s="351"/>
-      <c r="S52" s="351"/>
-      <c r="T52" s="351"/>
-      <c r="U52" s="351"/>
-      <c r="V52" s="351"/>
-      <c r="W52" s="351"/>
-      <c r="X52" s="351"/>
-      <c r="Y52" s="351"/>
-      <c r="Z52" s="373"/>
-      <c r="AA52" s="374"/>
-      <c r="AB52" s="375"/>
-      <c r="AC52" s="375"/>
-      <c r="AD52" s="376"/>
-      <c r="AE52" s="335"/>
-      <c r="AF52" s="336"/>
-      <c r="AG52" s="336"/>
-      <c r="AH52" s="336"/>
-      <c r="AI52" s="337"/>
-      <c r="AJ52" s="374"/>
-      <c r="AK52" s="375"/>
-      <c r="AL52" s="375"/>
-      <c r="AM52" s="376"/>
-      <c r="AN52" s="335"/>
-      <c r="AO52" s="336"/>
-      <c r="AP52" s="336"/>
-      <c r="AQ52" s="336"/>
-      <c r="AR52" s="337"/>
-      <c r="AS52" s="374"/>
-      <c r="AT52" s="375"/>
-      <c r="AU52" s="375"/>
-      <c r="AV52" s="376"/>
+      <c r="B52" s="333"/>
+      <c r="C52" s="334"/>
+      <c r="D52" s="335"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="353"/>
+      <c r="J52" s="354"/>
+      <c r="K52" s="354"/>
+      <c r="L52" s="354"/>
+      <c r="M52" s="354"/>
+      <c r="N52" s="354"/>
+      <c r="O52" s="354"/>
+      <c r="P52" s="354"/>
+      <c r="Q52" s="354"/>
+      <c r="R52" s="354"/>
+      <c r="S52" s="354"/>
+      <c r="T52" s="354"/>
+      <c r="U52" s="354"/>
+      <c r="V52" s="354"/>
+      <c r="W52" s="354"/>
+      <c r="X52" s="354"/>
+      <c r="Y52" s="354"/>
+      <c r="Z52" s="376"/>
+      <c r="AA52" s="377"/>
+      <c r="AB52" s="378"/>
+      <c r="AC52" s="378"/>
+      <c r="AD52" s="379"/>
+      <c r="AE52" s="338"/>
+      <c r="AF52" s="339"/>
+      <c r="AG52" s="339"/>
+      <c r="AH52" s="339"/>
+      <c r="AI52" s="340"/>
+      <c r="AJ52" s="377"/>
+      <c r="AK52" s="378"/>
+      <c r="AL52" s="378"/>
+      <c r="AM52" s="379"/>
+      <c r="AN52" s="338"/>
+      <c r="AO52" s="339"/>
+      <c r="AP52" s="339"/>
+      <c r="AQ52" s="339"/>
+      <c r="AR52" s="340"/>
+      <c r="AS52" s="377"/>
+      <c r="AT52" s="378"/>
+      <c r="AU52" s="378"/>
+      <c r="AV52" s="379"/>
       <c r="AW52" s="265"/>
     </row>
     <row r="53" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A53" s="187"/>
-      <c r="B53" s="330"/>
-      <c r="C53" s="331"/>
-      <c r="D53" s="335"/>
-      <c r="E53" s="336"/>
-      <c r="F53" s="336"/>
-      <c r="G53" s="336"/>
-      <c r="H53" s="337"/>
-      <c r="I53" s="350"/>
-      <c r="J53" s="351"/>
-      <c r="K53" s="351"/>
-      <c r="L53" s="351"/>
-      <c r="M53" s="351"/>
-      <c r="N53" s="351"/>
-      <c r="O53" s="351"/>
-      <c r="P53" s="351"/>
-      <c r="Q53" s="351"/>
-      <c r="R53" s="351"/>
-      <c r="S53" s="351"/>
-      <c r="T53" s="351"/>
-      <c r="U53" s="351"/>
-      <c r="V53" s="351"/>
-      <c r="W53" s="351"/>
-      <c r="X53" s="351"/>
-      <c r="Y53" s="351"/>
-      <c r="Z53" s="373"/>
-      <c r="AA53" s="374"/>
-      <c r="AB53" s="375"/>
-      <c r="AC53" s="375"/>
-      <c r="AD53" s="376"/>
-      <c r="AE53" s="335"/>
-      <c r="AF53" s="336"/>
-      <c r="AG53" s="336"/>
-      <c r="AH53" s="336"/>
-      <c r="AI53" s="337"/>
-      <c r="AJ53" s="374"/>
-      <c r="AK53" s="375"/>
-      <c r="AL53" s="375"/>
-      <c r="AM53" s="376"/>
-      <c r="AN53" s="335"/>
-      <c r="AO53" s="336"/>
-      <c r="AP53" s="336"/>
-      <c r="AQ53" s="336"/>
-      <c r="AR53" s="337"/>
-      <c r="AS53" s="374"/>
-      <c r="AT53" s="375"/>
-      <c r="AU53" s="375"/>
-      <c r="AV53" s="376"/>
+      <c r="B53" s="333"/>
+      <c r="C53" s="334"/>
+      <c r="D53" s="338"/>
+      <c r="E53" s="339"/>
+      <c r="F53" s="339"/>
+      <c r="G53" s="339"/>
+      <c r="H53" s="340"/>
+      <c r="I53" s="353"/>
+      <c r="J53" s="354"/>
+      <c r="K53" s="354"/>
+      <c r="L53" s="354"/>
+      <c r="M53" s="354"/>
+      <c r="N53" s="354"/>
+      <c r="O53" s="354"/>
+      <c r="P53" s="354"/>
+      <c r="Q53" s="354"/>
+      <c r="R53" s="354"/>
+      <c r="S53" s="354"/>
+      <c r="T53" s="354"/>
+      <c r="U53" s="354"/>
+      <c r="V53" s="354"/>
+      <c r="W53" s="354"/>
+      <c r="X53" s="354"/>
+      <c r="Y53" s="354"/>
+      <c r="Z53" s="376"/>
+      <c r="AA53" s="377"/>
+      <c r="AB53" s="378"/>
+      <c r="AC53" s="378"/>
+      <c r="AD53" s="379"/>
+      <c r="AE53" s="338"/>
+      <c r="AF53" s="339"/>
+      <c r="AG53" s="339"/>
+      <c r="AH53" s="339"/>
+      <c r="AI53" s="340"/>
+      <c r="AJ53" s="377"/>
+      <c r="AK53" s="378"/>
+      <c r="AL53" s="378"/>
+      <c r="AM53" s="379"/>
+      <c r="AN53" s="338"/>
+      <c r="AO53" s="339"/>
+      <c r="AP53" s="339"/>
+      <c r="AQ53" s="339"/>
+      <c r="AR53" s="340"/>
+      <c r="AS53" s="377"/>
+      <c r="AT53" s="378"/>
+      <c r="AU53" s="378"/>
+      <c r="AV53" s="379"/>
       <c r="AW53" s="265"/>
     </row>
     <row r="54" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A54" s="187"/>
-      <c r="B54" s="330"/>
-      <c r="C54" s="331"/>
-      <c r="D54" s="335"/>
-      <c r="E54" s="336"/>
-      <c r="F54" s="336"/>
-      <c r="G54" s="336"/>
-      <c r="H54" s="337"/>
-      <c r="I54" s="350"/>
-      <c r="J54" s="351"/>
-      <c r="K54" s="351"/>
-      <c r="L54" s="351"/>
-      <c r="M54" s="351"/>
-      <c r="N54" s="351"/>
-      <c r="O54" s="351"/>
-      <c r="P54" s="351"/>
-      <c r="Q54" s="351"/>
-      <c r="R54" s="351"/>
-      <c r="S54" s="351"/>
-      <c r="T54" s="351"/>
-      <c r="U54" s="351"/>
-      <c r="V54" s="351"/>
-      <c r="W54" s="351"/>
-      <c r="X54" s="351"/>
-      <c r="Y54" s="351"/>
-      <c r="Z54" s="373"/>
-      <c r="AA54" s="374"/>
-      <c r="AB54" s="375"/>
-      <c r="AC54" s="375"/>
-      <c r="AD54" s="376"/>
-      <c r="AE54" s="335"/>
-      <c r="AF54" s="336"/>
-      <c r="AG54" s="336"/>
-      <c r="AH54" s="336"/>
-      <c r="AI54" s="337"/>
-      <c r="AJ54" s="374"/>
-      <c r="AK54" s="375"/>
-      <c r="AL54" s="375"/>
-      <c r="AM54" s="376"/>
-      <c r="AN54" s="335"/>
-      <c r="AO54" s="336"/>
-      <c r="AP54" s="336"/>
-      <c r="AQ54" s="336"/>
-      <c r="AR54" s="337"/>
-      <c r="AS54" s="374"/>
-      <c r="AT54" s="375"/>
-      <c r="AU54" s="375"/>
-      <c r="AV54" s="376"/>
+      <c r="B54" s="333"/>
+      <c r="C54" s="334"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="339"/>
+      <c r="F54" s="339"/>
+      <c r="G54" s="339"/>
+      <c r="H54" s="340"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="354"/>
+      <c r="K54" s="354"/>
+      <c r="L54" s="354"/>
+      <c r="M54" s="354"/>
+      <c r="N54" s="354"/>
+      <c r="O54" s="354"/>
+      <c r="P54" s="354"/>
+      <c r="Q54" s="354"/>
+      <c r="R54" s="354"/>
+      <c r="S54" s="354"/>
+      <c r="T54" s="354"/>
+      <c r="U54" s="354"/>
+      <c r="V54" s="354"/>
+      <c r="W54" s="354"/>
+      <c r="X54" s="354"/>
+      <c r="Y54" s="354"/>
+      <c r="Z54" s="376"/>
+      <c r="AA54" s="377"/>
+      <c r="AB54" s="378"/>
+      <c r="AC54" s="378"/>
+      <c r="AD54" s="379"/>
+      <c r="AE54" s="338"/>
+      <c r="AF54" s="339"/>
+      <c r="AG54" s="339"/>
+      <c r="AH54" s="339"/>
+      <c r="AI54" s="340"/>
+      <c r="AJ54" s="377"/>
+      <c r="AK54" s="378"/>
+      <c r="AL54" s="378"/>
+      <c r="AM54" s="379"/>
+      <c r="AN54" s="338"/>
+      <c r="AO54" s="339"/>
+      <c r="AP54" s="339"/>
+      <c r="AQ54" s="339"/>
+      <c r="AR54" s="340"/>
+      <c r="AS54" s="377"/>
+      <c r="AT54" s="378"/>
+      <c r="AU54" s="378"/>
+      <c r="AV54" s="379"/>
       <c r="AW54" s="265"/>
     </row>
     <row r="55" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A55" s="187"/>
-      <c r="B55" s="338"/>
-      <c r="C55" s="339"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="341"/>
-      <c r="F55" s="341"/>
-      <c r="G55" s="341"/>
-      <c r="H55" s="342"/>
-      <c r="I55" s="352"/>
-      <c r="J55" s="353"/>
-      <c r="K55" s="353"/>
-      <c r="L55" s="353"/>
-      <c r="M55" s="353"/>
-      <c r="N55" s="353"/>
-      <c r="O55" s="353"/>
-      <c r="P55" s="353"/>
-      <c r="Q55" s="353"/>
-      <c r="R55" s="353"/>
-      <c r="S55" s="353"/>
-      <c r="T55" s="353"/>
-      <c r="U55" s="353"/>
-      <c r="V55" s="353"/>
-      <c r="W55" s="353"/>
-      <c r="X55" s="353"/>
-      <c r="Y55" s="353"/>
-      <c r="Z55" s="377"/>
-      <c r="AA55" s="378"/>
-      <c r="AB55" s="379"/>
-      <c r="AC55" s="379"/>
-      <c r="AD55" s="380"/>
-      <c r="AE55" s="340"/>
-      <c r="AF55" s="341"/>
-      <c r="AG55" s="341"/>
-      <c r="AH55" s="341"/>
-      <c r="AI55" s="342"/>
-      <c r="AJ55" s="378"/>
-      <c r="AK55" s="379"/>
-      <c r="AL55" s="379"/>
-      <c r="AM55" s="380"/>
-      <c r="AN55" s="340"/>
-      <c r="AO55" s="341"/>
-      <c r="AP55" s="341"/>
-      <c r="AQ55" s="341"/>
-      <c r="AR55" s="342"/>
-      <c r="AS55" s="378"/>
-      <c r="AT55" s="379"/>
-      <c r="AU55" s="379"/>
-      <c r="AV55" s="380"/>
+      <c r="B55" s="341"/>
+      <c r="C55" s="342"/>
+      <c r="D55" s="343"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="345"/>
+      <c r="I55" s="355"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
+      <c r="T55" s="356"/>
+      <c r="U55" s="356"/>
+      <c r="V55" s="356"/>
+      <c r="W55" s="356"/>
+      <c r="X55" s="356"/>
+      <c r="Y55" s="356"/>
+      <c r="Z55" s="380"/>
+      <c r="AA55" s="381"/>
+      <c r="AB55" s="382"/>
+      <c r="AC55" s="382"/>
+      <c r="AD55" s="383"/>
+      <c r="AE55" s="343"/>
+      <c r="AF55" s="344"/>
+      <c r="AG55" s="344"/>
+      <c r="AH55" s="344"/>
+      <c r="AI55" s="345"/>
+      <c r="AJ55" s="381"/>
+      <c r="AK55" s="382"/>
+      <c r="AL55" s="382"/>
+      <c r="AM55" s="383"/>
+      <c r="AN55" s="343"/>
+      <c r="AO55" s="344"/>
+      <c r="AP55" s="344"/>
+      <c r="AQ55" s="344"/>
+      <c r="AR55" s="345"/>
+      <c r="AS55" s="381"/>
+      <c r="AT55" s="382"/>
+      <c r="AU55" s="382"/>
+      <c r="AV55" s="383"/>
       <c r="AW55" s="265"/>
     </row>
     <row r="56" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A56" s="187"/>
-      <c r="B56" s="338"/>
-      <c r="C56" s="339"/>
-      <c r="D56" s="340"/>
-      <c r="E56" s="341"/>
-      <c r="F56" s="341"/>
-      <c r="G56" s="341"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="352"/>
-      <c r="J56" s="353"/>
-      <c r="K56" s="353"/>
-      <c r="L56" s="353"/>
-      <c r="M56" s="353"/>
-      <c r="N56" s="353"/>
-      <c r="O56" s="353"/>
-      <c r="P56" s="353"/>
-      <c r="Q56" s="353"/>
-      <c r="R56" s="353"/>
-      <c r="S56" s="353"/>
-      <c r="T56" s="353"/>
-      <c r="U56" s="353"/>
-      <c r="V56" s="353"/>
-      <c r="W56" s="353"/>
-      <c r="X56" s="353"/>
-      <c r="Y56" s="353"/>
-      <c r="Z56" s="377"/>
-      <c r="AA56" s="378"/>
-      <c r="AB56" s="379"/>
-      <c r="AC56" s="379"/>
-      <c r="AD56" s="380"/>
-      <c r="AE56" s="340"/>
-      <c r="AF56" s="341"/>
-      <c r="AG56" s="341"/>
-      <c r="AH56" s="341"/>
-      <c r="AI56" s="342"/>
-      <c r="AJ56" s="378"/>
-      <c r="AK56" s="379"/>
-      <c r="AL56" s="379"/>
-      <c r="AM56" s="380"/>
-      <c r="AN56" s="340"/>
-      <c r="AO56" s="341"/>
-      <c r="AP56" s="341"/>
-      <c r="AQ56" s="341"/>
-      <c r="AR56" s="342"/>
-      <c r="AS56" s="378"/>
-      <c r="AT56" s="379"/>
-      <c r="AU56" s="379"/>
-      <c r="AV56" s="380"/>
+      <c r="B56" s="341"/>
+      <c r="C56" s="342"/>
+      <c r="D56" s="343"/>
+      <c r="E56" s="344"/>
+      <c r="F56" s="344"/>
+      <c r="G56" s="344"/>
+      <c r="H56" s="345"/>
+      <c r="I56" s="355"/>
+      <c r="J56" s="356"/>
+      <c r="K56" s="356"/>
+      <c r="L56" s="356"/>
+      <c r="M56" s="356"/>
+      <c r="N56" s="356"/>
+      <c r="O56" s="356"/>
+      <c r="P56" s="356"/>
+      <c r="Q56" s="356"/>
+      <c r="R56" s="356"/>
+      <c r="S56" s="356"/>
+      <c r="T56" s="356"/>
+      <c r="U56" s="356"/>
+      <c r="V56" s="356"/>
+      <c r="W56" s="356"/>
+      <c r="X56" s="356"/>
+      <c r="Y56" s="356"/>
+      <c r="Z56" s="380"/>
+      <c r="AA56" s="381"/>
+      <c r="AB56" s="382"/>
+      <c r="AC56" s="382"/>
+      <c r="AD56" s="383"/>
+      <c r="AE56" s="343"/>
+      <c r="AF56" s="344"/>
+      <c r="AG56" s="344"/>
+      <c r="AH56" s="344"/>
+      <c r="AI56" s="345"/>
+      <c r="AJ56" s="381"/>
+      <c r="AK56" s="382"/>
+      <c r="AL56" s="382"/>
+      <c r="AM56" s="383"/>
+      <c r="AN56" s="343"/>
+      <c r="AO56" s="344"/>
+      <c r="AP56" s="344"/>
+      <c r="AQ56" s="344"/>
+      <c r="AR56" s="345"/>
+      <c r="AS56" s="381"/>
+      <c r="AT56" s="382"/>
+      <c r="AU56" s="382"/>
+      <c r="AV56" s="383"/>
       <c r="AW56" s="265"/>
     </row>
     <row r="57" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A57" s="187"/>
-      <c r="B57" s="338"/>
-      <c r="C57" s="339"/>
-      <c r="D57" s="340"/>
-      <c r="E57" s="341"/>
-      <c r="F57" s="341"/>
-      <c r="G57" s="341"/>
-      <c r="H57" s="342"/>
-      <c r="I57" s="352"/>
-      <c r="J57" s="353"/>
-      <c r="K57" s="353"/>
-      <c r="L57" s="353"/>
-      <c r="M57" s="353"/>
-      <c r="N57" s="353"/>
-      <c r="O57" s="353"/>
-      <c r="P57" s="353"/>
-      <c r="Q57" s="353"/>
-      <c r="R57" s="353"/>
-      <c r="S57" s="353"/>
-      <c r="T57" s="353"/>
-      <c r="U57" s="353"/>
-      <c r="V57" s="353"/>
-      <c r="W57" s="353"/>
-      <c r="X57" s="353"/>
-      <c r="Y57" s="353"/>
-      <c r="Z57" s="377"/>
-      <c r="AA57" s="378"/>
-      <c r="AB57" s="379"/>
-      <c r="AC57" s="379"/>
-      <c r="AD57" s="380"/>
-      <c r="AE57" s="340"/>
-      <c r="AF57" s="341"/>
-      <c r="AG57" s="341"/>
-      <c r="AH57" s="341"/>
-      <c r="AI57" s="342"/>
-      <c r="AJ57" s="378"/>
-      <c r="AK57" s="379"/>
-      <c r="AL57" s="379"/>
-      <c r="AM57" s="380"/>
-      <c r="AN57" s="340"/>
-      <c r="AO57" s="341"/>
-      <c r="AP57" s="341"/>
-      <c r="AQ57" s="341"/>
-      <c r="AR57" s="342"/>
-      <c r="AS57" s="378"/>
-      <c r="AT57" s="379"/>
-      <c r="AU57" s="379"/>
-      <c r="AV57" s="380"/>
+      <c r="B57" s="341"/>
+      <c r="C57" s="342"/>
+      <c r="D57" s="343"/>
+      <c r="E57" s="344"/>
+      <c r="F57" s="344"/>
+      <c r="G57" s="344"/>
+      <c r="H57" s="345"/>
+      <c r="I57" s="355"/>
+      <c r="J57" s="356"/>
+      <c r="K57" s="356"/>
+      <c r="L57" s="356"/>
+      <c r="M57" s="356"/>
+      <c r="N57" s="356"/>
+      <c r="O57" s="356"/>
+      <c r="P57" s="356"/>
+      <c r="Q57" s="356"/>
+      <c r="R57" s="356"/>
+      <c r="S57" s="356"/>
+      <c r="T57" s="356"/>
+      <c r="U57" s="356"/>
+      <c r="V57" s="356"/>
+      <c r="W57" s="356"/>
+      <c r="X57" s="356"/>
+      <c r="Y57" s="356"/>
+      <c r="Z57" s="380"/>
+      <c r="AA57" s="381"/>
+      <c r="AB57" s="382"/>
+      <c r="AC57" s="382"/>
+      <c r="AD57" s="383"/>
+      <c r="AE57" s="343"/>
+      <c r="AF57" s="344"/>
+      <c r="AG57" s="344"/>
+      <c r="AH57" s="344"/>
+      <c r="AI57" s="345"/>
+      <c r="AJ57" s="381"/>
+      <c r="AK57" s="382"/>
+      <c r="AL57" s="382"/>
+      <c r="AM57" s="383"/>
+      <c r="AN57" s="343"/>
+      <c r="AO57" s="344"/>
+      <c r="AP57" s="344"/>
+      <c r="AQ57" s="344"/>
+      <c r="AR57" s="345"/>
+      <c r="AS57" s="381"/>
+      <c r="AT57" s="382"/>
+      <c r="AU57" s="382"/>
+      <c r="AV57" s="383"/>
       <c r="AW57" s="265"/>
     </row>
     <row r="58" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A58" s="187"/>
-      <c r="B58" s="338"/>
-      <c r="C58" s="339"/>
-      <c r="D58" s="340"/>
-      <c r="E58" s="341"/>
-      <c r="F58" s="341"/>
-      <c r="G58" s="341"/>
-      <c r="H58" s="342"/>
-      <c r="I58" s="352"/>
-      <c r="J58" s="353"/>
-      <c r="K58" s="353"/>
-      <c r="L58" s="353"/>
-      <c r="M58" s="353"/>
-      <c r="N58" s="353"/>
-      <c r="O58" s="353"/>
-      <c r="P58" s="353"/>
-      <c r="Q58" s="353"/>
-      <c r="R58" s="353"/>
-      <c r="S58" s="353"/>
-      <c r="T58" s="353"/>
-      <c r="U58" s="353"/>
-      <c r="V58" s="353"/>
-      <c r="W58" s="353"/>
-      <c r="X58" s="353"/>
-      <c r="Y58" s="353"/>
-      <c r="Z58" s="377"/>
-      <c r="AA58" s="378"/>
-      <c r="AB58" s="379"/>
-      <c r="AC58" s="379"/>
-      <c r="AD58" s="380"/>
-      <c r="AE58" s="340"/>
-      <c r="AF58" s="341"/>
-      <c r="AG58" s="341"/>
-      <c r="AH58" s="341"/>
-      <c r="AI58" s="342"/>
-      <c r="AJ58" s="378"/>
-      <c r="AK58" s="379"/>
-      <c r="AL58" s="379"/>
-      <c r="AM58" s="380"/>
-      <c r="AN58" s="340"/>
-      <c r="AO58" s="341"/>
-      <c r="AP58" s="341"/>
-      <c r="AQ58" s="341"/>
-      <c r="AR58" s="342"/>
-      <c r="AS58" s="378"/>
-      <c r="AT58" s="379"/>
-      <c r="AU58" s="379"/>
-      <c r="AV58" s="380"/>
+      <c r="B58" s="341"/>
+      <c r="C58" s="342"/>
+      <c r="D58" s="343"/>
+      <c r="E58" s="344"/>
+      <c r="F58" s="344"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="345"/>
+      <c r="I58" s="355"/>
+      <c r="J58" s="356"/>
+      <c r="K58" s="356"/>
+      <c r="L58" s="356"/>
+      <c r="M58" s="356"/>
+      <c r="N58" s="356"/>
+      <c r="O58" s="356"/>
+      <c r="P58" s="356"/>
+      <c r="Q58" s="356"/>
+      <c r="R58" s="356"/>
+      <c r="S58" s="356"/>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
+      <c r="W58" s="356"/>
+      <c r="X58" s="356"/>
+      <c r="Y58" s="356"/>
+      <c r="Z58" s="380"/>
+      <c r="AA58" s="381"/>
+      <c r="AB58" s="382"/>
+      <c r="AC58" s="382"/>
+      <c r="AD58" s="383"/>
+      <c r="AE58" s="343"/>
+      <c r="AF58" s="344"/>
+      <c r="AG58" s="344"/>
+      <c r="AH58" s="344"/>
+      <c r="AI58" s="345"/>
+      <c r="AJ58" s="381"/>
+      <c r="AK58" s="382"/>
+      <c r="AL58" s="382"/>
+      <c r="AM58" s="383"/>
+      <c r="AN58" s="343"/>
+      <c r="AO58" s="344"/>
+      <c r="AP58" s="344"/>
+      <c r="AQ58" s="344"/>
+      <c r="AR58" s="345"/>
+      <c r="AS58" s="381"/>
+      <c r="AT58" s="382"/>
+      <c r="AU58" s="382"/>
+      <c r="AV58" s="383"/>
       <c r="AW58" s="265"/>
     </row>
     <row r="59" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A59" s="187"/>
-      <c r="B59" s="330"/>
-      <c r="C59" s="331"/>
-      <c r="D59" s="335"/>
-      <c r="E59" s="336"/>
-      <c r="F59" s="336"/>
-      <c r="G59" s="336"/>
-      <c r="H59" s="337"/>
-      <c r="I59" s="350"/>
-      <c r="J59" s="351"/>
-      <c r="K59" s="351"/>
-      <c r="L59" s="351"/>
-      <c r="M59" s="351"/>
-      <c r="N59" s="351"/>
-      <c r="O59" s="351"/>
-      <c r="P59" s="351"/>
-      <c r="Q59" s="351"/>
-      <c r="R59" s="351"/>
-      <c r="S59" s="351"/>
-      <c r="T59" s="351"/>
-      <c r="U59" s="351"/>
-      <c r="V59" s="351"/>
-      <c r="W59" s="351"/>
-      <c r="X59" s="351"/>
-      <c r="Y59" s="351"/>
-      <c r="Z59" s="373"/>
-      <c r="AA59" s="374"/>
-      <c r="AB59" s="375"/>
-      <c r="AC59" s="375"/>
-      <c r="AD59" s="376"/>
-      <c r="AE59" s="335"/>
-      <c r="AF59" s="336"/>
-      <c r="AG59" s="336"/>
-      <c r="AH59" s="336"/>
-      <c r="AI59" s="337"/>
-      <c r="AJ59" s="374"/>
-      <c r="AK59" s="375"/>
-      <c r="AL59" s="375"/>
-      <c r="AM59" s="376"/>
-      <c r="AN59" s="335"/>
-      <c r="AO59" s="336"/>
-      <c r="AP59" s="336"/>
-      <c r="AQ59" s="336"/>
-      <c r="AR59" s="337"/>
-      <c r="AS59" s="374"/>
-      <c r="AT59" s="375"/>
-      <c r="AU59" s="375"/>
-      <c r="AV59" s="376"/>
+      <c r="B59" s="333"/>
+      <c r="C59" s="334"/>
+      <c r="D59" s="338"/>
+      <c r="E59" s="339"/>
+      <c r="F59" s="339"/>
+      <c r="G59" s="339"/>
+      <c r="H59" s="340"/>
+      <c r="I59" s="353"/>
+      <c r="J59" s="354"/>
+      <c r="K59" s="354"/>
+      <c r="L59" s="354"/>
+      <c r="M59" s="354"/>
+      <c r="N59" s="354"/>
+      <c r="O59" s="354"/>
+      <c r="P59" s="354"/>
+      <c r="Q59" s="354"/>
+      <c r="R59" s="354"/>
+      <c r="S59" s="354"/>
+      <c r="T59" s="354"/>
+      <c r="U59" s="354"/>
+      <c r="V59" s="354"/>
+      <c r="W59" s="354"/>
+      <c r="X59" s="354"/>
+      <c r="Y59" s="354"/>
+      <c r="Z59" s="376"/>
+      <c r="AA59" s="377"/>
+      <c r="AB59" s="378"/>
+      <c r="AC59" s="378"/>
+      <c r="AD59" s="379"/>
+      <c r="AE59" s="338"/>
+      <c r="AF59" s="339"/>
+      <c r="AG59" s="339"/>
+      <c r="AH59" s="339"/>
+      <c r="AI59" s="340"/>
+      <c r="AJ59" s="377"/>
+      <c r="AK59" s="378"/>
+      <c r="AL59" s="378"/>
+      <c r="AM59" s="379"/>
+      <c r="AN59" s="338"/>
+      <c r="AO59" s="339"/>
+      <c r="AP59" s="339"/>
+      <c r="AQ59" s="339"/>
+      <c r="AR59" s="340"/>
+      <c r="AS59" s="377"/>
+      <c r="AT59" s="378"/>
+      <c r="AU59" s="378"/>
+      <c r="AV59" s="379"/>
       <c r="AW59" s="265"/>
     </row>
     <row r="60" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A60" s="187"/>
-      <c r="B60" s="330"/>
-      <c r="C60" s="331"/>
-      <c r="D60" s="335"/>
-      <c r="E60" s="336"/>
-      <c r="F60" s="336"/>
-      <c r="G60" s="336"/>
-      <c r="H60" s="337"/>
-      <c r="I60" s="350"/>
-      <c r="J60" s="351"/>
-      <c r="K60" s="351"/>
-      <c r="L60" s="351"/>
-      <c r="M60" s="351"/>
-      <c r="N60" s="351"/>
-      <c r="O60" s="351"/>
-      <c r="P60" s="351"/>
-      <c r="Q60" s="351"/>
-      <c r="R60" s="351"/>
-      <c r="S60" s="351"/>
-      <c r="T60" s="351"/>
-      <c r="U60" s="351"/>
-      <c r="V60" s="351"/>
-      <c r="W60" s="351"/>
-      <c r="X60" s="351"/>
-      <c r="Y60" s="351"/>
-      <c r="Z60" s="373"/>
-      <c r="AA60" s="374"/>
-      <c r="AB60" s="375"/>
-      <c r="AC60" s="375"/>
-      <c r="AD60" s="376"/>
-      <c r="AE60" s="335"/>
-      <c r="AF60" s="336"/>
-      <c r="AG60" s="336"/>
-      <c r="AH60" s="336"/>
-      <c r="AI60" s="337"/>
-      <c r="AJ60" s="374"/>
-      <c r="AK60" s="375"/>
-      <c r="AL60" s="375"/>
-      <c r="AM60" s="376"/>
-      <c r="AN60" s="335"/>
-      <c r="AO60" s="336"/>
-      <c r="AP60" s="336"/>
-      <c r="AQ60" s="336"/>
-      <c r="AR60" s="337"/>
-      <c r="AS60" s="374"/>
-      <c r="AT60" s="375"/>
-      <c r="AU60" s="375"/>
-      <c r="AV60" s="376"/>
+      <c r="B60" s="333"/>
+      <c r="C60" s="334"/>
+      <c r="D60" s="338"/>
+      <c r="E60" s="339"/>
+      <c r="F60" s="339"/>
+      <c r="G60" s="339"/>
+      <c r="H60" s="340"/>
+      <c r="I60" s="353"/>
+      <c r="J60" s="354"/>
+      <c r="K60" s="354"/>
+      <c r="L60" s="354"/>
+      <c r="M60" s="354"/>
+      <c r="N60" s="354"/>
+      <c r="O60" s="354"/>
+      <c r="P60" s="354"/>
+      <c r="Q60" s="354"/>
+      <c r="R60" s="354"/>
+      <c r="S60" s="354"/>
+      <c r="T60" s="354"/>
+      <c r="U60" s="354"/>
+      <c r="V60" s="354"/>
+      <c r="W60" s="354"/>
+      <c r="X60" s="354"/>
+      <c r="Y60" s="354"/>
+      <c r="Z60" s="376"/>
+      <c r="AA60" s="377"/>
+      <c r="AB60" s="378"/>
+      <c r="AC60" s="378"/>
+      <c r="AD60" s="379"/>
+      <c r="AE60" s="338"/>
+      <c r="AF60" s="339"/>
+      <c r="AG60" s="339"/>
+      <c r="AH60" s="339"/>
+      <c r="AI60" s="340"/>
+      <c r="AJ60" s="377"/>
+      <c r="AK60" s="378"/>
+      <c r="AL60" s="378"/>
+      <c r="AM60" s="379"/>
+      <c r="AN60" s="338"/>
+      <c r="AO60" s="339"/>
+      <c r="AP60" s="339"/>
+      <c r="AQ60" s="339"/>
+      <c r="AR60" s="340"/>
+      <c r="AS60" s="377"/>
+      <c r="AT60" s="378"/>
+      <c r="AU60" s="378"/>
+      <c r="AV60" s="379"/>
       <c r="AW60" s="265"/>
     </row>
     <row r="61" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A61" s="187"/>
-      <c r="B61" s="330"/>
-      <c r="C61" s="331"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="336"/>
-      <c r="F61" s="336"/>
-      <c r="G61" s="336"/>
-      <c r="H61" s="337"/>
-      <c r="I61" s="350"/>
-      <c r="J61" s="351"/>
-      <c r="K61" s="351"/>
-      <c r="L61" s="351"/>
-      <c r="M61" s="351"/>
-      <c r="N61" s="351"/>
-      <c r="O61" s="351"/>
-      <c r="P61" s="351"/>
-      <c r="Q61" s="351"/>
-      <c r="R61" s="351"/>
-      <c r="S61" s="351"/>
-      <c r="T61" s="351"/>
-      <c r="U61" s="351"/>
-      <c r="V61" s="351"/>
-      <c r="W61" s="351"/>
-      <c r="X61" s="351"/>
-      <c r="Y61" s="351"/>
-      <c r="Z61" s="373"/>
-      <c r="AA61" s="374"/>
-      <c r="AB61" s="375"/>
-      <c r="AC61" s="375"/>
-      <c r="AD61" s="376"/>
-      <c r="AE61" s="335"/>
-      <c r="AF61" s="336"/>
-      <c r="AG61" s="336"/>
-      <c r="AH61" s="336"/>
-      <c r="AI61" s="337"/>
-      <c r="AJ61" s="374"/>
-      <c r="AK61" s="375"/>
-      <c r="AL61" s="375"/>
-      <c r="AM61" s="376"/>
-      <c r="AN61" s="335"/>
-      <c r="AO61" s="336"/>
-      <c r="AP61" s="336"/>
-      <c r="AQ61" s="336"/>
-      <c r="AR61" s="337"/>
-      <c r="AS61" s="374"/>
-      <c r="AT61" s="375"/>
-      <c r="AU61" s="375"/>
-      <c r="AV61" s="376"/>
+      <c r="B61" s="333"/>
+      <c r="C61" s="334"/>
+      <c r="D61" s="338"/>
+      <c r="E61" s="339"/>
+      <c r="F61" s="339"/>
+      <c r="G61" s="339"/>
+      <c r="H61" s="340"/>
+      <c r="I61" s="353"/>
+      <c r="J61" s="354"/>
+      <c r="K61" s="354"/>
+      <c r="L61" s="354"/>
+      <c r="M61" s="354"/>
+      <c r="N61" s="354"/>
+      <c r="O61" s="354"/>
+      <c r="P61" s="354"/>
+      <c r="Q61" s="354"/>
+      <c r="R61" s="354"/>
+      <c r="S61" s="354"/>
+      <c r="T61" s="354"/>
+      <c r="U61" s="354"/>
+      <c r="V61" s="354"/>
+      <c r="W61" s="354"/>
+      <c r="X61" s="354"/>
+      <c r="Y61" s="354"/>
+      <c r="Z61" s="376"/>
+      <c r="AA61" s="377"/>
+      <c r="AB61" s="378"/>
+      <c r="AC61" s="378"/>
+      <c r="AD61" s="379"/>
+      <c r="AE61" s="338"/>
+      <c r="AF61" s="339"/>
+      <c r="AG61" s="339"/>
+      <c r="AH61" s="339"/>
+      <c r="AI61" s="340"/>
+      <c r="AJ61" s="377"/>
+      <c r="AK61" s="378"/>
+      <c r="AL61" s="378"/>
+      <c r="AM61" s="379"/>
+      <c r="AN61" s="338"/>
+      <c r="AO61" s="339"/>
+      <c r="AP61" s="339"/>
+      <c r="AQ61" s="339"/>
+      <c r="AR61" s="340"/>
+      <c r="AS61" s="377"/>
+      <c r="AT61" s="378"/>
+      <c r="AU61" s="378"/>
+      <c r="AV61" s="379"/>
       <c r="AW61" s="265"/>
     </row>
     <row r="62" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A62" s="187"/>
-      <c r="B62" s="330"/>
-      <c r="C62" s="331"/>
-      <c r="D62" s="335"/>
-      <c r="E62" s="336"/>
-      <c r="F62" s="336"/>
-      <c r="G62" s="336"/>
-      <c r="H62" s="337"/>
-      <c r="I62" s="350"/>
-      <c r="J62" s="351"/>
-      <c r="K62" s="351"/>
-      <c r="L62" s="351"/>
-      <c r="M62" s="351"/>
-      <c r="N62" s="351"/>
-      <c r="O62" s="351"/>
-      <c r="P62" s="351"/>
-      <c r="Q62" s="351"/>
-      <c r="R62" s="351"/>
-      <c r="S62" s="351"/>
-      <c r="T62" s="351"/>
-      <c r="U62" s="351"/>
-      <c r="V62" s="351"/>
-      <c r="W62" s="351"/>
-      <c r="X62" s="351"/>
-      <c r="Y62" s="351"/>
-      <c r="Z62" s="373"/>
-      <c r="AA62" s="374"/>
-      <c r="AB62" s="375"/>
-      <c r="AC62" s="375"/>
-      <c r="AD62" s="376"/>
-      <c r="AE62" s="335"/>
-      <c r="AF62" s="336"/>
-      <c r="AG62" s="336"/>
-      <c r="AH62" s="336"/>
-      <c r="AI62" s="337"/>
-      <c r="AJ62" s="374"/>
-      <c r="AK62" s="375"/>
-      <c r="AL62" s="375"/>
-      <c r="AM62" s="376"/>
-      <c r="AN62" s="335"/>
-      <c r="AO62" s="336"/>
-      <c r="AP62" s="336"/>
-      <c r="AQ62" s="336"/>
-      <c r="AR62" s="337"/>
-      <c r="AS62" s="374"/>
-      <c r="AT62" s="375"/>
-      <c r="AU62" s="375"/>
-      <c r="AV62" s="376"/>
+      <c r="B62" s="333"/>
+      <c r="C62" s="334"/>
+      <c r="D62" s="338"/>
+      <c r="E62" s="339"/>
+      <c r="F62" s="339"/>
+      <c r="G62" s="339"/>
+      <c r="H62" s="340"/>
+      <c r="I62" s="353"/>
+      <c r="J62" s="354"/>
+      <c r="K62" s="354"/>
+      <c r="L62" s="354"/>
+      <c r="M62" s="354"/>
+      <c r="N62" s="354"/>
+      <c r="O62" s="354"/>
+      <c r="P62" s="354"/>
+      <c r="Q62" s="354"/>
+      <c r="R62" s="354"/>
+      <c r="S62" s="354"/>
+      <c r="T62" s="354"/>
+      <c r="U62" s="354"/>
+      <c r="V62" s="354"/>
+      <c r="W62" s="354"/>
+      <c r="X62" s="354"/>
+      <c r="Y62" s="354"/>
+      <c r="Z62" s="376"/>
+      <c r="AA62" s="377"/>
+      <c r="AB62" s="378"/>
+      <c r="AC62" s="378"/>
+      <c r="AD62" s="379"/>
+      <c r="AE62" s="338"/>
+      <c r="AF62" s="339"/>
+      <c r="AG62" s="339"/>
+      <c r="AH62" s="339"/>
+      <c r="AI62" s="340"/>
+      <c r="AJ62" s="377"/>
+      <c r="AK62" s="378"/>
+      <c r="AL62" s="378"/>
+      <c r="AM62" s="379"/>
+      <c r="AN62" s="338"/>
+      <c r="AO62" s="339"/>
+      <c r="AP62" s="339"/>
+      <c r="AQ62" s="339"/>
+      <c r="AR62" s="340"/>
+      <c r="AS62" s="377"/>
+      <c r="AT62" s="378"/>
+      <c r="AU62" s="378"/>
+      <c r="AV62" s="379"/>
       <c r="AW62" s="265"/>
     </row>
     <row r="63" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A63" s="187"/>
-      <c r="B63" s="330"/>
-      <c r="C63" s="331"/>
-      <c r="D63" s="335"/>
-      <c r="E63" s="336"/>
-      <c r="F63" s="336"/>
-      <c r="G63" s="336"/>
-      <c r="H63" s="337"/>
-      <c r="I63" s="350"/>
-      <c r="J63" s="351"/>
-      <c r="K63" s="351"/>
-      <c r="L63" s="351"/>
-      <c r="M63" s="351"/>
-      <c r="N63" s="351"/>
-      <c r="O63" s="351"/>
-      <c r="P63" s="351"/>
-      <c r="Q63" s="351"/>
-      <c r="R63" s="351"/>
-      <c r="S63" s="351"/>
-      <c r="T63" s="351"/>
-      <c r="U63" s="351"/>
-      <c r="V63" s="351"/>
-      <c r="W63" s="351"/>
-      <c r="X63" s="351"/>
-      <c r="Y63" s="351"/>
-      <c r="Z63" s="373"/>
-      <c r="AA63" s="374"/>
-      <c r="AB63" s="375"/>
-      <c r="AC63" s="375"/>
-      <c r="AD63" s="376"/>
-      <c r="AE63" s="335"/>
-      <c r="AF63" s="336"/>
-      <c r="AG63" s="336"/>
-      <c r="AH63" s="336"/>
-      <c r="AI63" s="337"/>
-      <c r="AJ63" s="374"/>
-      <c r="AK63" s="375"/>
-      <c r="AL63" s="375"/>
-      <c r="AM63" s="376"/>
-      <c r="AN63" s="335"/>
-      <c r="AO63" s="336"/>
-      <c r="AP63" s="336"/>
-      <c r="AQ63" s="336"/>
-      <c r="AR63" s="337"/>
-      <c r="AS63" s="374"/>
-      <c r="AT63" s="375"/>
-      <c r="AU63" s="375"/>
-      <c r="AV63" s="376"/>
+      <c r="B63" s="333"/>
+      <c r="C63" s="334"/>
+      <c r="D63" s="338"/>
+      <c r="E63" s="339"/>
+      <c r="F63" s="339"/>
+      <c r="G63" s="339"/>
+      <c r="H63" s="340"/>
+      <c r="I63" s="353"/>
+      <c r="J63" s="354"/>
+      <c r="K63" s="354"/>
+      <c r="L63" s="354"/>
+      <c r="M63" s="354"/>
+      <c r="N63" s="354"/>
+      <c r="O63" s="354"/>
+      <c r="P63" s="354"/>
+      <c r="Q63" s="354"/>
+      <c r="R63" s="354"/>
+      <c r="S63" s="354"/>
+      <c r="T63" s="354"/>
+      <c r="U63" s="354"/>
+      <c r="V63" s="354"/>
+      <c r="W63" s="354"/>
+      <c r="X63" s="354"/>
+      <c r="Y63" s="354"/>
+      <c r="Z63" s="376"/>
+      <c r="AA63" s="377"/>
+      <c r="AB63" s="378"/>
+      <c r="AC63" s="378"/>
+      <c r="AD63" s="379"/>
+      <c r="AE63" s="338"/>
+      <c r="AF63" s="339"/>
+      <c r="AG63" s="339"/>
+      <c r="AH63" s="339"/>
+      <c r="AI63" s="340"/>
+      <c r="AJ63" s="377"/>
+      <c r="AK63" s="378"/>
+      <c r="AL63" s="378"/>
+      <c r="AM63" s="379"/>
+      <c r="AN63" s="338"/>
+      <c r="AO63" s="339"/>
+      <c r="AP63" s="339"/>
+      <c r="AQ63" s="339"/>
+      <c r="AR63" s="340"/>
+      <c r="AS63" s="377"/>
+      <c r="AT63" s="378"/>
+      <c r="AU63" s="378"/>
+      <c r="AV63" s="379"/>
       <c r="AW63" s="265"/>
     </row>
     <row r="64" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A64" s="187"/>
-      <c r="B64" s="330"/>
-      <c r="C64" s="331"/>
-      <c r="D64" s="335"/>
-      <c r="E64" s="336"/>
-      <c r="F64" s="336"/>
-      <c r="G64" s="336"/>
-      <c r="H64" s="337"/>
-      <c r="I64" s="350"/>
-      <c r="J64" s="351"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="351"/>
-      <c r="M64" s="351"/>
-      <c r="N64" s="351"/>
-      <c r="O64" s="351"/>
-      <c r="P64" s="351"/>
-      <c r="Q64" s="351"/>
-      <c r="R64" s="351"/>
-      <c r="S64" s="351"/>
-      <c r="T64" s="351"/>
-      <c r="U64" s="351"/>
-      <c r="V64" s="351"/>
-      <c r="W64" s="351"/>
-      <c r="X64" s="351"/>
-      <c r="Y64" s="351"/>
-      <c r="Z64" s="373"/>
-      <c r="AA64" s="374"/>
-      <c r="AB64" s="375"/>
-      <c r="AC64" s="375"/>
-      <c r="AD64" s="376"/>
-      <c r="AE64" s="335"/>
-      <c r="AF64" s="336"/>
-      <c r="AG64" s="336"/>
-      <c r="AH64" s="336"/>
-      <c r="AI64" s="337"/>
-      <c r="AJ64" s="374"/>
-      <c r="AK64" s="375"/>
-      <c r="AL64" s="375"/>
-      <c r="AM64" s="376"/>
-      <c r="AN64" s="335"/>
-      <c r="AO64" s="336"/>
-      <c r="AP64" s="336"/>
-      <c r="AQ64" s="336"/>
-      <c r="AR64" s="337"/>
-      <c r="AS64" s="374"/>
-      <c r="AT64" s="375"/>
-      <c r="AU64" s="375"/>
-      <c r="AV64" s="376"/>
+      <c r="B64" s="333"/>
+      <c r="C64" s="334"/>
+      <c r="D64" s="338"/>
+      <c r="E64" s="339"/>
+      <c r="F64" s="339"/>
+      <c r="G64" s="339"/>
+      <c r="H64" s="340"/>
+      <c r="I64" s="353"/>
+      <c r="J64" s="354"/>
+      <c r="K64" s="354"/>
+      <c r="L64" s="354"/>
+      <c r="M64" s="354"/>
+      <c r="N64" s="354"/>
+      <c r="O64" s="354"/>
+      <c r="P64" s="354"/>
+      <c r="Q64" s="354"/>
+      <c r="R64" s="354"/>
+      <c r="S64" s="354"/>
+      <c r="T64" s="354"/>
+      <c r="U64" s="354"/>
+      <c r="V64" s="354"/>
+      <c r="W64" s="354"/>
+      <c r="X64" s="354"/>
+      <c r="Y64" s="354"/>
+      <c r="Z64" s="376"/>
+      <c r="AA64" s="377"/>
+      <c r="AB64" s="378"/>
+      <c r="AC64" s="378"/>
+      <c r="AD64" s="379"/>
+      <c r="AE64" s="338"/>
+      <c r="AF64" s="339"/>
+      <c r="AG64" s="339"/>
+      <c r="AH64" s="339"/>
+      <c r="AI64" s="340"/>
+      <c r="AJ64" s="377"/>
+      <c r="AK64" s="378"/>
+      <c r="AL64" s="378"/>
+      <c r="AM64" s="379"/>
+      <c r="AN64" s="338"/>
+      <c r="AO64" s="339"/>
+      <c r="AP64" s="339"/>
+      <c r="AQ64" s="339"/>
+      <c r="AR64" s="340"/>
+      <c r="AS64" s="377"/>
+      <c r="AT64" s="378"/>
+      <c r="AU64" s="378"/>
+      <c r="AV64" s="379"/>
       <c r="AW64" s="265"/>
     </row>
     <row r="65" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A65" s="187"/>
-      <c r="B65" s="330"/>
-      <c r="C65" s="331"/>
-      <c r="D65" s="335"/>
-      <c r="E65" s="336"/>
-      <c r="F65" s="336"/>
-      <c r="G65" s="336"/>
-      <c r="H65" s="337"/>
-      <c r="I65" s="350"/>
-      <c r="J65" s="351"/>
-      <c r="K65" s="351"/>
-      <c r="L65" s="351"/>
-      <c r="M65" s="351"/>
-      <c r="N65" s="351"/>
-      <c r="O65" s="351"/>
-      <c r="P65" s="351"/>
-      <c r="Q65" s="351"/>
-      <c r="R65" s="351"/>
-      <c r="S65" s="351"/>
-      <c r="T65" s="351"/>
-      <c r="U65" s="351"/>
-      <c r="V65" s="351"/>
-      <c r="W65" s="351"/>
-      <c r="X65" s="351"/>
-      <c r="Y65" s="351"/>
-      <c r="Z65" s="373"/>
-      <c r="AA65" s="374"/>
-      <c r="AB65" s="375"/>
-      <c r="AC65" s="375"/>
-      <c r="AD65" s="376"/>
-      <c r="AE65" s="335"/>
-      <c r="AF65" s="336"/>
-      <c r="AG65" s="336"/>
-      <c r="AH65" s="336"/>
-      <c r="AI65" s="337"/>
-      <c r="AJ65" s="374"/>
-      <c r="AK65" s="375"/>
-      <c r="AL65" s="375"/>
-      <c r="AM65" s="376"/>
-      <c r="AN65" s="335"/>
-      <c r="AO65" s="336"/>
-      <c r="AP65" s="336"/>
-      <c r="AQ65" s="336"/>
-      <c r="AR65" s="337"/>
-      <c r="AS65" s="374"/>
-      <c r="AT65" s="375"/>
-      <c r="AU65" s="375"/>
-      <c r="AV65" s="376"/>
+      <c r="B65" s="333"/>
+      <c r="C65" s="334"/>
+      <c r="D65" s="338"/>
+      <c r="E65" s="339"/>
+      <c r="F65" s="339"/>
+      <c r="G65" s="339"/>
+      <c r="H65" s="340"/>
+      <c r="I65" s="353"/>
+      <c r="J65" s="354"/>
+      <c r="K65" s="354"/>
+      <c r="L65" s="354"/>
+      <c r="M65" s="354"/>
+      <c r="N65" s="354"/>
+      <c r="O65" s="354"/>
+      <c r="P65" s="354"/>
+      <c r="Q65" s="354"/>
+      <c r="R65" s="354"/>
+      <c r="S65" s="354"/>
+      <c r="T65" s="354"/>
+      <c r="U65" s="354"/>
+      <c r="V65" s="354"/>
+      <c r="W65" s="354"/>
+      <c r="X65" s="354"/>
+      <c r="Y65" s="354"/>
+      <c r="Z65" s="376"/>
+      <c r="AA65" s="377"/>
+      <c r="AB65" s="378"/>
+      <c r="AC65" s="378"/>
+      <c r="AD65" s="379"/>
+      <c r="AE65" s="338"/>
+      <c r="AF65" s="339"/>
+      <c r="AG65" s="339"/>
+      <c r="AH65" s="339"/>
+      <c r="AI65" s="340"/>
+      <c r="AJ65" s="377"/>
+      <c r="AK65" s="378"/>
+      <c r="AL65" s="378"/>
+      <c r="AM65" s="379"/>
+      <c r="AN65" s="338"/>
+      <c r="AO65" s="339"/>
+      <c r="AP65" s="339"/>
+      <c r="AQ65" s="339"/>
+      <c r="AR65" s="340"/>
+      <c r="AS65" s="377"/>
+      <c r="AT65" s="378"/>
+      <c r="AU65" s="378"/>
+      <c r="AV65" s="379"/>
       <c r="AW65" s="265"/>
     </row>
     <row r="66" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A66" s="187"/>
-      <c r="B66" s="330"/>
-      <c r="C66" s="331"/>
-      <c r="D66" s="335"/>
-      <c r="E66" s="336"/>
-      <c r="F66" s="336"/>
-      <c r="G66" s="336"/>
-      <c r="H66" s="337"/>
-      <c r="I66" s="350"/>
-      <c r="J66" s="351"/>
-      <c r="K66" s="351"/>
-      <c r="L66" s="351"/>
-      <c r="M66" s="351"/>
-      <c r="N66" s="351"/>
-      <c r="O66" s="351"/>
-      <c r="P66" s="351"/>
-      <c r="Q66" s="351"/>
-      <c r="R66" s="351"/>
-      <c r="S66" s="351"/>
-      <c r="T66" s="351"/>
-      <c r="U66" s="351"/>
-      <c r="V66" s="351"/>
-      <c r="W66" s="351"/>
-      <c r="X66" s="351"/>
-      <c r="Y66" s="351"/>
-      <c r="Z66" s="373"/>
-      <c r="AA66" s="374"/>
-      <c r="AB66" s="375"/>
-      <c r="AC66" s="375"/>
-      <c r="AD66" s="376"/>
-      <c r="AE66" s="335"/>
-      <c r="AF66" s="336"/>
-      <c r="AG66" s="336"/>
-      <c r="AH66" s="336"/>
-      <c r="AI66" s="337"/>
-      <c r="AJ66" s="374"/>
-      <c r="AK66" s="375"/>
-      <c r="AL66" s="375"/>
-      <c r="AM66" s="376"/>
-      <c r="AN66" s="335"/>
-      <c r="AO66" s="336"/>
-      <c r="AP66" s="336"/>
-      <c r="AQ66" s="336"/>
-      <c r="AR66" s="337"/>
-      <c r="AS66" s="374"/>
-      <c r="AT66" s="375"/>
-      <c r="AU66" s="375"/>
-      <c r="AV66" s="376"/>
+      <c r="B66" s="333"/>
+      <c r="C66" s="334"/>
+      <c r="D66" s="338"/>
+      <c r="E66" s="339"/>
+      <c r="F66" s="339"/>
+      <c r="G66" s="339"/>
+      <c r="H66" s="340"/>
+      <c r="I66" s="353"/>
+      <c r="J66" s="354"/>
+      <c r="K66" s="354"/>
+      <c r="L66" s="354"/>
+      <c r="M66" s="354"/>
+      <c r="N66" s="354"/>
+      <c r="O66" s="354"/>
+      <c r="P66" s="354"/>
+      <c r="Q66" s="354"/>
+      <c r="R66" s="354"/>
+      <c r="S66" s="354"/>
+      <c r="T66" s="354"/>
+      <c r="U66" s="354"/>
+      <c r="V66" s="354"/>
+      <c r="W66" s="354"/>
+      <c r="X66" s="354"/>
+      <c r="Y66" s="354"/>
+      <c r="Z66" s="376"/>
+      <c r="AA66" s="377"/>
+      <c r="AB66" s="378"/>
+      <c r="AC66" s="378"/>
+      <c r="AD66" s="379"/>
+      <c r="AE66" s="338"/>
+      <c r="AF66" s="339"/>
+      <c r="AG66" s="339"/>
+      <c r="AH66" s="339"/>
+      <c r="AI66" s="340"/>
+      <c r="AJ66" s="377"/>
+      <c r="AK66" s="378"/>
+      <c r="AL66" s="378"/>
+      <c r="AM66" s="379"/>
+      <c r="AN66" s="338"/>
+      <c r="AO66" s="339"/>
+      <c r="AP66" s="339"/>
+      <c r="AQ66" s="339"/>
+      <c r="AR66" s="340"/>
+      <c r="AS66" s="377"/>
+      <c r="AT66" s="378"/>
+      <c r="AU66" s="378"/>
+      <c r="AV66" s="379"/>
       <c r="AW66" s="265"/>
     </row>
     <row r="67" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A67" s="187"/>
-      <c r="B67" s="330"/>
-      <c r="C67" s="331"/>
-      <c r="D67" s="335"/>
-      <c r="E67" s="336"/>
-      <c r="F67" s="336"/>
-      <c r="G67" s="336"/>
-      <c r="H67" s="337"/>
-      <c r="I67" s="350"/>
-      <c r="J67" s="351"/>
-      <c r="K67" s="351"/>
-      <c r="L67" s="351"/>
-      <c r="M67" s="351"/>
-      <c r="N67" s="351"/>
-      <c r="O67" s="351"/>
-      <c r="P67" s="351"/>
-      <c r="Q67" s="351"/>
-      <c r="R67" s="351"/>
-      <c r="S67" s="351"/>
-      <c r="T67" s="351"/>
-      <c r="U67" s="351"/>
-      <c r="V67" s="351"/>
-      <c r="W67" s="351"/>
-      <c r="X67" s="351"/>
-      <c r="Y67" s="351"/>
-      <c r="Z67" s="373"/>
-      <c r="AA67" s="374"/>
-      <c r="AB67" s="375"/>
-      <c r="AC67" s="375"/>
-      <c r="AD67" s="376"/>
-      <c r="AE67" s="335"/>
-      <c r="AF67" s="336"/>
-      <c r="AG67" s="336"/>
-      <c r="AH67" s="336"/>
-      <c r="AI67" s="337"/>
-      <c r="AJ67" s="374"/>
-      <c r="AK67" s="375"/>
-      <c r="AL67" s="375"/>
-      <c r="AM67" s="376"/>
-      <c r="AN67" s="335"/>
-      <c r="AO67" s="336"/>
-      <c r="AP67" s="336"/>
-      <c r="AQ67" s="336"/>
-      <c r="AR67" s="337"/>
-      <c r="AS67" s="374"/>
-      <c r="AT67" s="375"/>
-      <c r="AU67" s="375"/>
-      <c r="AV67" s="376"/>
+      <c r="B67" s="333"/>
+      <c r="C67" s="334"/>
+      <c r="D67" s="338"/>
+      <c r="E67" s="339"/>
+      <c r="F67" s="339"/>
+      <c r="G67" s="339"/>
+      <c r="H67" s="340"/>
+      <c r="I67" s="353"/>
+      <c r="J67" s="354"/>
+      <c r="K67" s="354"/>
+      <c r="L67" s="354"/>
+      <c r="M67" s="354"/>
+      <c r="N67" s="354"/>
+      <c r="O67" s="354"/>
+      <c r="P67" s="354"/>
+      <c r="Q67" s="354"/>
+      <c r="R67" s="354"/>
+      <c r="S67" s="354"/>
+      <c r="T67" s="354"/>
+      <c r="U67" s="354"/>
+      <c r="V67" s="354"/>
+      <c r="W67" s="354"/>
+      <c r="X67" s="354"/>
+      <c r="Y67" s="354"/>
+      <c r="Z67" s="376"/>
+      <c r="AA67" s="377"/>
+      <c r="AB67" s="378"/>
+      <c r="AC67" s="378"/>
+      <c r="AD67" s="379"/>
+      <c r="AE67" s="338"/>
+      <c r="AF67" s="339"/>
+      <c r="AG67" s="339"/>
+      <c r="AH67" s="339"/>
+      <c r="AI67" s="340"/>
+      <c r="AJ67" s="377"/>
+      <c r="AK67" s="378"/>
+      <c r="AL67" s="378"/>
+      <c r="AM67" s="379"/>
+      <c r="AN67" s="338"/>
+      <c r="AO67" s="339"/>
+      <c r="AP67" s="339"/>
+      <c r="AQ67" s="339"/>
+      <c r="AR67" s="340"/>
+      <c r="AS67" s="377"/>
+      <c r="AT67" s="378"/>
+      <c r="AU67" s="378"/>
+      <c r="AV67" s="379"/>
       <c r="AW67" s="265"/>
     </row>
     <row r="68" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A68" s="187"/>
-      <c r="B68" s="330"/>
-      <c r="C68" s="331"/>
-      <c r="D68" s="335"/>
-      <c r="E68" s="336"/>
-      <c r="F68" s="336"/>
-      <c r="G68" s="336"/>
-      <c r="H68" s="337"/>
-      <c r="I68" s="350"/>
-      <c r="J68" s="351"/>
-      <c r="K68" s="351"/>
-      <c r="L68" s="351"/>
-      <c r="M68" s="351"/>
-      <c r="N68" s="351"/>
-      <c r="O68" s="351"/>
-      <c r="P68" s="351"/>
-      <c r="Q68" s="351"/>
-      <c r="R68" s="351"/>
-      <c r="S68" s="351"/>
-      <c r="T68" s="351"/>
-      <c r="U68" s="351"/>
-      <c r="V68" s="351"/>
-      <c r="W68" s="351"/>
-      <c r="X68" s="351"/>
-      <c r="Y68" s="351"/>
-      <c r="Z68" s="373"/>
-      <c r="AA68" s="374"/>
-      <c r="AB68" s="375"/>
-      <c r="AC68" s="375"/>
-      <c r="AD68" s="376"/>
-      <c r="AE68" s="335"/>
-      <c r="AF68" s="336"/>
-      <c r="AG68" s="336"/>
-      <c r="AH68" s="336"/>
-      <c r="AI68" s="337"/>
-      <c r="AJ68" s="374"/>
-      <c r="AK68" s="375"/>
-      <c r="AL68" s="375"/>
-      <c r="AM68" s="376"/>
-      <c r="AN68" s="335"/>
-      <c r="AO68" s="336"/>
-      <c r="AP68" s="336"/>
-      <c r="AQ68" s="336"/>
-      <c r="AR68" s="337"/>
-      <c r="AS68" s="374"/>
-      <c r="AT68" s="375"/>
-      <c r="AU68" s="375"/>
-      <c r="AV68" s="376"/>
+      <c r="B68" s="333"/>
+      <c r="C68" s="334"/>
+      <c r="D68" s="338"/>
+      <c r="E68" s="339"/>
+      <c r="F68" s="339"/>
+      <c r="G68" s="339"/>
+      <c r="H68" s="340"/>
+      <c r="I68" s="353"/>
+      <c r="J68" s="354"/>
+      <c r="K68" s="354"/>
+      <c r="L68" s="354"/>
+      <c r="M68" s="354"/>
+      <c r="N68" s="354"/>
+      <c r="O68" s="354"/>
+      <c r="P68" s="354"/>
+      <c r="Q68" s="354"/>
+      <c r="R68" s="354"/>
+      <c r="S68" s="354"/>
+      <c r="T68" s="354"/>
+      <c r="U68" s="354"/>
+      <c r="V68" s="354"/>
+      <c r="W68" s="354"/>
+      <c r="X68" s="354"/>
+      <c r="Y68" s="354"/>
+      <c r="Z68" s="376"/>
+      <c r="AA68" s="377"/>
+      <c r="AB68" s="378"/>
+      <c r="AC68" s="378"/>
+      <c r="AD68" s="379"/>
+      <c r="AE68" s="338"/>
+      <c r="AF68" s="339"/>
+      <c r="AG68" s="339"/>
+      <c r="AH68" s="339"/>
+      <c r="AI68" s="340"/>
+      <c r="AJ68" s="377"/>
+      <c r="AK68" s="378"/>
+      <c r="AL68" s="378"/>
+      <c r="AM68" s="379"/>
+      <c r="AN68" s="338"/>
+      <c r="AO68" s="339"/>
+      <c r="AP68" s="339"/>
+      <c r="AQ68" s="339"/>
+      <c r="AR68" s="340"/>
+      <c r="AS68" s="377"/>
+      <c r="AT68" s="378"/>
+      <c r="AU68" s="378"/>
+      <c r="AV68" s="379"/>
       <c r="AW68" s="265"/>
     </row>
     <row r="69" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A69" s="187"/>
-      <c r="B69" s="330"/>
-      <c r="C69" s="331"/>
-      <c r="D69" s="335"/>
-      <c r="E69" s="336"/>
-      <c r="F69" s="336"/>
-      <c r="G69" s="336"/>
-      <c r="H69" s="337"/>
-      <c r="I69" s="350"/>
-      <c r="J69" s="351"/>
-      <c r="K69" s="351"/>
-      <c r="L69" s="351"/>
-      <c r="M69" s="351"/>
-      <c r="N69" s="351"/>
-      <c r="O69" s="351"/>
-      <c r="P69" s="351"/>
-      <c r="Q69" s="351"/>
-      <c r="R69" s="351"/>
-      <c r="S69" s="351"/>
-      <c r="T69" s="351"/>
-      <c r="U69" s="351"/>
-      <c r="V69" s="351"/>
-      <c r="W69" s="351"/>
-      <c r="X69" s="351"/>
-      <c r="Y69" s="351"/>
-      <c r="Z69" s="373"/>
-      <c r="AA69" s="374"/>
-      <c r="AB69" s="375"/>
-      <c r="AC69" s="375"/>
-      <c r="AD69" s="376"/>
-      <c r="AE69" s="335"/>
-      <c r="AF69" s="336"/>
-      <c r="AG69" s="336"/>
-      <c r="AH69" s="336"/>
-      <c r="AI69" s="337"/>
-      <c r="AJ69" s="374"/>
-      <c r="AK69" s="375"/>
-      <c r="AL69" s="375"/>
-      <c r="AM69" s="376"/>
-      <c r="AN69" s="335"/>
-      <c r="AO69" s="336"/>
-      <c r="AP69" s="336"/>
-      <c r="AQ69" s="336"/>
-      <c r="AR69" s="337"/>
-      <c r="AS69" s="374"/>
-      <c r="AT69" s="375"/>
-      <c r="AU69" s="375"/>
-      <c r="AV69" s="376"/>
+      <c r="B69" s="333"/>
+      <c r="C69" s="334"/>
+      <c r="D69" s="338"/>
+      <c r="E69" s="339"/>
+      <c r="F69" s="339"/>
+      <c r="G69" s="339"/>
+      <c r="H69" s="340"/>
+      <c r="I69" s="353"/>
+      <c r="J69" s="354"/>
+      <c r="K69" s="354"/>
+      <c r="L69" s="354"/>
+      <c r="M69" s="354"/>
+      <c r="N69" s="354"/>
+      <c r="O69" s="354"/>
+      <c r="P69" s="354"/>
+      <c r="Q69" s="354"/>
+      <c r="R69" s="354"/>
+      <c r="S69" s="354"/>
+      <c r="T69" s="354"/>
+      <c r="U69" s="354"/>
+      <c r="V69" s="354"/>
+      <c r="W69" s="354"/>
+      <c r="X69" s="354"/>
+      <c r="Y69" s="354"/>
+      <c r="Z69" s="376"/>
+      <c r="AA69" s="377"/>
+      <c r="AB69" s="378"/>
+      <c r="AC69" s="378"/>
+      <c r="AD69" s="379"/>
+      <c r="AE69" s="338"/>
+      <c r="AF69" s="339"/>
+      <c r="AG69" s="339"/>
+      <c r="AH69" s="339"/>
+      <c r="AI69" s="340"/>
+      <c r="AJ69" s="377"/>
+      <c r="AK69" s="378"/>
+      <c r="AL69" s="378"/>
+      <c r="AM69" s="379"/>
+      <c r="AN69" s="338"/>
+      <c r="AO69" s="339"/>
+      <c r="AP69" s="339"/>
+      <c r="AQ69" s="339"/>
+      <c r="AR69" s="340"/>
+      <c r="AS69" s="377"/>
+      <c r="AT69" s="378"/>
+      <c r="AU69" s="378"/>
+      <c r="AV69" s="379"/>
       <c r="AW69" s="265"/>
     </row>
     <row r="70" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A70" s="187"/>
-      <c r="B70" s="330"/>
-      <c r="C70" s="331"/>
-      <c r="D70" s="335"/>
-      <c r="E70" s="336"/>
-      <c r="F70" s="336"/>
-      <c r="G70" s="336"/>
-      <c r="H70" s="337"/>
-      <c r="I70" s="350"/>
-      <c r="J70" s="351"/>
-      <c r="K70" s="351"/>
-      <c r="L70" s="351"/>
-      <c r="M70" s="351"/>
-      <c r="N70" s="351"/>
-      <c r="O70" s="351"/>
-      <c r="P70" s="351"/>
-      <c r="Q70" s="351"/>
-      <c r="R70" s="351"/>
-      <c r="S70" s="351"/>
-      <c r="T70" s="351"/>
-      <c r="U70" s="351"/>
-      <c r="V70" s="351"/>
-      <c r="W70" s="351"/>
-      <c r="X70" s="351"/>
-      <c r="Y70" s="351"/>
-      <c r="Z70" s="373"/>
-      <c r="AA70" s="374"/>
-      <c r="AB70" s="375"/>
-      <c r="AC70" s="375"/>
-      <c r="AD70" s="376"/>
-      <c r="AE70" s="335"/>
-      <c r="AF70" s="336"/>
-      <c r="AG70" s="336"/>
-      <c r="AH70" s="336"/>
-      <c r="AI70" s="337"/>
-      <c r="AJ70" s="374"/>
-      <c r="AK70" s="375"/>
-      <c r="AL70" s="375"/>
-      <c r="AM70" s="376"/>
-      <c r="AN70" s="335"/>
-      <c r="AO70" s="336"/>
-      <c r="AP70" s="336"/>
-      <c r="AQ70" s="336"/>
-      <c r="AR70" s="337"/>
-      <c r="AS70" s="374"/>
-      <c r="AT70" s="375"/>
-      <c r="AU70" s="375"/>
-      <c r="AV70" s="376"/>
+      <c r="B70" s="333"/>
+      <c r="C70" s="334"/>
+      <c r="D70" s="338"/>
+      <c r="E70" s="339"/>
+      <c r="F70" s="339"/>
+      <c r="G70" s="339"/>
+      <c r="H70" s="340"/>
+      <c r="I70" s="353"/>
+      <c r="J70" s="354"/>
+      <c r="K70" s="354"/>
+      <c r="L70" s="354"/>
+      <c r="M70" s="354"/>
+      <c r="N70" s="354"/>
+      <c r="O70" s="354"/>
+      <c r="P70" s="354"/>
+      <c r="Q70" s="354"/>
+      <c r="R70" s="354"/>
+      <c r="S70" s="354"/>
+      <c r="T70" s="354"/>
+      <c r="U70" s="354"/>
+      <c r="V70" s="354"/>
+      <c r="W70" s="354"/>
+      <c r="X70" s="354"/>
+      <c r="Y70" s="354"/>
+      <c r="Z70" s="376"/>
+      <c r="AA70" s="377"/>
+      <c r="AB70" s="378"/>
+      <c r="AC70" s="378"/>
+      <c r="AD70" s="379"/>
+      <c r="AE70" s="338"/>
+      <c r="AF70" s="339"/>
+      <c r="AG70" s="339"/>
+      <c r="AH70" s="339"/>
+      <c r="AI70" s="340"/>
+      <c r="AJ70" s="377"/>
+      <c r="AK70" s="378"/>
+      <c r="AL70" s="378"/>
+      <c r="AM70" s="379"/>
+      <c r="AN70" s="338"/>
+      <c r="AO70" s="339"/>
+      <c r="AP70" s="339"/>
+      <c r="AQ70" s="339"/>
+      <c r="AR70" s="340"/>
+      <c r="AS70" s="377"/>
+      <c r="AT70" s="378"/>
+      <c r="AU70" s="378"/>
+      <c r="AV70" s="379"/>
       <c r="AW70" s="265"/>
     </row>
     <row r="71" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A71" s="187"/>
-      <c r="B71" s="330"/>
-      <c r="C71" s="331"/>
-      <c r="D71" s="335"/>
-      <c r="E71" s="336"/>
-      <c r="F71" s="336"/>
-      <c r="G71" s="336"/>
-      <c r="H71" s="337"/>
-      <c r="I71" s="350"/>
-      <c r="J71" s="351"/>
-      <c r="K71" s="351"/>
-      <c r="L71" s="351"/>
-      <c r="M71" s="351"/>
-      <c r="N71" s="351"/>
-      <c r="O71" s="351"/>
-      <c r="P71" s="351"/>
-      <c r="Q71" s="351"/>
-      <c r="R71" s="351"/>
-      <c r="S71" s="351"/>
-      <c r="T71" s="351"/>
-      <c r="U71" s="351"/>
-      <c r="V71" s="351"/>
-      <c r="W71" s="351"/>
-      <c r="X71" s="351"/>
-      <c r="Y71" s="351"/>
-      <c r="Z71" s="373"/>
-      <c r="AA71" s="374"/>
-      <c r="AB71" s="375"/>
-      <c r="AC71" s="375"/>
-      <c r="AD71" s="376"/>
-      <c r="AE71" s="335"/>
-      <c r="AF71" s="336"/>
-      <c r="AG71" s="336"/>
-      <c r="AH71" s="336"/>
-      <c r="AI71" s="337"/>
-      <c r="AJ71" s="374"/>
-      <c r="AK71" s="375"/>
-      <c r="AL71" s="375"/>
-      <c r="AM71" s="376"/>
-      <c r="AN71" s="335"/>
-      <c r="AO71" s="336"/>
-      <c r="AP71" s="336"/>
-      <c r="AQ71" s="336"/>
-      <c r="AR71" s="337"/>
-      <c r="AS71" s="374"/>
-      <c r="AT71" s="375"/>
-      <c r="AU71" s="375"/>
-      <c r="AV71" s="376"/>
+      <c r="B71" s="333"/>
+      <c r="C71" s="334"/>
+      <c r="D71" s="338"/>
+      <c r="E71" s="339"/>
+      <c r="F71" s="339"/>
+      <c r="G71" s="339"/>
+      <c r="H71" s="340"/>
+      <c r="I71" s="353"/>
+      <c r="J71" s="354"/>
+      <c r="K71" s="354"/>
+      <c r="L71" s="354"/>
+      <c r="M71" s="354"/>
+      <c r="N71" s="354"/>
+      <c r="O71" s="354"/>
+      <c r="P71" s="354"/>
+      <c r="Q71" s="354"/>
+      <c r="R71" s="354"/>
+      <c r="S71" s="354"/>
+      <c r="T71" s="354"/>
+      <c r="U71" s="354"/>
+      <c r="V71" s="354"/>
+      <c r="W71" s="354"/>
+      <c r="X71" s="354"/>
+      <c r="Y71" s="354"/>
+      <c r="Z71" s="376"/>
+      <c r="AA71" s="377"/>
+      <c r="AB71" s="378"/>
+      <c r="AC71" s="378"/>
+      <c r="AD71" s="379"/>
+      <c r="AE71" s="338"/>
+      <c r="AF71" s="339"/>
+      <c r="AG71" s="339"/>
+      <c r="AH71" s="339"/>
+      <c r="AI71" s="340"/>
+      <c r="AJ71" s="377"/>
+      <c r="AK71" s="378"/>
+      <c r="AL71" s="378"/>
+      <c r="AM71" s="379"/>
+      <c r="AN71" s="338"/>
+      <c r="AO71" s="339"/>
+      <c r="AP71" s="339"/>
+      <c r="AQ71" s="339"/>
+      <c r="AR71" s="340"/>
+      <c r="AS71" s="377"/>
+      <c r="AT71" s="378"/>
+      <c r="AU71" s="378"/>
+      <c r="AV71" s="379"/>
       <c r="AW71" s="265"/>
     </row>
     <row r="72" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A72" s="187"/>
-      <c r="B72" s="330"/>
-      <c r="C72" s="331"/>
-      <c r="D72" s="335"/>
-      <c r="E72" s="336"/>
-      <c r="F72" s="336"/>
-      <c r="G72" s="336"/>
-      <c r="H72" s="337"/>
-      <c r="I72" s="350"/>
-      <c r="J72" s="351"/>
-      <c r="K72" s="351"/>
-      <c r="L72" s="351"/>
-      <c r="M72" s="351"/>
-      <c r="N72" s="351"/>
-      <c r="O72" s="351"/>
-      <c r="P72" s="351"/>
-      <c r="Q72" s="351"/>
-      <c r="R72" s="351"/>
-      <c r="S72" s="351"/>
-      <c r="T72" s="351"/>
-      <c r="U72" s="351"/>
-      <c r="V72" s="351"/>
-      <c r="W72" s="351"/>
-      <c r="X72" s="351"/>
-      <c r="Y72" s="351"/>
-      <c r="Z72" s="373"/>
-      <c r="AA72" s="374"/>
-      <c r="AB72" s="375"/>
-      <c r="AC72" s="375"/>
-      <c r="AD72" s="376"/>
-      <c r="AE72" s="335"/>
-      <c r="AF72" s="336"/>
-      <c r="AG72" s="336"/>
-      <c r="AH72" s="336"/>
-      <c r="AI72" s="337"/>
-      <c r="AJ72" s="374"/>
-      <c r="AK72" s="375"/>
-      <c r="AL72" s="375"/>
-      <c r="AM72" s="376"/>
-      <c r="AN72" s="335"/>
-      <c r="AO72" s="336"/>
-      <c r="AP72" s="336"/>
-      <c r="AQ72" s="336"/>
-      <c r="AR72" s="337"/>
-      <c r="AS72" s="374"/>
-      <c r="AT72" s="375"/>
-      <c r="AU72" s="375"/>
-      <c r="AV72" s="376"/>
+      <c r="B72" s="333"/>
+      <c r="C72" s="334"/>
+      <c r="D72" s="338"/>
+      <c r="E72" s="339"/>
+      <c r="F72" s="339"/>
+      <c r="G72" s="339"/>
+      <c r="H72" s="340"/>
+      <c r="I72" s="353"/>
+      <c r="J72" s="354"/>
+      <c r="K72" s="354"/>
+      <c r="L72" s="354"/>
+      <c r="M72" s="354"/>
+      <c r="N72" s="354"/>
+      <c r="O72" s="354"/>
+      <c r="P72" s="354"/>
+      <c r="Q72" s="354"/>
+      <c r="R72" s="354"/>
+      <c r="S72" s="354"/>
+      <c r="T72" s="354"/>
+      <c r="U72" s="354"/>
+      <c r="V72" s="354"/>
+      <c r="W72" s="354"/>
+      <c r="X72" s="354"/>
+      <c r="Y72" s="354"/>
+      <c r="Z72" s="376"/>
+      <c r="AA72" s="377"/>
+      <c r="AB72" s="378"/>
+      <c r="AC72" s="378"/>
+      <c r="AD72" s="379"/>
+      <c r="AE72" s="338"/>
+      <c r="AF72" s="339"/>
+      <c r="AG72" s="339"/>
+      <c r="AH72" s="339"/>
+      <c r="AI72" s="340"/>
+      <c r="AJ72" s="377"/>
+      <c r="AK72" s="378"/>
+      <c r="AL72" s="378"/>
+      <c r="AM72" s="379"/>
+      <c r="AN72" s="338"/>
+      <c r="AO72" s="339"/>
+      <c r="AP72" s="339"/>
+      <c r="AQ72" s="339"/>
+      <c r="AR72" s="340"/>
+      <c r="AS72" s="377"/>
+      <c r="AT72" s="378"/>
+      <c r="AU72" s="378"/>
+      <c r="AV72" s="379"/>
       <c r="AW72" s="265"/>
     </row>
     <row r="73" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A73" s="187"/>
-      <c r="B73" s="330"/>
-      <c r="C73" s="331"/>
-      <c r="D73" s="335"/>
-      <c r="E73" s="336"/>
-      <c r="F73" s="336"/>
-      <c r="G73" s="336"/>
-      <c r="H73" s="337"/>
-      <c r="I73" s="350"/>
-      <c r="J73" s="351"/>
-      <c r="K73" s="351"/>
-      <c r="L73" s="351"/>
-      <c r="M73" s="351"/>
-      <c r="N73" s="351"/>
-      <c r="O73" s="351"/>
-      <c r="P73" s="351"/>
-      <c r="Q73" s="351"/>
-      <c r="R73" s="351"/>
-      <c r="S73" s="351"/>
-      <c r="T73" s="351"/>
-      <c r="U73" s="351"/>
-      <c r="V73" s="351"/>
-      <c r="W73" s="351"/>
-      <c r="X73" s="351"/>
-      <c r="Y73" s="351"/>
-      <c r="Z73" s="373"/>
-      <c r="AA73" s="374"/>
-      <c r="AB73" s="375"/>
-      <c r="AC73" s="375"/>
-      <c r="AD73" s="376"/>
-      <c r="AE73" s="335"/>
-      <c r="AF73" s="336"/>
-      <c r="AG73" s="336"/>
-      <c r="AH73" s="336"/>
-      <c r="AI73" s="337"/>
-      <c r="AJ73" s="374"/>
-      <c r="AK73" s="375"/>
-      <c r="AL73" s="375"/>
-      <c r="AM73" s="376"/>
-      <c r="AN73" s="335"/>
-      <c r="AO73" s="336"/>
-      <c r="AP73" s="336"/>
-      <c r="AQ73" s="336"/>
-      <c r="AR73" s="337"/>
-      <c r="AS73" s="374"/>
-      <c r="AT73" s="375"/>
-      <c r="AU73" s="375"/>
-      <c r="AV73" s="376"/>
+      <c r="B73" s="333"/>
+      <c r="C73" s="334"/>
+      <c r="D73" s="338"/>
+      <c r="E73" s="339"/>
+      <c r="F73" s="339"/>
+      <c r="G73" s="339"/>
+      <c r="H73" s="340"/>
+      <c r="I73" s="353"/>
+      <c r="J73" s="354"/>
+      <c r="K73" s="354"/>
+      <c r="L73" s="354"/>
+      <c r="M73" s="354"/>
+      <c r="N73" s="354"/>
+      <c r="O73" s="354"/>
+      <c r="P73" s="354"/>
+      <c r="Q73" s="354"/>
+      <c r="R73" s="354"/>
+      <c r="S73" s="354"/>
+      <c r="T73" s="354"/>
+      <c r="U73" s="354"/>
+      <c r="V73" s="354"/>
+      <c r="W73" s="354"/>
+      <c r="X73" s="354"/>
+      <c r="Y73" s="354"/>
+      <c r="Z73" s="376"/>
+      <c r="AA73" s="377"/>
+      <c r="AB73" s="378"/>
+      <c r="AC73" s="378"/>
+      <c r="AD73" s="379"/>
+      <c r="AE73" s="338"/>
+      <c r="AF73" s="339"/>
+      <c r="AG73" s="339"/>
+      <c r="AH73" s="339"/>
+      <c r="AI73" s="340"/>
+      <c r="AJ73" s="377"/>
+      <c r="AK73" s="378"/>
+      <c r="AL73" s="378"/>
+      <c r="AM73" s="379"/>
+      <c r="AN73" s="338"/>
+      <c r="AO73" s="339"/>
+      <c r="AP73" s="339"/>
+      <c r="AQ73" s="339"/>
+      <c r="AR73" s="340"/>
+      <c r="AS73" s="377"/>
+      <c r="AT73" s="378"/>
+      <c r="AU73" s="378"/>
+      <c r="AV73" s="379"/>
       <c r="AW73" s="265"/>
     </row>
     <row r="74" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A74" s="187"/>
-      <c r="B74" s="330"/>
-      <c r="C74" s="331"/>
-      <c r="D74" s="335"/>
-      <c r="E74" s="336"/>
-      <c r="F74" s="336"/>
-      <c r="G74" s="336"/>
-      <c r="H74" s="337"/>
-      <c r="I74" s="350"/>
-      <c r="J74" s="351"/>
-      <c r="K74" s="351"/>
-      <c r="L74" s="351"/>
-      <c r="M74" s="351"/>
-      <c r="N74" s="351"/>
-      <c r="O74" s="351"/>
-      <c r="P74" s="351"/>
-      <c r="Q74" s="351"/>
-      <c r="R74" s="351"/>
-      <c r="S74" s="351"/>
-      <c r="T74" s="351"/>
-      <c r="U74" s="351"/>
-      <c r="V74" s="351"/>
-      <c r="W74" s="351"/>
-      <c r="X74" s="351"/>
-      <c r="Y74" s="351"/>
-      <c r="Z74" s="373"/>
-      <c r="AA74" s="374"/>
-      <c r="AB74" s="375"/>
-      <c r="AC74" s="375"/>
-      <c r="AD74" s="376"/>
-      <c r="AE74" s="335"/>
-      <c r="AF74" s="336"/>
-      <c r="AG74" s="336"/>
-      <c r="AH74" s="336"/>
-      <c r="AI74" s="337"/>
-      <c r="AJ74" s="374"/>
-      <c r="AK74" s="375"/>
-      <c r="AL74" s="375"/>
-      <c r="AM74" s="376"/>
-      <c r="AN74" s="335"/>
-      <c r="AO74" s="336"/>
-      <c r="AP74" s="336"/>
-      <c r="AQ74" s="336"/>
-      <c r="AR74" s="337"/>
-      <c r="AS74" s="374"/>
-      <c r="AT74" s="375"/>
-      <c r="AU74" s="375"/>
-      <c r="AV74" s="376"/>
+      <c r="B74" s="333"/>
+      <c r="C74" s="334"/>
+      <c r="D74" s="338"/>
+      <c r="E74" s="339"/>
+      <c r="F74" s="339"/>
+      <c r="G74" s="339"/>
+      <c r="H74" s="340"/>
+      <c r="I74" s="353"/>
+      <c r="J74" s="354"/>
+      <c r="K74" s="354"/>
+      <c r="L74" s="354"/>
+      <c r="M74" s="354"/>
+      <c r="N74" s="354"/>
+      <c r="O74" s="354"/>
+      <c r="P74" s="354"/>
+      <c r="Q74" s="354"/>
+      <c r="R74" s="354"/>
+      <c r="S74" s="354"/>
+      <c r="T74" s="354"/>
+      <c r="U74" s="354"/>
+      <c r="V74" s="354"/>
+      <c r="W74" s="354"/>
+      <c r="X74" s="354"/>
+      <c r="Y74" s="354"/>
+      <c r="Z74" s="376"/>
+      <c r="AA74" s="377"/>
+      <c r="AB74" s="378"/>
+      <c r="AC74" s="378"/>
+      <c r="AD74" s="379"/>
+      <c r="AE74" s="338"/>
+      <c r="AF74" s="339"/>
+      <c r="AG74" s="339"/>
+      <c r="AH74" s="339"/>
+      <c r="AI74" s="340"/>
+      <c r="AJ74" s="377"/>
+      <c r="AK74" s="378"/>
+      <c r="AL74" s="378"/>
+      <c r="AM74" s="379"/>
+      <c r="AN74" s="338"/>
+      <c r="AO74" s="339"/>
+      <c r="AP74" s="339"/>
+      <c r="AQ74" s="339"/>
+      <c r="AR74" s="340"/>
+      <c r="AS74" s="377"/>
+      <c r="AT74" s="378"/>
+      <c r="AU74" s="378"/>
+      <c r="AV74" s="379"/>
       <c r="AW74" s="265"/>
     </row>
     <row r="75" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A75" s="187"/>
-      <c r="B75" s="330"/>
-      <c r="C75" s="331"/>
-      <c r="D75" s="335"/>
-      <c r="E75" s="336"/>
-      <c r="F75" s="336"/>
-      <c r="G75" s="336"/>
-      <c r="H75" s="337"/>
-      <c r="I75" s="350"/>
-      <c r="J75" s="351"/>
-      <c r="K75" s="351"/>
-      <c r="L75" s="351"/>
-      <c r="M75" s="351"/>
-      <c r="N75" s="351"/>
-      <c r="O75" s="351"/>
-      <c r="P75" s="351"/>
-      <c r="Q75" s="351"/>
-      <c r="R75" s="351"/>
-      <c r="S75" s="351"/>
-      <c r="T75" s="351"/>
-      <c r="U75" s="351"/>
-      <c r="V75" s="351"/>
-      <c r="W75" s="351"/>
-      <c r="X75" s="351"/>
-      <c r="Y75" s="351"/>
-      <c r="Z75" s="373"/>
-      <c r="AA75" s="374"/>
-      <c r="AB75" s="375"/>
-      <c r="AC75" s="375"/>
-      <c r="AD75" s="376"/>
-      <c r="AE75" s="335"/>
-      <c r="AF75" s="336"/>
-      <c r="AG75" s="336"/>
-      <c r="AH75" s="336"/>
-      <c r="AI75" s="337"/>
-      <c r="AJ75" s="374"/>
-      <c r="AK75" s="375"/>
-      <c r="AL75" s="375"/>
-      <c r="AM75" s="376"/>
-      <c r="AN75" s="335"/>
-      <c r="AO75" s="336"/>
-      <c r="AP75" s="336"/>
-      <c r="AQ75" s="336"/>
-      <c r="AR75" s="337"/>
-      <c r="AS75" s="374"/>
-      <c r="AT75" s="375"/>
-      <c r="AU75" s="375"/>
-      <c r="AV75" s="376"/>
+      <c r="B75" s="333"/>
+      <c r="C75" s="334"/>
+      <c r="D75" s="338"/>
+      <c r="E75" s="339"/>
+      <c r="F75" s="339"/>
+      <c r="G75" s="339"/>
+      <c r="H75" s="340"/>
+      <c r="I75" s="353"/>
+      <c r="J75" s="354"/>
+      <c r="K75" s="354"/>
+      <c r="L75" s="354"/>
+      <c r="M75" s="354"/>
+      <c r="N75" s="354"/>
+      <c r="O75" s="354"/>
+      <c r="P75" s="354"/>
+      <c r="Q75" s="354"/>
+      <c r="R75" s="354"/>
+      <c r="S75" s="354"/>
+      <c r="T75" s="354"/>
+      <c r="U75" s="354"/>
+      <c r="V75" s="354"/>
+      <c r="W75" s="354"/>
+      <c r="X75" s="354"/>
+      <c r="Y75" s="354"/>
+      <c r="Z75" s="376"/>
+      <c r="AA75" s="377"/>
+      <c r="AB75" s="378"/>
+      <c r="AC75" s="378"/>
+      <c r="AD75" s="379"/>
+      <c r="AE75" s="338"/>
+      <c r="AF75" s="339"/>
+      <c r="AG75" s="339"/>
+      <c r="AH75" s="339"/>
+      <c r="AI75" s="340"/>
+      <c r="AJ75" s="377"/>
+      <c r="AK75" s="378"/>
+      <c r="AL75" s="378"/>
+      <c r="AM75" s="379"/>
+      <c r="AN75" s="338"/>
+      <c r="AO75" s="339"/>
+      <c r="AP75" s="339"/>
+      <c r="AQ75" s="339"/>
+      <c r="AR75" s="340"/>
+      <c r="AS75" s="377"/>
+      <c r="AT75" s="378"/>
+      <c r="AU75" s="378"/>
+      <c r="AV75" s="379"/>
       <c r="AW75" s="265"/>
     </row>
     <row r="76" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A76" s="187"/>
-      <c r="B76" s="330"/>
-      <c r="C76" s="331"/>
-      <c r="D76" s="335"/>
-      <c r="E76" s="336"/>
-      <c r="F76" s="336"/>
-      <c r="G76" s="336"/>
-      <c r="H76" s="337"/>
-      <c r="I76" s="350"/>
-      <c r="J76" s="351"/>
-      <c r="K76" s="351"/>
-      <c r="L76" s="351"/>
-      <c r="M76" s="351"/>
-      <c r="N76" s="351"/>
-      <c r="O76" s="351"/>
-      <c r="P76" s="351"/>
-      <c r="Q76" s="351"/>
-      <c r="R76" s="351"/>
-      <c r="S76" s="351"/>
-      <c r="T76" s="351"/>
-      <c r="U76" s="351"/>
-      <c r="V76" s="351"/>
-      <c r="W76" s="351"/>
-      <c r="X76" s="351"/>
-      <c r="Y76" s="351"/>
-      <c r="Z76" s="373"/>
-      <c r="AA76" s="374"/>
-      <c r="AB76" s="375"/>
-      <c r="AC76" s="375"/>
-      <c r="AD76" s="376"/>
-      <c r="AE76" s="335"/>
-      <c r="AF76" s="336"/>
-      <c r="AG76" s="336"/>
-      <c r="AH76" s="336"/>
-      <c r="AI76" s="337"/>
-      <c r="AJ76" s="374"/>
-      <c r="AK76" s="375"/>
-      <c r="AL76" s="375"/>
-      <c r="AM76" s="376"/>
-      <c r="AN76" s="335"/>
-      <c r="AO76" s="336"/>
-      <c r="AP76" s="336"/>
-      <c r="AQ76" s="336"/>
-      <c r="AR76" s="337"/>
-      <c r="AS76" s="374"/>
-      <c r="AT76" s="375"/>
-      <c r="AU76" s="375"/>
-      <c r="AV76" s="376"/>
+      <c r="B76" s="333"/>
+      <c r="C76" s="334"/>
+      <c r="D76" s="338"/>
+      <c r="E76" s="339"/>
+      <c r="F76" s="339"/>
+      <c r="G76" s="339"/>
+      <c r="H76" s="340"/>
+      <c r="I76" s="353"/>
+      <c r="J76" s="354"/>
+      <c r="K76" s="354"/>
+      <c r="L76" s="354"/>
+      <c r="M76" s="354"/>
+      <c r="N76" s="354"/>
+      <c r="O76" s="354"/>
+      <c r="P76" s="354"/>
+      <c r="Q76" s="354"/>
+      <c r="R76" s="354"/>
+      <c r="S76" s="354"/>
+      <c r="T76" s="354"/>
+      <c r="U76" s="354"/>
+      <c r="V76" s="354"/>
+      <c r="W76" s="354"/>
+      <c r="X76" s="354"/>
+      <c r="Y76" s="354"/>
+      <c r="Z76" s="376"/>
+      <c r="AA76" s="377"/>
+      <c r="AB76" s="378"/>
+      <c r="AC76" s="378"/>
+      <c r="AD76" s="379"/>
+      <c r="AE76" s="338"/>
+      <c r="AF76" s="339"/>
+      <c r="AG76" s="339"/>
+      <c r="AH76" s="339"/>
+      <c r="AI76" s="340"/>
+      <c r="AJ76" s="377"/>
+      <c r="AK76" s="378"/>
+      <c r="AL76" s="378"/>
+      <c r="AM76" s="379"/>
+      <c r="AN76" s="338"/>
+      <c r="AO76" s="339"/>
+      <c r="AP76" s="339"/>
+      <c r="AQ76" s="339"/>
+      <c r="AR76" s="340"/>
+      <c r="AS76" s="377"/>
+      <c r="AT76" s="378"/>
+      <c r="AU76" s="378"/>
+      <c r="AV76" s="379"/>
       <c r="AW76" s="265"/>
     </row>
     <row r="77" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A77" s="187"/>
-      <c r="B77" s="330"/>
-      <c r="C77" s="331"/>
-      <c r="D77" s="335"/>
-      <c r="E77" s="336"/>
-      <c r="F77" s="336"/>
-      <c r="G77" s="336"/>
-      <c r="H77" s="337"/>
-      <c r="I77" s="350"/>
-      <c r="J77" s="351"/>
-      <c r="K77" s="351"/>
-      <c r="L77" s="351"/>
-      <c r="M77" s="351"/>
-      <c r="N77" s="351"/>
-      <c r="O77" s="351"/>
-      <c r="P77" s="351"/>
-      <c r="Q77" s="351"/>
-      <c r="R77" s="351"/>
-      <c r="S77" s="351"/>
-      <c r="T77" s="351"/>
-      <c r="U77" s="351"/>
-      <c r="V77" s="351"/>
-      <c r="W77" s="351"/>
-      <c r="X77" s="351"/>
-      <c r="Y77" s="351"/>
-      <c r="Z77" s="373"/>
-      <c r="AA77" s="374"/>
-      <c r="AB77" s="375"/>
-      <c r="AC77" s="375"/>
-      <c r="AD77" s="376"/>
-      <c r="AE77" s="335"/>
-      <c r="AF77" s="336"/>
-      <c r="AG77" s="336"/>
-      <c r="AH77" s="336"/>
-      <c r="AI77" s="337"/>
-      <c r="AJ77" s="374"/>
-      <c r="AK77" s="375"/>
-      <c r="AL77" s="375"/>
-      <c r="AM77" s="376"/>
-      <c r="AN77" s="335"/>
-      <c r="AO77" s="336"/>
-      <c r="AP77" s="336"/>
-      <c r="AQ77" s="336"/>
-      <c r="AR77" s="337"/>
-      <c r="AS77" s="374"/>
-      <c r="AT77" s="375"/>
-      <c r="AU77" s="375"/>
-      <c r="AV77" s="376"/>
+      <c r="B77" s="333"/>
+      <c r="C77" s="334"/>
+      <c r="D77" s="338"/>
+      <c r="E77" s="339"/>
+      <c r="F77" s="339"/>
+      <c r="G77" s="339"/>
+      <c r="H77" s="340"/>
+      <c r="I77" s="353"/>
+      <c r="J77" s="354"/>
+      <c r="K77" s="354"/>
+      <c r="L77" s="354"/>
+      <c r="M77" s="354"/>
+      <c r="N77" s="354"/>
+      <c r="O77" s="354"/>
+      <c r="P77" s="354"/>
+      <c r="Q77" s="354"/>
+      <c r="R77" s="354"/>
+      <c r="S77" s="354"/>
+      <c r="T77" s="354"/>
+      <c r="U77" s="354"/>
+      <c r="V77" s="354"/>
+      <c r="W77" s="354"/>
+      <c r="X77" s="354"/>
+      <c r="Y77" s="354"/>
+      <c r="Z77" s="376"/>
+      <c r="AA77" s="377"/>
+      <c r="AB77" s="378"/>
+      <c r="AC77" s="378"/>
+      <c r="AD77" s="379"/>
+      <c r="AE77" s="338"/>
+      <c r="AF77" s="339"/>
+      <c r="AG77" s="339"/>
+      <c r="AH77" s="339"/>
+      <c r="AI77" s="340"/>
+      <c r="AJ77" s="377"/>
+      <c r="AK77" s="378"/>
+      <c r="AL77" s="378"/>
+      <c r="AM77" s="379"/>
+      <c r="AN77" s="338"/>
+      <c r="AO77" s="339"/>
+      <c r="AP77" s="339"/>
+      <c r="AQ77" s="339"/>
+      <c r="AR77" s="340"/>
+      <c r="AS77" s="377"/>
+      <c r="AT77" s="378"/>
+      <c r="AU77" s="378"/>
+      <c r="AV77" s="379"/>
       <c r="AW77" s="265"/>
     </row>
     <row r="78" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A78" s="187"/>
-      <c r="B78" s="387"/>
-      <c r="C78" s="388"/>
-      <c r="D78" s="389"/>
-      <c r="E78" s="390"/>
-      <c r="F78" s="390"/>
-      <c r="G78" s="390"/>
-      <c r="H78" s="391"/>
-      <c r="I78" s="402"/>
-      <c r="J78" s="403"/>
-      <c r="K78" s="403"/>
-      <c r="L78" s="403"/>
-      <c r="M78" s="403"/>
-      <c r="N78" s="403"/>
-      <c r="O78" s="403"/>
-      <c r="P78" s="403"/>
-      <c r="Q78" s="403"/>
-      <c r="R78" s="403"/>
-      <c r="S78" s="403"/>
-      <c r="T78" s="403"/>
-      <c r="U78" s="403"/>
-      <c r="V78" s="403"/>
-      <c r="W78" s="403"/>
-      <c r="X78" s="403"/>
-      <c r="Y78" s="403"/>
-      <c r="Z78" s="404"/>
-      <c r="AA78" s="405"/>
-      <c r="AB78" s="406"/>
-      <c r="AC78" s="406"/>
-      <c r="AD78" s="407"/>
-      <c r="AE78" s="389"/>
-      <c r="AF78" s="390"/>
-      <c r="AG78" s="390"/>
-      <c r="AH78" s="390"/>
-      <c r="AI78" s="391"/>
-      <c r="AJ78" s="405"/>
-      <c r="AK78" s="406"/>
-      <c r="AL78" s="406"/>
-      <c r="AM78" s="407"/>
-      <c r="AN78" s="389"/>
-      <c r="AO78" s="390"/>
-      <c r="AP78" s="390"/>
-      <c r="AQ78" s="390"/>
-      <c r="AR78" s="391"/>
-      <c r="AS78" s="405"/>
-      <c r="AT78" s="406"/>
-      <c r="AU78" s="406"/>
-      <c r="AV78" s="407"/>
+      <c r="B78" s="390"/>
+      <c r="C78" s="391"/>
+      <c r="D78" s="392"/>
+      <c r="E78" s="393"/>
+      <c r="F78" s="393"/>
+      <c r="G78" s="393"/>
+      <c r="H78" s="394"/>
+      <c r="I78" s="405"/>
+      <c r="J78" s="406"/>
+      <c r="K78" s="406"/>
+      <c r="L78" s="406"/>
+      <c r="M78" s="406"/>
+      <c r="N78" s="406"/>
+      <c r="O78" s="406"/>
+      <c r="P78" s="406"/>
+      <c r="Q78" s="406"/>
+      <c r="R78" s="406"/>
+      <c r="S78" s="406"/>
+      <c r="T78" s="406"/>
+      <c r="U78" s="406"/>
+      <c r="V78" s="406"/>
+      <c r="W78" s="406"/>
+      <c r="X78" s="406"/>
+      <c r="Y78" s="406"/>
+      <c r="Z78" s="407"/>
+      <c r="AA78" s="408"/>
+      <c r="AB78" s="409"/>
+      <c r="AC78" s="409"/>
+      <c r="AD78" s="410"/>
+      <c r="AE78" s="392"/>
+      <c r="AF78" s="393"/>
+      <c r="AG78" s="393"/>
+      <c r="AH78" s="393"/>
+      <c r="AI78" s="394"/>
+      <c r="AJ78" s="408"/>
+      <c r="AK78" s="409"/>
+      <c r="AL78" s="409"/>
+      <c r="AM78" s="410"/>
+      <c r="AN78" s="392"/>
+      <c r="AO78" s="393"/>
+      <c r="AP78" s="393"/>
+      <c r="AQ78" s="393"/>
+      <c r="AR78" s="394"/>
+      <c r="AS78" s="408"/>
+      <c r="AT78" s="409"/>
+      <c r="AU78" s="409"/>
+      <c r="AV78" s="410"/>
       <c r="AW78" s="265"/>
     </row>
     <row r="79" s="181" customFormat="1" customHeight="1" spans="1:49">
       <c r="A79" s="187"/>
-      <c r="B79" s="392"/>
-      <c r="C79" s="392"/>
-      <c r="D79" s="336"/>
-      <c r="E79" s="336"/>
-      <c r="F79" s="336"/>
-      <c r="G79" s="336"/>
-      <c r="H79" s="336"/>
-      <c r="I79" s="351"/>
-      <c r="J79" s="351"/>
-      <c r="K79" s="351"/>
-      <c r="L79" s="351"/>
-      <c r="M79" s="351"/>
-      <c r="N79" s="351"/>
-      <c r="O79" s="351"/>
-      <c r="P79" s="351"/>
-      <c r="Q79" s="351"/>
-      <c r="R79" s="351"/>
-      <c r="S79" s="351"/>
-      <c r="T79" s="351"/>
-      <c r="U79" s="351"/>
-      <c r="V79" s="351"/>
-      <c r="W79" s="351"/>
-      <c r="X79" s="351"/>
-      <c r="Y79" s="351"/>
-      <c r="Z79" s="351"/>
-      <c r="AA79" s="375"/>
-      <c r="AB79" s="375"/>
-      <c r="AC79" s="375"/>
-      <c r="AD79" s="375"/>
-      <c r="AE79" s="336"/>
-      <c r="AF79" s="336"/>
-      <c r="AG79" s="336"/>
-      <c r="AH79" s="336"/>
-      <c r="AI79" s="336"/>
-      <c r="AJ79" s="375"/>
-      <c r="AK79" s="375"/>
-      <c r="AL79" s="375"/>
-      <c r="AM79" s="375"/>
-      <c r="AN79" s="336"/>
-      <c r="AO79" s="336"/>
-      <c r="AP79" s="336"/>
-      <c r="AQ79" s="336"/>
-      <c r="AR79" s="336"/>
-      <c r="AS79" s="375"/>
-      <c r="AT79" s="375"/>
-      <c r="AU79" s="375"/>
-      <c r="AV79" s="375"/>
+      <c r="B79" s="395"/>
+      <c r="C79" s="395"/>
+      <c r="D79" s="339"/>
+      <c r="E79" s="339"/>
+      <c r="F79" s="339"/>
+      <c r="G79" s="339"/>
+      <c r="H79" s="339"/>
+      <c r="I79" s="354"/>
+      <c r="J79" s="354"/>
+      <c r="K79" s="354"/>
+      <c r="L79" s="354"/>
+      <c r="M79" s="354"/>
+      <c r="N79" s="354"/>
+      <c r="O79" s="354"/>
+      <c r="P79" s="354"/>
+      <c r="Q79" s="354"/>
+      <c r="R79" s="354"/>
+      <c r="S79" s="354"/>
+      <c r="T79" s="354"/>
+      <c r="U79" s="354"/>
+      <c r="V79" s="354"/>
+      <c r="W79" s="354"/>
+      <c r="X79" s="354"/>
+      <c r="Y79" s="354"/>
+      <c r="Z79" s="354"/>
+      <c r="AA79" s="378"/>
+      <c r="AB79" s="378"/>
+      <c r="AC79" s="378"/>
+      <c r="AD79" s="378"/>
+      <c r="AE79" s="339"/>
+      <c r="AF79" s="339"/>
+      <c r="AG79" s="339"/>
+      <c r="AH79" s="339"/>
+      <c r="AI79" s="339"/>
+      <c r="AJ79" s="378"/>
+      <c r="AK79" s="378"/>
+      <c r="AL79" s="378"/>
+      <c r="AM79" s="378"/>
+      <c r="AN79" s="339"/>
+      <c r="AO79" s="339"/>
+      <c r="AP79" s="339"/>
+      <c r="AQ79" s="339"/>
+      <c r="AR79" s="339"/>
+      <c r="AS79" s="378"/>
+      <c r="AT79" s="378"/>
+      <c r="AU79" s="378"/>
+      <c r="AV79" s="378"/>
       <c r="AW79" s="265"/>
     </row>
     <row r="80" s="181" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A80" s="302"/>
-      <c r="B80" s="303"/>
-      <c r="C80" s="303"/>
-      <c r="D80" s="303"/>
-      <c r="E80" s="303"/>
-      <c r="F80" s="303"/>
-      <c r="G80" s="303"/>
-      <c r="H80" s="303"/>
-      <c r="I80" s="303"/>
-      <c r="J80" s="303"/>
-      <c r="K80" s="303"/>
-      <c r="L80" s="303"/>
-      <c r="M80" s="303"/>
-      <c r="N80" s="303"/>
-      <c r="O80" s="303"/>
-      <c r="P80" s="303"/>
-      <c r="Q80" s="303"/>
-      <c r="R80" s="303"/>
-      <c r="S80" s="303"/>
-      <c r="T80" s="303"/>
-      <c r="U80" s="303"/>
-      <c r="V80" s="303"/>
-      <c r="W80" s="303"/>
-      <c r="X80" s="303"/>
-      <c r="Y80" s="303"/>
-      <c r="Z80" s="303"/>
-      <c r="AA80" s="303"/>
-      <c r="AB80" s="303"/>
-      <c r="AC80" s="303"/>
-      <c r="AD80" s="303"/>
-      <c r="AE80" s="303"/>
-      <c r="AF80" s="303"/>
-      <c r="AG80" s="303"/>
-      <c r="AH80" s="303"/>
-      <c r="AI80" s="303"/>
-      <c r="AJ80" s="303"/>
-      <c r="AK80" s="303"/>
-      <c r="AL80" s="303"/>
-      <c r="AM80" s="303"/>
-      <c r="AN80" s="303"/>
-      <c r="AO80" s="303"/>
-      <c r="AP80" s="303"/>
-      <c r="AQ80" s="303"/>
-      <c r="AR80" s="303"/>
-      <c r="AS80" s="303"/>
-      <c r="AT80" s="303"/>
-      <c r="AU80" s="303"/>
-      <c r="AV80" s="303"/>
-      <c r="AW80" s="386"/>
-    </row>
-    <row r="81" s="298" customFormat="1" ht="23" customHeight="1" spans="1:49">
+      <c r="A80" s="305"/>
+      <c r="B80" s="306"/>
+      <c r="C80" s="306"/>
+      <c r="D80" s="306"/>
+      <c r="E80" s="306"/>
+      <c r="F80" s="306"/>
+      <c r="G80" s="306"/>
+      <c r="H80" s="306"/>
+      <c r="I80" s="306"/>
+      <c r="J80" s="306"/>
+      <c r="K80" s="306"/>
+      <c r="L80" s="306"/>
+      <c r="M80" s="306"/>
+      <c r="N80" s="306"/>
+      <c r="O80" s="306"/>
+      <c r="P80" s="306"/>
+      <c r="Q80" s="306"/>
+      <c r="R80" s="306"/>
+      <c r="S80" s="306"/>
+      <c r="T80" s="306"/>
+      <c r="U80" s="306"/>
+      <c r="V80" s="306"/>
+      <c r="W80" s="306"/>
+      <c r="X80" s="306"/>
+      <c r="Y80" s="306"/>
+      <c r="Z80" s="306"/>
+      <c r="AA80" s="306"/>
+      <c r="AB80" s="306"/>
+      <c r="AC80" s="306"/>
+      <c r="AD80" s="306"/>
+      <c r="AE80" s="306"/>
+      <c r="AF80" s="306"/>
+      <c r="AG80" s="306"/>
+      <c r="AH80" s="306"/>
+      <c r="AI80" s="306"/>
+      <c r="AJ80" s="306"/>
+      <c r="AK80" s="306"/>
+      <c r="AL80" s="306"/>
+      <c r="AM80" s="306"/>
+      <c r="AN80" s="306"/>
+      <c r="AO80" s="306"/>
+      <c r="AP80" s="306"/>
+      <c r="AQ80" s="306"/>
+      <c r="AR80" s="306"/>
+      <c r="AS80" s="306"/>
+      <c r="AT80" s="306"/>
+      <c r="AU80" s="306"/>
+      <c r="AV80" s="306"/>
+      <c r="AW80" s="389"/>
+    </row>
+    <row r="81" s="301" customFormat="1" ht="23" customHeight="1" spans="1:49">
       <c r="A81" s="5" t="s">
         <v>0</v>
       </c>
@@ -20703,7 +20710,7 @@
       <c r="AV81" s="145"/>
       <c r="AW81" s="160"/>
     </row>
-    <row r="82" s="298" customFormat="1" ht="23" customHeight="1" spans="1:49">
+    <row r="82" s="301" customFormat="1" ht="23" customHeight="1" spans="1:49">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20924,7 +20931,7 @@
     <row r="86" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A86" s="79"/>
       <c r="B86" s="189"/>
-      <c r="C86" s="438" t="s">
+      <c r="C86" s="441" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="42"/>
@@ -20977,7 +20984,7 @@
     <row r="87" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A87" s="79"/>
       <c r="B87" s="189"/>
-      <c r="C87" s="438" t="s">
+      <c r="C87" s="441" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="42"/>
@@ -21030,7 +21037,7 @@
     <row r="88" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A88" s="79"/>
       <c r="B88" s="189"/>
-      <c r="C88" s="438" t="s">
+      <c r="C88" s="441" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="42"/>
@@ -21153,111 +21160,111 @@
       <c r="Q90" s="42"/>
       <c r="R90" s="42"/>
       <c r="S90" s="42"/>
-      <c r="T90" s="397"/>
-      <c r="U90" s="398"/>
-      <c r="V90" s="398"/>
-      <c r="W90" s="398"/>
-      <c r="X90" s="398"/>
-      <c r="Y90" s="398"/>
-      <c r="Z90" s="398"/>
-      <c r="AA90" s="398"/>
-      <c r="AB90" s="398"/>
-      <c r="AC90" s="398"/>
-      <c r="AD90" s="398"/>
-      <c r="AE90" s="398"/>
-      <c r="AF90" s="398"/>
-      <c r="AG90" s="398"/>
-      <c r="AH90" s="398"/>
-      <c r="AI90" s="398"/>
-      <c r="AJ90" s="398"/>
-      <c r="AK90" s="398"/>
-      <c r="AL90" s="398"/>
-      <c r="AM90" s="398"/>
-      <c r="AN90" s="398"/>
-      <c r="AO90" s="398"/>
-      <c r="AP90" s="398"/>
-      <c r="AQ90" s="398"/>
-      <c r="AR90" s="398"/>
-      <c r="AS90" s="398"/>
-      <c r="AT90" s="398"/>
-      <c r="AU90" s="398"/>
-      <c r="AV90" s="398"/>
+      <c r="T90" s="400"/>
+      <c r="U90" s="401"/>
+      <c r="V90" s="401"/>
+      <c r="W90" s="401"/>
+      <c r="X90" s="401"/>
+      <c r="Y90" s="401"/>
+      <c r="Z90" s="401"/>
+      <c r="AA90" s="401"/>
+      <c r="AB90" s="401"/>
+      <c r="AC90" s="401"/>
+      <c r="AD90" s="401"/>
+      <c r="AE90" s="401"/>
+      <c r="AF90" s="401"/>
+      <c r="AG90" s="401"/>
+      <c r="AH90" s="401"/>
+      <c r="AI90" s="401"/>
+      <c r="AJ90" s="401"/>
+      <c r="AK90" s="401"/>
+      <c r="AL90" s="401"/>
+      <c r="AM90" s="401"/>
+      <c r="AN90" s="401"/>
+      <c r="AO90" s="401"/>
+      <c r="AP90" s="401"/>
+      <c r="AQ90" s="401"/>
+      <c r="AR90" s="401"/>
+      <c r="AS90" s="401"/>
+      <c r="AT90" s="401"/>
+      <c r="AU90" s="401"/>
+      <c r="AV90" s="401"/>
       <c r="AW90" s="266"/>
     </row>
     <row r="91" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A91" s="79"/>
-      <c r="B91" s="393"/>
+      <c r="B91" s="396"/>
       <c r="C91" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="394"/>
-      <c r="E91" s="394"/>
-      <c r="F91" s="394"/>
-      <c r="G91" s="395"/>
-      <c r="H91" s="395"/>
-      <c r="I91" s="395"/>
-      <c r="J91" s="395"/>
-      <c r="K91" s="395"/>
-      <c r="L91" s="395"/>
-      <c r="M91" s="395"/>
-      <c r="N91" s="395"/>
-      <c r="O91" s="395"/>
-      <c r="P91" s="395"/>
-      <c r="Q91" s="395"/>
-      <c r="R91" s="394"/>
-      <c r="S91" s="394"/>
-      <c r="T91" s="394"/>
-      <c r="U91" s="394"/>
-      <c r="V91" s="394"/>
-      <c r="W91" s="395"/>
-      <c r="X91" s="395"/>
-      <c r="Y91" s="394"/>
-      <c r="Z91" s="394"/>
-      <c r="AA91" s="394"/>
-      <c r="AB91" s="394"/>
-      <c r="AC91" s="394"/>
-      <c r="AD91" s="394"/>
-      <c r="AE91" s="394"/>
-      <c r="AF91" s="394"/>
-      <c r="AG91" s="394"/>
-      <c r="AH91" s="394"/>
-      <c r="AI91" s="394"/>
-      <c r="AJ91" s="394"/>
-      <c r="AK91" s="394"/>
-      <c r="AL91" s="394"/>
-      <c r="AM91" s="394"/>
-      <c r="AN91" s="394"/>
-      <c r="AO91" s="394"/>
-      <c r="AP91" s="394"/>
-      <c r="AQ91" s="394"/>
-      <c r="AR91" s="394"/>
-      <c r="AS91" s="394"/>
-      <c r="AT91" s="394"/>
-      <c r="AU91" s="394"/>
+      <c r="D91" s="397"/>
+      <c r="E91" s="397"/>
+      <c r="F91" s="397"/>
+      <c r="G91" s="398"/>
+      <c r="H91" s="398"/>
+      <c r="I91" s="398"/>
+      <c r="J91" s="398"/>
+      <c r="K91" s="398"/>
+      <c r="L91" s="398"/>
+      <c r="M91" s="398"/>
+      <c r="N91" s="398"/>
+      <c r="O91" s="398"/>
+      <c r="P91" s="398"/>
+      <c r="Q91" s="398"/>
+      <c r="R91" s="397"/>
+      <c r="S91" s="397"/>
+      <c r="T91" s="397"/>
+      <c r="U91" s="397"/>
+      <c r="V91" s="397"/>
+      <c r="W91" s="398"/>
+      <c r="X91" s="398"/>
+      <c r="Y91" s="397"/>
+      <c r="Z91" s="397"/>
+      <c r="AA91" s="397"/>
+      <c r="AB91" s="397"/>
+      <c r="AC91" s="397"/>
+      <c r="AD91" s="397"/>
+      <c r="AE91" s="397"/>
+      <c r="AF91" s="397"/>
+      <c r="AG91" s="397"/>
+      <c r="AH91" s="397"/>
+      <c r="AI91" s="397"/>
+      <c r="AJ91" s="397"/>
+      <c r="AK91" s="397"/>
+      <c r="AL91" s="397"/>
+      <c r="AM91" s="397"/>
+      <c r="AN91" s="397"/>
+      <c r="AO91" s="397"/>
+      <c r="AP91" s="397"/>
+      <c r="AQ91" s="397"/>
+      <c r="AR91" s="397"/>
+      <c r="AS91" s="397"/>
+      <c r="AT91" s="397"/>
+      <c r="AU91" s="397"/>
       <c r="AV91" s="135"/>
       <c r="AW91" s="266"/>
-      <c r="AX91" s="408"/>
+      <c r="AX91" s="411"/>
     </row>
     <row r="92" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A92" s="79"/>
-      <c r="B92" s="393"/>
-      <c r="C92" s="396"/>
+      <c r="B92" s="396"/>
+      <c r="C92" s="399"/>
       <c r="D92" s="135"/>
-      <c r="E92" s="394"/>
-      <c r="F92" s="394"/>
+      <c r="E92" s="397"/>
+      <c r="F92" s="397"/>
       <c r="G92" s="183"/>
       <c r="H92" s="183"/>
-      <c r="I92" s="397"/>
-      <c r="J92" s="397"/>
-      <c r="K92" s="397"/>
-      <c r="L92" s="397"/>
-      <c r="M92" s="397"/>
-      <c r="N92" s="397"/>
-      <c r="O92" s="397"/>
-      <c r="P92" s="397"/>
-      <c r="Q92" s="397"/>
-      <c r="R92" s="397"/>
-      <c r="S92" s="397"/>
+      <c r="I92" s="400"/>
+      <c r="J92" s="400"/>
+      <c r="K92" s="400"/>
+      <c r="L92" s="400"/>
+      <c r="M92" s="400"/>
+      <c r="N92" s="400"/>
+      <c r="O92" s="400"/>
+      <c r="P92" s="400"/>
+      <c r="Q92" s="400"/>
+      <c r="R92" s="400"/>
+      <c r="S92" s="400"/>
       <c r="T92" s="135"/>
       <c r="U92" s="135"/>
       <c r="V92" s="135"/>
@@ -21295,103 +21302,103 @@
         <v>38</v>
       </c>
       <c r="C93" s="42"/>
-      <c r="D93" s="397"/>
-      <c r="E93" s="397"/>
-      <c r="F93" s="398"/>
-      <c r="G93" s="397"/>
-      <c r="H93" s="397"/>
-      <c r="I93" s="399"/>
-      <c r="J93" s="396"/>
-      <c r="K93" s="398"/>
-      <c r="L93" s="398"/>
-      <c r="M93" s="398"/>
-      <c r="N93" s="398"/>
-      <c r="O93" s="398"/>
-      <c r="P93" s="398"/>
-      <c r="Q93" s="398"/>
-      <c r="R93" s="398"/>
-      <c r="S93" s="398"/>
-      <c r="T93" s="394"/>
-      <c r="U93" s="394"/>
-      <c r="V93" s="394"/>
-      <c r="W93" s="395"/>
-      <c r="X93" s="395"/>
-      <c r="Y93" s="395"/>
-      <c r="Z93" s="395"/>
-      <c r="AA93" s="395"/>
-      <c r="AB93" s="395"/>
-      <c r="AC93" s="395"/>
-      <c r="AD93" s="395"/>
-      <c r="AE93" s="395"/>
-      <c r="AF93" s="395"/>
-      <c r="AG93" s="395"/>
-      <c r="AH93" s="395"/>
-      <c r="AI93" s="395"/>
-      <c r="AJ93" s="395"/>
-      <c r="AK93" s="395"/>
-      <c r="AL93" s="395"/>
-      <c r="AM93" s="395"/>
-      <c r="AN93" s="395"/>
-      <c r="AO93" s="395"/>
-      <c r="AP93" s="395"/>
-      <c r="AQ93" s="395"/>
-      <c r="AR93" s="395"/>
-      <c r="AS93" s="395"/>
-      <c r="AT93" s="395"/>
-      <c r="AU93" s="394"/>
+      <c r="D93" s="400"/>
+      <c r="E93" s="400"/>
+      <c r="F93" s="401"/>
+      <c r="G93" s="400"/>
+      <c r="H93" s="400"/>
+      <c r="I93" s="402"/>
+      <c r="J93" s="399"/>
+      <c r="K93" s="401"/>
+      <c r="L93" s="401"/>
+      <c r="M93" s="401"/>
+      <c r="N93" s="401"/>
+      <c r="O93" s="401"/>
+      <c r="P93" s="401"/>
+      <c r="Q93" s="401"/>
+      <c r="R93" s="401"/>
+      <c r="S93" s="401"/>
+      <c r="T93" s="397"/>
+      <c r="U93" s="397"/>
+      <c r="V93" s="397"/>
+      <c r="W93" s="398"/>
+      <c r="X93" s="398"/>
+      <c r="Y93" s="398"/>
+      <c r="Z93" s="398"/>
+      <c r="AA93" s="398"/>
+      <c r="AB93" s="398"/>
+      <c r="AC93" s="398"/>
+      <c r="AD93" s="398"/>
+      <c r="AE93" s="398"/>
+      <c r="AF93" s="398"/>
+      <c r="AG93" s="398"/>
+      <c r="AH93" s="398"/>
+      <c r="AI93" s="398"/>
+      <c r="AJ93" s="398"/>
+      <c r="AK93" s="398"/>
+      <c r="AL93" s="398"/>
+      <c r="AM93" s="398"/>
+      <c r="AN93" s="398"/>
+      <c r="AO93" s="398"/>
+      <c r="AP93" s="398"/>
+      <c r="AQ93" s="398"/>
+      <c r="AR93" s="398"/>
+      <c r="AS93" s="398"/>
+      <c r="AT93" s="398"/>
+      <c r="AU93" s="397"/>
       <c r="AV93" s="135"/>
       <c r="AW93" s="266"/>
     </row>
     <row r="94" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A94" s="79"/>
-      <c r="B94" s="393"/>
+      <c r="B94" s="396"/>
       <c r="C94" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="398"/>
-      <c r="E94" s="397"/>
-      <c r="F94" s="397"/>
-      <c r="G94" s="397"/>
-      <c r="H94" s="397"/>
+      <c r="D94" s="401"/>
+      <c r="E94" s="400"/>
+      <c r="F94" s="400"/>
+      <c r="G94" s="400"/>
+      <c r="H94" s="400"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
-      <c r="K94" s="396"/>
-      <c r="L94" s="396"/>
-      <c r="M94" s="396"/>
-      <c r="N94" s="396"/>
-      <c r="O94" s="396"/>
-      <c r="P94" s="396"/>
-      <c r="Q94" s="396"/>
-      <c r="R94" s="396"/>
-      <c r="S94" s="396"/>
-      <c r="T94" s="394"/>
-      <c r="U94" s="394"/>
-      <c r="V94" s="394"/>
-      <c r="W94" s="395"/>
-      <c r="X94" s="395"/>
-      <c r="Y94" s="395"/>
-      <c r="Z94" s="395"/>
-      <c r="AA94" s="395"/>
-      <c r="AB94" s="395"/>
-      <c r="AC94" s="395"/>
-      <c r="AD94" s="395"/>
-      <c r="AE94" s="395"/>
-      <c r="AF94" s="395"/>
-      <c r="AG94" s="395"/>
-      <c r="AH94" s="395"/>
-      <c r="AI94" s="395"/>
-      <c r="AJ94" s="395"/>
-      <c r="AK94" s="395"/>
-      <c r="AL94" s="395"/>
-      <c r="AM94" s="395"/>
-      <c r="AN94" s="395"/>
-      <c r="AO94" s="395"/>
-      <c r="AP94" s="395"/>
-      <c r="AQ94" s="395"/>
-      <c r="AR94" s="395"/>
-      <c r="AS94" s="395"/>
-      <c r="AT94" s="395"/>
-      <c r="AU94" s="394"/>
+      <c r="K94" s="399"/>
+      <c r="L94" s="399"/>
+      <c r="M94" s="399"/>
+      <c r="N94" s="399"/>
+      <c r="O94" s="399"/>
+      <c r="P94" s="399"/>
+      <c r="Q94" s="399"/>
+      <c r="R94" s="399"/>
+      <c r="S94" s="399"/>
+      <c r="T94" s="397"/>
+      <c r="U94" s="397"/>
+      <c r="V94" s="397"/>
+      <c r="W94" s="398"/>
+      <c r="X94" s="398"/>
+      <c r="Y94" s="398"/>
+      <c r="Z94" s="398"/>
+      <c r="AA94" s="398"/>
+      <c r="AB94" s="398"/>
+      <c r="AC94" s="398"/>
+      <c r="AD94" s="398"/>
+      <c r="AE94" s="398"/>
+      <c r="AF94" s="398"/>
+      <c r="AG94" s="398"/>
+      <c r="AH94" s="398"/>
+      <c r="AI94" s="398"/>
+      <c r="AJ94" s="398"/>
+      <c r="AK94" s="398"/>
+      <c r="AL94" s="398"/>
+      <c r="AM94" s="398"/>
+      <c r="AN94" s="398"/>
+      <c r="AO94" s="398"/>
+      <c r="AP94" s="398"/>
+      <c r="AQ94" s="398"/>
+      <c r="AR94" s="398"/>
+      <c r="AS94" s="398"/>
+      <c r="AT94" s="398"/>
+      <c r="AU94" s="397"/>
       <c r="AV94" s="42"/>
       <c r="AW94" s="266"/>
     </row>
@@ -21407,42 +21414,42 @@
       <c r="I95" s="183"/>
       <c r="J95" s="183"/>
       <c r="K95" s="183"/>
-      <c r="L95" s="396"/>
-      <c r="M95" s="396"/>
-      <c r="N95" s="396"/>
-      <c r="O95" s="396"/>
-      <c r="P95" s="396"/>
-      <c r="Q95" s="396"/>
-      <c r="R95" s="396"/>
-      <c r="S95" s="396"/>
-      <c r="T95" s="394"/>
-      <c r="U95" s="394"/>
-      <c r="V95" s="394"/>
-      <c r="W95" s="395"/>
-      <c r="X95" s="395"/>
-      <c r="Y95" s="394"/>
-      <c r="Z95" s="394"/>
-      <c r="AA95" s="394"/>
-      <c r="AB95" s="394"/>
-      <c r="AC95" s="394"/>
-      <c r="AD95" s="394"/>
-      <c r="AE95" s="394"/>
-      <c r="AF95" s="394"/>
-      <c r="AG95" s="394"/>
-      <c r="AH95" s="394"/>
-      <c r="AI95" s="394"/>
-      <c r="AJ95" s="394"/>
-      <c r="AK95" s="394"/>
-      <c r="AL95" s="394"/>
-      <c r="AM95" s="394"/>
-      <c r="AN95" s="394"/>
-      <c r="AO95" s="394"/>
-      <c r="AP95" s="394"/>
-      <c r="AQ95" s="394"/>
-      <c r="AR95" s="394"/>
-      <c r="AS95" s="394"/>
-      <c r="AT95" s="394"/>
-      <c r="AU95" s="394"/>
+      <c r="L95" s="399"/>
+      <c r="M95" s="399"/>
+      <c r="N95" s="399"/>
+      <c r="O95" s="399"/>
+      <c r="P95" s="399"/>
+      <c r="Q95" s="399"/>
+      <c r="R95" s="399"/>
+      <c r="S95" s="399"/>
+      <c r="T95" s="397"/>
+      <c r="U95" s="397"/>
+      <c r="V95" s="397"/>
+      <c r="W95" s="398"/>
+      <c r="X95" s="398"/>
+      <c r="Y95" s="397"/>
+      <c r="Z95" s="397"/>
+      <c r="AA95" s="397"/>
+      <c r="AB95" s="397"/>
+      <c r="AC95" s="397"/>
+      <c r="AD95" s="397"/>
+      <c r="AE95" s="397"/>
+      <c r="AF95" s="397"/>
+      <c r="AG95" s="397"/>
+      <c r="AH95" s="397"/>
+      <c r="AI95" s="397"/>
+      <c r="AJ95" s="397"/>
+      <c r="AK95" s="397"/>
+      <c r="AL95" s="397"/>
+      <c r="AM95" s="397"/>
+      <c r="AN95" s="397"/>
+      <c r="AO95" s="397"/>
+      <c r="AP95" s="397"/>
+      <c r="AQ95" s="397"/>
+      <c r="AR95" s="397"/>
+      <c r="AS95" s="397"/>
+      <c r="AT95" s="397"/>
+      <c r="AU95" s="397"/>
       <c r="AV95" s="42"/>
       <c r="AW95" s="266"/>
     </row>
@@ -21452,50 +21459,50 @@
         <v>39</v>
       </c>
       <c r="C96" s="42"/>
-      <c r="D96" s="394"/>
-      <c r="E96" s="397"/>
-      <c r="F96" s="399"/>
-      <c r="G96" s="399"/>
-      <c r="H96" s="399"/>
+      <c r="D96" s="397"/>
+      <c r="E96" s="400"/>
+      <c r="F96" s="402"/>
+      <c r="G96" s="402"/>
+      <c r="H96" s="402"/>
       <c r="I96" s="135"/>
       <c r="J96" s="135"/>
-      <c r="K96" s="396"/>
-      <c r="L96" s="396"/>
-      <c r="M96" s="396"/>
-      <c r="N96" s="396"/>
-      <c r="O96" s="396"/>
-      <c r="P96" s="396"/>
-      <c r="Q96" s="396"/>
-      <c r="R96" s="396"/>
-      <c r="S96" s="396"/>
-      <c r="T96" s="394"/>
-      <c r="U96" s="394"/>
-      <c r="V96" s="394"/>
-      <c r="W96" s="395"/>
-      <c r="X96" s="395"/>
-      <c r="Y96" s="394"/>
-      <c r="Z96" s="394"/>
-      <c r="AA96" s="394"/>
-      <c r="AB96" s="394"/>
-      <c r="AC96" s="394"/>
-      <c r="AD96" s="394"/>
-      <c r="AE96" s="394"/>
-      <c r="AF96" s="394"/>
-      <c r="AG96" s="394"/>
-      <c r="AH96" s="394"/>
-      <c r="AI96" s="394"/>
-      <c r="AJ96" s="394"/>
-      <c r="AK96" s="394"/>
-      <c r="AL96" s="394"/>
-      <c r="AM96" s="394"/>
-      <c r="AN96" s="394"/>
-      <c r="AO96" s="394"/>
-      <c r="AP96" s="394"/>
-      <c r="AQ96" s="394"/>
-      <c r="AR96" s="394"/>
-      <c r="AS96" s="394"/>
-      <c r="AT96" s="394"/>
-      <c r="AU96" s="394"/>
+      <c r="K96" s="399"/>
+      <c r="L96" s="399"/>
+      <c r="M96" s="399"/>
+      <c r="N96" s="399"/>
+      <c r="O96" s="399"/>
+      <c r="P96" s="399"/>
+      <c r="Q96" s="399"/>
+      <c r="R96" s="399"/>
+      <c r="S96" s="399"/>
+      <c r="T96" s="397"/>
+      <c r="U96" s="397"/>
+      <c r="V96" s="397"/>
+      <c r="W96" s="398"/>
+      <c r="X96" s="398"/>
+      <c r="Y96" s="397"/>
+      <c r="Z96" s="397"/>
+      <c r="AA96" s="397"/>
+      <c r="AB96" s="397"/>
+      <c r="AC96" s="397"/>
+      <c r="AD96" s="397"/>
+      <c r="AE96" s="397"/>
+      <c r="AF96" s="397"/>
+      <c r="AG96" s="397"/>
+      <c r="AH96" s="397"/>
+      <c r="AI96" s="397"/>
+      <c r="AJ96" s="397"/>
+      <c r="AK96" s="397"/>
+      <c r="AL96" s="397"/>
+      <c r="AM96" s="397"/>
+      <c r="AN96" s="397"/>
+      <c r="AO96" s="397"/>
+      <c r="AP96" s="397"/>
+      <c r="AQ96" s="397"/>
+      <c r="AR96" s="397"/>
+      <c r="AS96" s="397"/>
+      <c r="AT96" s="397"/>
+      <c r="AU96" s="397"/>
       <c r="AV96" s="42"/>
       <c r="AW96" s="266"/>
     </row>
@@ -21505,14 +21512,14 @@
       <c r="C97" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="394"/>
-      <c r="E97" s="397"/>
-      <c r="F97" s="399"/>
-      <c r="G97" s="399"/>
-      <c r="H97" s="399"/>
-      <c r="I97" s="397"/>
-      <c r="J97" s="397"/>
-      <c r="K97" s="396"/>
+      <c r="D97" s="397"/>
+      <c r="E97" s="400"/>
+      <c r="F97" s="402"/>
+      <c r="G97" s="402"/>
+      <c r="H97" s="402"/>
+      <c r="I97" s="400"/>
+      <c r="J97" s="400"/>
+      <c r="K97" s="399"/>
       <c r="L97" s="42"/>
       <c r="M97" s="42"/>
       <c r="N97" s="42"/>
@@ -21521,48 +21528,48 @@
       <c r="Q97" s="42"/>
       <c r="R97" s="42"/>
       <c r="S97" s="42"/>
-      <c r="T97" s="398"/>
-      <c r="U97" s="398"/>
-      <c r="V97" s="398"/>
-      <c r="W97" s="398"/>
-      <c r="X97" s="398"/>
-      <c r="Y97" s="398"/>
-      <c r="Z97" s="398"/>
-      <c r="AA97" s="398"/>
-      <c r="AB97" s="398"/>
-      <c r="AC97" s="398"/>
-      <c r="AD97" s="398"/>
-      <c r="AE97" s="398"/>
-      <c r="AF97" s="398"/>
-      <c r="AG97" s="398"/>
-      <c r="AH97" s="398"/>
-      <c r="AI97" s="398"/>
-      <c r="AJ97" s="398"/>
-      <c r="AK97" s="398"/>
-      <c r="AL97" s="398"/>
-      <c r="AM97" s="398"/>
-      <c r="AN97" s="398"/>
-      <c r="AO97" s="398"/>
-      <c r="AP97" s="398"/>
-      <c r="AQ97" s="398"/>
-      <c r="AR97" s="398"/>
-      <c r="AS97" s="398"/>
-      <c r="AT97" s="398"/>
-      <c r="AU97" s="398"/>
-      <c r="AV97" s="398"/>
+      <c r="T97" s="401"/>
+      <c r="U97" s="401"/>
+      <c r="V97" s="401"/>
+      <c r="W97" s="401"/>
+      <c r="X97" s="401"/>
+      <c r="Y97" s="401"/>
+      <c r="Z97" s="401"/>
+      <c r="AA97" s="401"/>
+      <c r="AB97" s="401"/>
+      <c r="AC97" s="401"/>
+      <c r="AD97" s="401"/>
+      <c r="AE97" s="401"/>
+      <c r="AF97" s="401"/>
+      <c r="AG97" s="401"/>
+      <c r="AH97" s="401"/>
+      <c r="AI97" s="401"/>
+      <c r="AJ97" s="401"/>
+      <c r="AK97" s="401"/>
+      <c r="AL97" s="401"/>
+      <c r="AM97" s="401"/>
+      <c r="AN97" s="401"/>
+      <c r="AO97" s="401"/>
+      <c r="AP97" s="401"/>
+      <c r="AQ97" s="401"/>
+      <c r="AR97" s="401"/>
+      <c r="AS97" s="401"/>
+      <c r="AT97" s="401"/>
+      <c r="AU97" s="401"/>
+      <c r="AV97" s="401"/>
       <c r="AW97" s="266"/>
     </row>
     <row r="98" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A98" s="79"/>
       <c r="B98" s="194"/>
       <c r="C98" s="42"/>
-      <c r="D98" s="394"/>
-      <c r="E98" s="399"/>
-      <c r="F98" s="399"/>
-      <c r="G98" s="399"/>
-      <c r="H98" s="399"/>
-      <c r="I98" s="395"/>
-      <c r="J98" s="395"/>
+      <c r="D98" s="397"/>
+      <c r="E98" s="402"/>
+      <c r="F98" s="402"/>
+      <c r="G98" s="402"/>
+      <c r="H98" s="402"/>
+      <c r="I98" s="398"/>
+      <c r="J98" s="398"/>
       <c r="K98" s="42"/>
       <c r="L98" s="135"/>
       <c r="M98" s="135"/>
@@ -21609,17 +21616,17 @@
         <v>40</v>
       </c>
       <c r="C99" s="42"/>
-      <c r="D99" s="394"/>
-      <c r="E99" s="399"/>
-      <c r="F99" s="399"/>
-      <c r="G99" s="399"/>
-      <c r="H99" s="399"/>
-      <c r="I99" s="395"/>
-      <c r="J99" s="395"/>
+      <c r="D99" s="397"/>
+      <c r="E99" s="402"/>
+      <c r="F99" s="402"/>
+      <c r="G99" s="402"/>
+      <c r="H99" s="402"/>
+      <c r="I99" s="398"/>
+      <c r="J99" s="398"/>
       <c r="K99" s="135"/>
-      <c r="L99" s="397"/>
-      <c r="M99" s="397"/>
-      <c r="N99" s="397"/>
+      <c r="L99" s="400"/>
+      <c r="M99" s="400"/>
+      <c r="N99" s="400"/>
       <c r="O99" s="135"/>
       <c r="P99" s="135"/>
       <c r="Q99" s="135"/>
@@ -21634,28 +21641,28 @@
       <c r="Z99" s="135"/>
       <c r="AA99" s="135"/>
       <c r="AB99" s="135"/>
-      <c r="AC99" s="397"/>
-      <c r="AD99" s="397"/>
-      <c r="AE99" s="397"/>
+      <c r="AC99" s="400"/>
+      <c r="AD99" s="400"/>
+      <c r="AE99" s="400"/>
       <c r="AF99" s="135"/>
       <c r="AG99" s="135"/>
       <c r="AH99" s="135"/>
-      <c r="AI99" s="398"/>
-      <c r="AJ99" s="398"/>
-      <c r="AK99" s="398"/>
-      <c r="AL99" s="398"/>
-      <c r="AM99" s="398"/>
-      <c r="AN99" s="398"/>
-      <c r="AO99" s="398"/>
-      <c r="AP99" s="398"/>
-      <c r="AQ99" s="398"/>
-      <c r="AR99" s="398"/>
-      <c r="AS99" s="398"/>
-      <c r="AT99" s="398"/>
-      <c r="AU99" s="398"/>
-      <c r="AV99" s="398"/>
+      <c r="AI99" s="401"/>
+      <c r="AJ99" s="401"/>
+      <c r="AK99" s="401"/>
+      <c r="AL99" s="401"/>
+      <c r="AM99" s="401"/>
+      <c r="AN99" s="401"/>
+      <c r="AO99" s="401"/>
+      <c r="AP99" s="401"/>
+      <c r="AQ99" s="401"/>
+      <c r="AR99" s="401"/>
+      <c r="AS99" s="401"/>
+      <c r="AT99" s="401"/>
+      <c r="AU99" s="401"/>
+      <c r="AV99" s="401"/>
       <c r="AW99" s="266"/>
-      <c r="AX99" s="409"/>
+      <c r="AX99" s="412"/>
     </row>
     <row r="100" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A100" s="79"/>
@@ -21663,261 +21670,261 @@
       <c r="C100" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="394"/>
+      <c r="D100" s="397"/>
       <c r="E100" s="42"/>
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
       <c r="H100" s="42"/>
-      <c r="I100" s="395"/>
-      <c r="J100" s="395"/>
-      <c r="K100" s="397"/>
-      <c r="L100" s="395"/>
-      <c r="M100" s="395"/>
-      <c r="N100" s="395"/>
-      <c r="O100" s="395"/>
-      <c r="P100" s="395"/>
-      <c r="Q100" s="395"/>
-      <c r="R100" s="394"/>
-      <c r="S100" s="394"/>
-      <c r="T100" s="394"/>
-      <c r="U100" s="394"/>
-      <c r="V100" s="394"/>
-      <c r="W100" s="395"/>
-      <c r="X100" s="395"/>
-      <c r="Y100" s="394"/>
-      <c r="Z100" s="394"/>
-      <c r="AA100" s="394"/>
-      <c r="AB100" s="394"/>
-      <c r="AC100" s="394"/>
-      <c r="AD100" s="394"/>
-      <c r="AE100" s="394"/>
-      <c r="AF100" s="394"/>
-      <c r="AG100" s="394"/>
-      <c r="AH100" s="394"/>
-      <c r="AI100" s="394"/>
-      <c r="AJ100" s="394"/>
-      <c r="AK100" s="394"/>
-      <c r="AL100" s="394"/>
-      <c r="AM100" s="394"/>
-      <c r="AN100" s="394"/>
-      <c r="AO100" s="394"/>
-      <c r="AP100" s="394"/>
-      <c r="AQ100" s="394"/>
-      <c r="AR100" s="394"/>
-      <c r="AS100" s="394"/>
-      <c r="AT100" s="394"/>
-      <c r="AU100" s="394"/>
+      <c r="I100" s="398"/>
+      <c r="J100" s="398"/>
+      <c r="K100" s="400"/>
+      <c r="L100" s="398"/>
+      <c r="M100" s="398"/>
+      <c r="N100" s="398"/>
+      <c r="O100" s="398"/>
+      <c r="P100" s="398"/>
+      <c r="Q100" s="398"/>
+      <c r="R100" s="397"/>
+      <c r="S100" s="397"/>
+      <c r="T100" s="397"/>
+      <c r="U100" s="397"/>
+      <c r="V100" s="397"/>
+      <c r="W100" s="398"/>
+      <c r="X100" s="398"/>
+      <c r="Y100" s="397"/>
+      <c r="Z100" s="397"/>
+      <c r="AA100" s="397"/>
+      <c r="AB100" s="397"/>
+      <c r="AC100" s="397"/>
+      <c r="AD100" s="397"/>
+      <c r="AE100" s="397"/>
+      <c r="AF100" s="397"/>
+      <c r="AG100" s="397"/>
+      <c r="AH100" s="397"/>
+      <c r="AI100" s="397"/>
+      <c r="AJ100" s="397"/>
+      <c r="AK100" s="397"/>
+      <c r="AL100" s="397"/>
+      <c r="AM100" s="397"/>
+      <c r="AN100" s="397"/>
+      <c r="AO100" s="397"/>
+      <c r="AP100" s="397"/>
+      <c r="AQ100" s="397"/>
+      <c r="AR100" s="397"/>
+      <c r="AS100" s="397"/>
+      <c r="AT100" s="397"/>
+      <c r="AU100" s="397"/>
       <c r="AV100" s="135"/>
       <c r="AW100" s="266"/>
-      <c r="AX100" s="408"/>
+      <c r="AX100" s="411"/>
     </row>
     <row r="101" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A101" s="79"/>
       <c r="B101" s="194"/>
       <c r="C101" s="42"/>
-      <c r="D101" s="394"/>
-      <c r="E101" s="394"/>
-      <c r="F101" s="394"/>
-      <c r="G101" s="395"/>
-      <c r="H101" s="395"/>
-      <c r="I101" s="395"/>
-      <c r="J101" s="395"/>
-      <c r="K101" s="395"/>
-      <c r="L101" s="395"/>
-      <c r="M101" s="395"/>
-      <c r="N101" s="395"/>
-      <c r="O101" s="395"/>
-      <c r="P101" s="395"/>
-      <c r="Q101" s="395"/>
-      <c r="R101" s="394"/>
-      <c r="S101" s="394"/>
-      <c r="T101" s="394"/>
-      <c r="U101" s="394"/>
-      <c r="V101" s="394"/>
-      <c r="W101" s="395"/>
-      <c r="X101" s="395"/>
-      <c r="Y101" s="394"/>
-      <c r="Z101" s="394"/>
-      <c r="AA101" s="394"/>
-      <c r="AB101" s="394"/>
-      <c r="AC101" s="394"/>
-      <c r="AD101" s="394"/>
-      <c r="AE101" s="394"/>
-      <c r="AF101" s="394"/>
-      <c r="AG101" s="394"/>
-      <c r="AH101" s="394"/>
-      <c r="AI101" s="394"/>
-      <c r="AJ101" s="394"/>
-      <c r="AK101" s="394"/>
-      <c r="AL101" s="394"/>
-      <c r="AM101" s="394"/>
-      <c r="AN101" s="394"/>
-      <c r="AO101" s="394"/>
-      <c r="AP101" s="394"/>
-      <c r="AQ101" s="394"/>
-      <c r="AR101" s="394"/>
-      <c r="AS101" s="394"/>
-      <c r="AT101" s="394"/>
-      <c r="AU101" s="394"/>
+      <c r="D101" s="397"/>
+      <c r="E101" s="397"/>
+      <c r="F101" s="397"/>
+      <c r="G101" s="398"/>
+      <c r="H101" s="398"/>
+      <c r="I101" s="398"/>
+      <c r="J101" s="398"/>
+      <c r="K101" s="398"/>
+      <c r="L101" s="398"/>
+      <c r="M101" s="398"/>
+      <c r="N101" s="398"/>
+      <c r="O101" s="398"/>
+      <c r="P101" s="398"/>
+      <c r="Q101" s="398"/>
+      <c r="R101" s="397"/>
+      <c r="S101" s="397"/>
+      <c r="T101" s="397"/>
+      <c r="U101" s="397"/>
+      <c r="V101" s="397"/>
+      <c r="W101" s="398"/>
+      <c r="X101" s="398"/>
+      <c r="Y101" s="397"/>
+      <c r="Z101" s="397"/>
+      <c r="AA101" s="397"/>
+      <c r="AB101" s="397"/>
+      <c r="AC101" s="397"/>
+      <c r="AD101" s="397"/>
+      <c r="AE101" s="397"/>
+      <c r="AF101" s="397"/>
+      <c r="AG101" s="397"/>
+      <c r="AH101" s="397"/>
+      <c r="AI101" s="397"/>
+      <c r="AJ101" s="397"/>
+      <c r="AK101" s="397"/>
+      <c r="AL101" s="397"/>
+      <c r="AM101" s="397"/>
+      <c r="AN101" s="397"/>
+      <c r="AO101" s="397"/>
+      <c r="AP101" s="397"/>
+      <c r="AQ101" s="397"/>
+      <c r="AR101" s="397"/>
+      <c r="AS101" s="397"/>
+      <c r="AT101" s="397"/>
+      <c r="AU101" s="397"/>
       <c r="AV101" s="135"/>
       <c r="AW101" s="266"/>
-      <c r="AX101" s="408"/>
+      <c r="AX101" s="411"/>
     </row>
     <row r="102" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A102" s="79"/>
       <c r="B102" s="194"/>
       <c r="C102" s="42"/>
-      <c r="D102" s="394"/>
-      <c r="E102" s="394"/>
-      <c r="F102" s="394"/>
-      <c r="G102" s="395"/>
-      <c r="H102" s="395"/>
-      <c r="I102" s="395"/>
-      <c r="J102" s="395"/>
-      <c r="K102" s="395"/>
-      <c r="L102" s="395"/>
-      <c r="M102" s="395"/>
-      <c r="N102" s="395"/>
-      <c r="O102" s="395"/>
-      <c r="P102" s="395"/>
-      <c r="Q102" s="395"/>
-      <c r="R102" s="394"/>
-      <c r="S102" s="394"/>
-      <c r="T102" s="394"/>
-      <c r="U102" s="394"/>
-      <c r="V102" s="394"/>
-      <c r="W102" s="395"/>
-      <c r="X102" s="395"/>
-      <c r="Y102" s="394"/>
-      <c r="Z102" s="394"/>
-      <c r="AA102" s="394"/>
-      <c r="AB102" s="394"/>
-      <c r="AC102" s="394"/>
-      <c r="AD102" s="394"/>
-      <c r="AE102" s="394"/>
-      <c r="AF102" s="394"/>
-      <c r="AG102" s="394"/>
-      <c r="AH102" s="394"/>
-      <c r="AI102" s="394"/>
-      <c r="AJ102" s="394"/>
-      <c r="AK102" s="394"/>
-      <c r="AL102" s="394"/>
-      <c r="AM102" s="394"/>
-      <c r="AN102" s="394"/>
-      <c r="AO102" s="394"/>
-      <c r="AP102" s="394"/>
-      <c r="AQ102" s="394"/>
-      <c r="AR102" s="394"/>
-      <c r="AS102" s="394"/>
-      <c r="AT102" s="394"/>
-      <c r="AU102" s="394"/>
+      <c r="D102" s="397"/>
+      <c r="E102" s="397"/>
+      <c r="F102" s="397"/>
+      <c r="G102" s="398"/>
+      <c r="H102" s="398"/>
+      <c r="I102" s="398"/>
+      <c r="J102" s="398"/>
+      <c r="K102" s="398"/>
+      <c r="L102" s="398"/>
+      <c r="M102" s="398"/>
+      <c r="N102" s="398"/>
+      <c r="O102" s="398"/>
+      <c r="P102" s="398"/>
+      <c r="Q102" s="398"/>
+      <c r="R102" s="397"/>
+      <c r="S102" s="397"/>
+      <c r="T102" s="397"/>
+      <c r="U102" s="397"/>
+      <c r="V102" s="397"/>
+      <c r="W102" s="398"/>
+      <c r="X102" s="398"/>
+      <c r="Y102" s="397"/>
+      <c r="Z102" s="397"/>
+      <c r="AA102" s="397"/>
+      <c r="AB102" s="397"/>
+      <c r="AC102" s="397"/>
+      <c r="AD102" s="397"/>
+      <c r="AE102" s="397"/>
+      <c r="AF102" s="397"/>
+      <c r="AG102" s="397"/>
+      <c r="AH102" s="397"/>
+      <c r="AI102" s="397"/>
+      <c r="AJ102" s="397"/>
+      <c r="AK102" s="397"/>
+      <c r="AL102" s="397"/>
+      <c r="AM102" s="397"/>
+      <c r="AN102" s="397"/>
+      <c r="AO102" s="397"/>
+      <c r="AP102" s="397"/>
+      <c r="AQ102" s="397"/>
+      <c r="AR102" s="397"/>
+      <c r="AS102" s="397"/>
+      <c r="AT102" s="397"/>
+      <c r="AU102" s="397"/>
       <c r="AV102" s="135"/>
       <c r="AW102" s="266"/>
-      <c r="AX102" s="408"/>
+      <c r="AX102" s="411"/>
     </row>
     <row r="103" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A103" s="79"/>
       <c r="B103" s="194"/>
       <c r="C103" s="42"/>
-      <c r="D103" s="394"/>
-      <c r="E103" s="394"/>
-      <c r="F103" s="394"/>
-      <c r="G103" s="395"/>
-      <c r="H103" s="395"/>
-      <c r="I103" s="395"/>
-      <c r="J103" s="395"/>
-      <c r="K103" s="395"/>
-      <c r="L103" s="395"/>
-      <c r="M103" s="395"/>
-      <c r="N103" s="395"/>
-      <c r="O103" s="395"/>
-      <c r="P103" s="395"/>
-      <c r="Q103" s="395"/>
-      <c r="R103" s="394"/>
-      <c r="S103" s="394"/>
-      <c r="T103" s="394"/>
-      <c r="U103" s="394"/>
-      <c r="V103" s="394"/>
-      <c r="W103" s="395"/>
-      <c r="X103" s="395"/>
-      <c r="Y103" s="394"/>
-      <c r="Z103" s="394"/>
-      <c r="AA103" s="394"/>
-      <c r="AB103" s="394"/>
-      <c r="AC103" s="394"/>
-      <c r="AD103" s="394"/>
-      <c r="AE103" s="394"/>
-      <c r="AF103" s="394"/>
-      <c r="AG103" s="394"/>
-      <c r="AH103" s="394"/>
-      <c r="AI103" s="394"/>
-      <c r="AJ103" s="394"/>
-      <c r="AK103" s="394"/>
-      <c r="AL103" s="394"/>
-      <c r="AM103" s="394"/>
-      <c r="AN103" s="394"/>
-      <c r="AO103" s="394"/>
-      <c r="AP103" s="394"/>
-      <c r="AQ103" s="394"/>
-      <c r="AR103" s="394"/>
-      <c r="AS103" s="394"/>
-      <c r="AT103" s="394"/>
-      <c r="AU103" s="394"/>
+      <c r="D103" s="397"/>
+      <c r="E103" s="397"/>
+      <c r="F103" s="397"/>
+      <c r="G103" s="398"/>
+      <c r="H103" s="398"/>
+      <c r="I103" s="398"/>
+      <c r="J103" s="398"/>
+      <c r="K103" s="398"/>
+      <c r="L103" s="398"/>
+      <c r="M103" s="398"/>
+      <c r="N103" s="398"/>
+      <c r="O103" s="398"/>
+      <c r="P103" s="398"/>
+      <c r="Q103" s="398"/>
+      <c r="R103" s="397"/>
+      <c r="S103" s="397"/>
+      <c r="T103" s="397"/>
+      <c r="U103" s="397"/>
+      <c r="V103" s="397"/>
+      <c r="W103" s="398"/>
+      <c r="X103" s="398"/>
+      <c r="Y103" s="397"/>
+      <c r="Z103" s="397"/>
+      <c r="AA103" s="397"/>
+      <c r="AB103" s="397"/>
+      <c r="AC103" s="397"/>
+      <c r="AD103" s="397"/>
+      <c r="AE103" s="397"/>
+      <c r="AF103" s="397"/>
+      <c r="AG103" s="397"/>
+      <c r="AH103" s="397"/>
+      <c r="AI103" s="397"/>
+      <c r="AJ103" s="397"/>
+      <c r="AK103" s="397"/>
+      <c r="AL103" s="397"/>
+      <c r="AM103" s="397"/>
+      <c r="AN103" s="397"/>
+      <c r="AO103" s="397"/>
+      <c r="AP103" s="397"/>
+      <c r="AQ103" s="397"/>
+      <c r="AR103" s="397"/>
+      <c r="AS103" s="397"/>
+      <c r="AT103" s="397"/>
+      <c r="AU103" s="397"/>
       <c r="AV103" s="135"/>
       <c r="AW103" s="266"/>
-      <c r="AX103" s="408"/>
+      <c r="AX103" s="411"/>
     </row>
     <row r="104" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A104" s="79"/>
       <c r="B104" s="194"/>
       <c r="C104" s="42"/>
-      <c r="D104" s="394"/>
-      <c r="E104" s="394"/>
-      <c r="F104" s="394"/>
-      <c r="G104" s="395"/>
-      <c r="H104" s="395"/>
-      <c r="I104" s="395"/>
-      <c r="J104" s="395"/>
-      <c r="K104" s="395"/>
-      <c r="L104" s="395"/>
-      <c r="M104" s="395"/>
-      <c r="N104" s="395"/>
-      <c r="O104" s="395"/>
-      <c r="P104" s="395"/>
-      <c r="Q104" s="395"/>
-      <c r="R104" s="394"/>
-      <c r="S104" s="394"/>
-      <c r="T104" s="394"/>
-      <c r="U104" s="394"/>
-      <c r="V104" s="394"/>
-      <c r="W104" s="395"/>
-      <c r="X104" s="395"/>
-      <c r="Y104" s="394"/>
-      <c r="Z104" s="394"/>
-      <c r="AA104" s="394"/>
-      <c r="AB104" s="394"/>
-      <c r="AC104" s="394"/>
-      <c r="AD104" s="394"/>
-      <c r="AE104" s="394"/>
-      <c r="AF104" s="394"/>
-      <c r="AG104" s="394"/>
-      <c r="AH104" s="394"/>
-      <c r="AI104" s="394"/>
-      <c r="AJ104" s="394"/>
-      <c r="AK104" s="394"/>
-      <c r="AL104" s="394"/>
-      <c r="AM104" s="394"/>
-      <c r="AN104" s="394"/>
-      <c r="AO104" s="394"/>
-      <c r="AP104" s="394"/>
-      <c r="AQ104" s="394"/>
-      <c r="AR104" s="394"/>
-      <c r="AS104" s="394"/>
-      <c r="AT104" s="394"/>
-      <c r="AU104" s="394"/>
+      <c r="D104" s="397"/>
+      <c r="E104" s="397"/>
+      <c r="F104" s="397"/>
+      <c r="G104" s="398"/>
+      <c r="H104" s="398"/>
+      <c r="I104" s="398"/>
+      <c r="J104" s="398"/>
+      <c r="K104" s="398"/>
+      <c r="L104" s="398"/>
+      <c r="M104" s="398"/>
+      <c r="N104" s="398"/>
+      <c r="O104" s="398"/>
+      <c r="P104" s="398"/>
+      <c r="Q104" s="398"/>
+      <c r="R104" s="397"/>
+      <c r="S104" s="397"/>
+      <c r="T104" s="397"/>
+      <c r="U104" s="397"/>
+      <c r="V104" s="397"/>
+      <c r="W104" s="398"/>
+      <c r="X104" s="398"/>
+      <c r="Y104" s="397"/>
+      <c r="Z104" s="397"/>
+      <c r="AA104" s="397"/>
+      <c r="AB104" s="397"/>
+      <c r="AC104" s="397"/>
+      <c r="AD104" s="397"/>
+      <c r="AE104" s="397"/>
+      <c r="AF104" s="397"/>
+      <c r="AG104" s="397"/>
+      <c r="AH104" s="397"/>
+      <c r="AI104" s="397"/>
+      <c r="AJ104" s="397"/>
+      <c r="AK104" s="397"/>
+      <c r="AL104" s="397"/>
+      <c r="AM104" s="397"/>
+      <c r="AN104" s="397"/>
+      <c r="AO104" s="397"/>
+      <c r="AP104" s="397"/>
+      <c r="AQ104" s="397"/>
+      <c r="AR104" s="397"/>
+      <c r="AS104" s="397"/>
+      <c r="AT104" s="397"/>
+      <c r="AU104" s="397"/>
       <c r="AV104" s="135"/>
       <c r="AW104" s="266"/>
-      <c r="AX104" s="408"/>
+      <c r="AX104" s="411"/>
     </row>
     <row r="105" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A105" s="79"/>
@@ -21930,46 +21937,46 @@
       <c r="H105" s="183"/>
       <c r="I105" s="183"/>
       <c r="J105" s="183"/>
-      <c r="K105" s="395"/>
-      <c r="L105" s="395"/>
-      <c r="M105" s="395"/>
-      <c r="N105" s="395"/>
-      <c r="O105" s="395"/>
-      <c r="P105" s="395"/>
-      <c r="Q105" s="395"/>
-      <c r="R105" s="394"/>
-      <c r="S105" s="394"/>
-      <c r="T105" s="394"/>
-      <c r="U105" s="394"/>
-      <c r="V105" s="394"/>
-      <c r="W105" s="395"/>
-      <c r="X105" s="395"/>
-      <c r="Y105" s="394"/>
-      <c r="Z105" s="394"/>
-      <c r="AA105" s="394"/>
-      <c r="AB105" s="394"/>
-      <c r="AC105" s="394"/>
-      <c r="AD105" s="394"/>
-      <c r="AE105" s="394"/>
-      <c r="AF105" s="394"/>
-      <c r="AG105" s="394"/>
-      <c r="AH105" s="394"/>
-      <c r="AI105" s="394"/>
-      <c r="AJ105" s="394"/>
-      <c r="AK105" s="394"/>
-      <c r="AL105" s="394"/>
-      <c r="AM105" s="394"/>
-      <c r="AN105" s="394"/>
-      <c r="AO105" s="394"/>
-      <c r="AP105" s="394"/>
-      <c r="AQ105" s="394"/>
-      <c r="AR105" s="394"/>
-      <c r="AS105" s="394"/>
-      <c r="AT105" s="394"/>
-      <c r="AU105" s="394"/>
+      <c r="K105" s="398"/>
+      <c r="L105" s="398"/>
+      <c r="M105" s="398"/>
+      <c r="N105" s="398"/>
+      <c r="O105" s="398"/>
+      <c r="P105" s="398"/>
+      <c r="Q105" s="398"/>
+      <c r="R105" s="397"/>
+      <c r="S105" s="397"/>
+      <c r="T105" s="397"/>
+      <c r="U105" s="397"/>
+      <c r="V105" s="397"/>
+      <c r="W105" s="398"/>
+      <c r="X105" s="398"/>
+      <c r="Y105" s="397"/>
+      <c r="Z105" s="397"/>
+      <c r="AA105" s="397"/>
+      <c r="AB105" s="397"/>
+      <c r="AC105" s="397"/>
+      <c r="AD105" s="397"/>
+      <c r="AE105" s="397"/>
+      <c r="AF105" s="397"/>
+      <c r="AG105" s="397"/>
+      <c r="AH105" s="397"/>
+      <c r="AI105" s="397"/>
+      <c r="AJ105" s="397"/>
+      <c r="AK105" s="397"/>
+      <c r="AL105" s="397"/>
+      <c r="AM105" s="397"/>
+      <c r="AN105" s="397"/>
+      <c r="AO105" s="397"/>
+      <c r="AP105" s="397"/>
+      <c r="AQ105" s="397"/>
+      <c r="AR105" s="397"/>
+      <c r="AS105" s="397"/>
+      <c r="AT105" s="397"/>
+      <c r="AU105" s="397"/>
       <c r="AV105" s="135"/>
       <c r="AW105" s="266"/>
-      <c r="AX105" s="408"/>
+      <c r="AX105" s="411"/>
     </row>
     <row r="106" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A106" s="79"/>
@@ -21982,46 +21989,46 @@
       <c r="H106" s="183"/>
       <c r="I106" s="183"/>
       <c r="J106" s="183"/>
-      <c r="K106" s="395"/>
-      <c r="L106" s="395"/>
-      <c r="M106" s="395"/>
-      <c r="N106" s="395"/>
-      <c r="O106" s="395"/>
-      <c r="P106" s="395"/>
-      <c r="Q106" s="395"/>
-      <c r="R106" s="394"/>
-      <c r="S106" s="394"/>
-      <c r="T106" s="394"/>
-      <c r="U106" s="394"/>
-      <c r="V106" s="394"/>
-      <c r="W106" s="395"/>
-      <c r="X106" s="395"/>
-      <c r="Y106" s="394"/>
-      <c r="Z106" s="394"/>
-      <c r="AA106" s="394"/>
-      <c r="AB106" s="394"/>
-      <c r="AC106" s="394"/>
-      <c r="AD106" s="394"/>
-      <c r="AE106" s="394"/>
-      <c r="AF106" s="394"/>
-      <c r="AG106" s="394"/>
-      <c r="AH106" s="394"/>
-      <c r="AI106" s="394"/>
-      <c r="AJ106" s="394"/>
-      <c r="AK106" s="394"/>
-      <c r="AL106" s="394"/>
-      <c r="AM106" s="394"/>
-      <c r="AN106" s="394"/>
-      <c r="AO106" s="394"/>
-      <c r="AP106" s="394"/>
-      <c r="AQ106" s="394"/>
-      <c r="AR106" s="394"/>
-      <c r="AS106" s="394"/>
-      <c r="AT106" s="394"/>
-      <c r="AU106" s="394"/>
+      <c r="K106" s="398"/>
+      <c r="L106" s="398"/>
+      <c r="M106" s="398"/>
+      <c r="N106" s="398"/>
+      <c r="O106" s="398"/>
+      <c r="P106" s="398"/>
+      <c r="Q106" s="398"/>
+      <c r="R106" s="397"/>
+      <c r="S106" s="397"/>
+      <c r="T106" s="397"/>
+      <c r="U106" s="397"/>
+      <c r="V106" s="397"/>
+      <c r="W106" s="398"/>
+      <c r="X106" s="398"/>
+      <c r="Y106" s="397"/>
+      <c r="Z106" s="397"/>
+      <c r="AA106" s="397"/>
+      <c r="AB106" s="397"/>
+      <c r="AC106" s="397"/>
+      <c r="AD106" s="397"/>
+      <c r="AE106" s="397"/>
+      <c r="AF106" s="397"/>
+      <c r="AG106" s="397"/>
+      <c r="AH106" s="397"/>
+      <c r="AI106" s="397"/>
+      <c r="AJ106" s="397"/>
+      <c r="AK106" s="397"/>
+      <c r="AL106" s="397"/>
+      <c r="AM106" s="397"/>
+      <c r="AN106" s="397"/>
+      <c r="AO106" s="397"/>
+      <c r="AP106" s="397"/>
+      <c r="AQ106" s="397"/>
+      <c r="AR106" s="397"/>
+      <c r="AS106" s="397"/>
+      <c r="AT106" s="397"/>
+      <c r="AU106" s="397"/>
       <c r="AV106" s="135"/>
       <c r="AW106" s="266"/>
-      <c r="AX106" s="408"/>
+      <c r="AX106" s="411"/>
     </row>
     <row r="107" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A107" s="79"/>
@@ -22034,46 +22041,46 @@
       <c r="H107" s="183"/>
       <c r="I107" s="183"/>
       <c r="J107" s="183"/>
-      <c r="K107" s="395"/>
-      <c r="L107" s="395"/>
-      <c r="M107" s="395"/>
-      <c r="N107" s="395"/>
-      <c r="O107" s="395"/>
-      <c r="P107" s="395"/>
-      <c r="Q107" s="395"/>
-      <c r="R107" s="394"/>
-      <c r="S107" s="394"/>
-      <c r="T107" s="394"/>
-      <c r="U107" s="394"/>
-      <c r="V107" s="394"/>
-      <c r="W107" s="395"/>
-      <c r="X107" s="395"/>
-      <c r="Y107" s="394"/>
-      <c r="Z107" s="394"/>
-      <c r="AA107" s="394"/>
-      <c r="AB107" s="394"/>
-      <c r="AC107" s="394"/>
-      <c r="AD107" s="394"/>
-      <c r="AE107" s="394"/>
-      <c r="AF107" s="394"/>
-      <c r="AG107" s="394"/>
-      <c r="AH107" s="394"/>
-      <c r="AI107" s="394"/>
-      <c r="AJ107" s="394"/>
-      <c r="AK107" s="394"/>
-      <c r="AL107" s="394"/>
-      <c r="AM107" s="394"/>
-      <c r="AN107" s="394"/>
-      <c r="AO107" s="394"/>
-      <c r="AP107" s="394"/>
-      <c r="AQ107" s="394"/>
-      <c r="AR107" s="394"/>
-      <c r="AS107" s="394"/>
-      <c r="AT107" s="394"/>
-      <c r="AU107" s="394"/>
+      <c r="K107" s="398"/>
+      <c r="L107" s="398"/>
+      <c r="M107" s="398"/>
+      <c r="N107" s="398"/>
+      <c r="O107" s="398"/>
+      <c r="P107" s="398"/>
+      <c r="Q107" s="398"/>
+      <c r="R107" s="397"/>
+      <c r="S107" s="397"/>
+      <c r="T107" s="397"/>
+      <c r="U107" s="397"/>
+      <c r="V107" s="397"/>
+      <c r="W107" s="398"/>
+      <c r="X107" s="398"/>
+      <c r="Y107" s="397"/>
+      <c r="Z107" s="397"/>
+      <c r="AA107" s="397"/>
+      <c r="AB107" s="397"/>
+      <c r="AC107" s="397"/>
+      <c r="AD107" s="397"/>
+      <c r="AE107" s="397"/>
+      <c r="AF107" s="397"/>
+      <c r="AG107" s="397"/>
+      <c r="AH107" s="397"/>
+      <c r="AI107" s="397"/>
+      <c r="AJ107" s="397"/>
+      <c r="AK107" s="397"/>
+      <c r="AL107" s="397"/>
+      <c r="AM107" s="397"/>
+      <c r="AN107" s="397"/>
+      <c r="AO107" s="397"/>
+      <c r="AP107" s="397"/>
+      <c r="AQ107" s="397"/>
+      <c r="AR107" s="397"/>
+      <c r="AS107" s="397"/>
+      <c r="AT107" s="397"/>
+      <c r="AU107" s="397"/>
       <c r="AV107" s="135"/>
       <c r="AW107" s="266"/>
-      <c r="AX107" s="408"/>
+      <c r="AX107" s="411"/>
     </row>
     <row r="108" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A108" s="79"/>
@@ -22086,46 +22093,46 @@
       <c r="H108" s="183"/>
       <c r="I108" s="183"/>
       <c r="J108" s="183"/>
-      <c r="K108" s="395"/>
-      <c r="L108" s="395"/>
-      <c r="M108" s="395"/>
-      <c r="N108" s="395"/>
-      <c r="O108" s="395"/>
-      <c r="P108" s="395"/>
-      <c r="Q108" s="395"/>
-      <c r="R108" s="394"/>
-      <c r="S108" s="394"/>
-      <c r="T108" s="394"/>
-      <c r="U108" s="394"/>
-      <c r="V108" s="394"/>
-      <c r="W108" s="395"/>
-      <c r="X108" s="395"/>
-      <c r="Y108" s="394"/>
-      <c r="Z108" s="394"/>
-      <c r="AA108" s="394"/>
-      <c r="AB108" s="394"/>
-      <c r="AC108" s="394"/>
-      <c r="AD108" s="394"/>
-      <c r="AE108" s="394"/>
-      <c r="AF108" s="394"/>
-      <c r="AG108" s="394"/>
-      <c r="AH108" s="394"/>
-      <c r="AI108" s="394"/>
-      <c r="AJ108" s="394"/>
-      <c r="AK108" s="394"/>
-      <c r="AL108" s="394"/>
-      <c r="AM108" s="394"/>
-      <c r="AN108" s="394"/>
-      <c r="AO108" s="394"/>
-      <c r="AP108" s="394"/>
-      <c r="AQ108" s="394"/>
-      <c r="AR108" s="394"/>
-      <c r="AS108" s="394"/>
-      <c r="AT108" s="394"/>
-      <c r="AU108" s="394"/>
+      <c r="K108" s="398"/>
+      <c r="L108" s="398"/>
+      <c r="M108" s="398"/>
+      <c r="N108" s="398"/>
+      <c r="O108" s="398"/>
+      <c r="P108" s="398"/>
+      <c r="Q108" s="398"/>
+      <c r="R108" s="397"/>
+      <c r="S108" s="397"/>
+      <c r="T108" s="397"/>
+      <c r="U108" s="397"/>
+      <c r="V108" s="397"/>
+      <c r="W108" s="398"/>
+      <c r="X108" s="398"/>
+      <c r="Y108" s="397"/>
+      <c r="Z108" s="397"/>
+      <c r="AA108" s="397"/>
+      <c r="AB108" s="397"/>
+      <c r="AC108" s="397"/>
+      <c r="AD108" s="397"/>
+      <c r="AE108" s="397"/>
+      <c r="AF108" s="397"/>
+      <c r="AG108" s="397"/>
+      <c r="AH108" s="397"/>
+      <c r="AI108" s="397"/>
+      <c r="AJ108" s="397"/>
+      <c r="AK108" s="397"/>
+      <c r="AL108" s="397"/>
+      <c r="AM108" s="397"/>
+      <c r="AN108" s="397"/>
+      <c r="AO108" s="397"/>
+      <c r="AP108" s="397"/>
+      <c r="AQ108" s="397"/>
+      <c r="AR108" s="397"/>
+      <c r="AS108" s="397"/>
+      <c r="AT108" s="397"/>
+      <c r="AU108" s="397"/>
       <c r="AV108" s="135"/>
       <c r="AW108" s="266"/>
-      <c r="AX108" s="408"/>
+      <c r="AX108" s="411"/>
     </row>
     <row r="109" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A109" s="79"/>
@@ -22138,46 +22145,46 @@
       <c r="H109" s="183"/>
       <c r="I109" s="183"/>
       <c r="J109" s="183"/>
-      <c r="K109" s="395"/>
-      <c r="L109" s="395"/>
-      <c r="M109" s="395"/>
-      <c r="N109" s="395"/>
-      <c r="O109" s="395"/>
-      <c r="P109" s="395"/>
-      <c r="Q109" s="395"/>
-      <c r="R109" s="394"/>
-      <c r="S109" s="394"/>
-      <c r="T109" s="394"/>
-      <c r="U109" s="394"/>
-      <c r="V109" s="394"/>
-      <c r="W109" s="395"/>
-      <c r="X109" s="395"/>
-      <c r="Y109" s="394"/>
-      <c r="Z109" s="394"/>
-      <c r="AA109" s="394"/>
-      <c r="AB109" s="394"/>
-      <c r="AC109" s="394"/>
-      <c r="AD109" s="394"/>
-      <c r="AE109" s="394"/>
-      <c r="AF109" s="394"/>
-      <c r="AG109" s="394"/>
-      <c r="AH109" s="394"/>
-      <c r="AI109" s="394"/>
-      <c r="AJ109" s="394"/>
-      <c r="AK109" s="394"/>
-      <c r="AL109" s="394"/>
-      <c r="AM109" s="394"/>
-      <c r="AN109" s="394"/>
-      <c r="AO109" s="394"/>
-      <c r="AP109" s="394"/>
-      <c r="AQ109" s="394"/>
-      <c r="AR109" s="394"/>
-      <c r="AS109" s="394"/>
-      <c r="AT109" s="394"/>
-      <c r="AU109" s="394"/>
+      <c r="K109" s="398"/>
+      <c r="L109" s="398"/>
+      <c r="M109" s="398"/>
+      <c r="N109" s="398"/>
+      <c r="O109" s="398"/>
+      <c r="P109" s="398"/>
+      <c r="Q109" s="398"/>
+      <c r="R109" s="397"/>
+      <c r="S109" s="397"/>
+      <c r="T109" s="397"/>
+      <c r="U109" s="397"/>
+      <c r="V109" s="397"/>
+      <c r="W109" s="398"/>
+      <c r="X109" s="398"/>
+      <c r="Y109" s="397"/>
+      <c r="Z109" s="397"/>
+      <c r="AA109" s="397"/>
+      <c r="AB109" s="397"/>
+      <c r="AC109" s="397"/>
+      <c r="AD109" s="397"/>
+      <c r="AE109" s="397"/>
+      <c r="AF109" s="397"/>
+      <c r="AG109" s="397"/>
+      <c r="AH109" s="397"/>
+      <c r="AI109" s="397"/>
+      <c r="AJ109" s="397"/>
+      <c r="AK109" s="397"/>
+      <c r="AL109" s="397"/>
+      <c r="AM109" s="397"/>
+      <c r="AN109" s="397"/>
+      <c r="AO109" s="397"/>
+      <c r="AP109" s="397"/>
+      <c r="AQ109" s="397"/>
+      <c r="AR109" s="397"/>
+      <c r="AS109" s="397"/>
+      <c r="AT109" s="397"/>
+      <c r="AU109" s="397"/>
       <c r="AV109" s="135"/>
       <c r="AW109" s="266"/>
-      <c r="AX109" s="408"/>
+      <c r="AX109" s="411"/>
     </row>
     <row r="110" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A110" s="79"/>
@@ -22190,567 +22197,567 @@
       <c r="H110" s="183"/>
       <c r="I110" s="183"/>
       <c r="J110" s="183"/>
-      <c r="K110" s="395"/>
-      <c r="L110" s="395"/>
-      <c r="M110" s="395"/>
-      <c r="N110" s="395"/>
-      <c r="O110" s="395"/>
-      <c r="P110" s="395"/>
-      <c r="Q110" s="395"/>
-      <c r="R110" s="394"/>
-      <c r="S110" s="394"/>
-      <c r="T110" s="394"/>
-      <c r="U110" s="394"/>
-      <c r="V110" s="394"/>
-      <c r="W110" s="395"/>
-      <c r="X110" s="395"/>
-      <c r="Y110" s="394"/>
-      <c r="Z110" s="394"/>
-      <c r="AA110" s="394"/>
-      <c r="AB110" s="394"/>
-      <c r="AC110" s="394"/>
-      <c r="AD110" s="394"/>
-      <c r="AE110" s="394"/>
-      <c r="AF110" s="394"/>
-      <c r="AG110" s="394"/>
-      <c r="AH110" s="394"/>
-      <c r="AI110" s="394"/>
-      <c r="AJ110" s="394"/>
-      <c r="AK110" s="394"/>
-      <c r="AL110" s="394"/>
-      <c r="AM110" s="394"/>
-      <c r="AN110" s="394"/>
-      <c r="AO110" s="394"/>
-      <c r="AP110" s="394"/>
-      <c r="AQ110" s="394"/>
-      <c r="AR110" s="394"/>
-      <c r="AS110" s="394"/>
-      <c r="AT110" s="394"/>
-      <c r="AU110" s="394"/>
+      <c r="K110" s="398"/>
+      <c r="L110" s="398"/>
+      <c r="M110" s="398"/>
+      <c r="N110" s="398"/>
+      <c r="O110" s="398"/>
+      <c r="P110" s="398"/>
+      <c r="Q110" s="398"/>
+      <c r="R110" s="397"/>
+      <c r="S110" s="397"/>
+      <c r="T110" s="397"/>
+      <c r="U110" s="397"/>
+      <c r="V110" s="397"/>
+      <c r="W110" s="398"/>
+      <c r="X110" s="398"/>
+      <c r="Y110" s="397"/>
+      <c r="Z110" s="397"/>
+      <c r="AA110" s="397"/>
+      <c r="AB110" s="397"/>
+      <c r="AC110" s="397"/>
+      <c r="AD110" s="397"/>
+      <c r="AE110" s="397"/>
+      <c r="AF110" s="397"/>
+      <c r="AG110" s="397"/>
+      <c r="AH110" s="397"/>
+      <c r="AI110" s="397"/>
+      <c r="AJ110" s="397"/>
+      <c r="AK110" s="397"/>
+      <c r="AL110" s="397"/>
+      <c r="AM110" s="397"/>
+      <c r="AN110" s="397"/>
+      <c r="AO110" s="397"/>
+      <c r="AP110" s="397"/>
+      <c r="AQ110" s="397"/>
+      <c r="AR110" s="397"/>
+      <c r="AS110" s="397"/>
+      <c r="AT110" s="397"/>
+      <c r="AU110" s="397"/>
       <c r="AV110" s="135"/>
       <c r="AW110" s="266"/>
-      <c r="AX110" s="408"/>
+      <c r="AX110" s="411"/>
     </row>
     <row r="111" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A111" s="79"/>
       <c r="B111" s="194"/>
       <c r="C111" s="42"/>
-      <c r="D111" s="394"/>
-      <c r="E111" s="394"/>
-      <c r="F111" s="394"/>
-      <c r="G111" s="395"/>
-      <c r="H111" s="395"/>
-      <c r="I111" s="395"/>
-      <c r="J111" s="395"/>
-      <c r="K111" s="395"/>
-      <c r="L111" s="395"/>
-      <c r="M111" s="395"/>
-      <c r="N111" s="395"/>
-      <c r="O111" s="395"/>
-      <c r="P111" s="395"/>
-      <c r="Q111" s="395"/>
-      <c r="R111" s="394"/>
-      <c r="S111" s="394"/>
-      <c r="T111" s="394"/>
-      <c r="U111" s="394"/>
-      <c r="V111" s="394"/>
-      <c r="W111" s="395"/>
-      <c r="X111" s="395"/>
-      <c r="Y111" s="394"/>
-      <c r="Z111" s="394"/>
-      <c r="AA111" s="394"/>
-      <c r="AB111" s="394"/>
-      <c r="AC111" s="394"/>
-      <c r="AD111" s="394"/>
-      <c r="AE111" s="394"/>
-      <c r="AF111" s="394"/>
-      <c r="AG111" s="394"/>
-      <c r="AH111" s="394"/>
-      <c r="AI111" s="394"/>
-      <c r="AJ111" s="394"/>
-      <c r="AK111" s="394"/>
-      <c r="AL111" s="394"/>
-      <c r="AM111" s="394"/>
-      <c r="AN111" s="394"/>
-      <c r="AO111" s="394"/>
-      <c r="AP111" s="394"/>
-      <c r="AQ111" s="394"/>
-      <c r="AR111" s="394"/>
-      <c r="AS111" s="394"/>
-      <c r="AT111" s="394"/>
-      <c r="AU111" s="394"/>
+      <c r="D111" s="397"/>
+      <c r="E111" s="397"/>
+      <c r="F111" s="397"/>
+      <c r="G111" s="398"/>
+      <c r="H111" s="398"/>
+      <c r="I111" s="398"/>
+      <c r="J111" s="398"/>
+      <c r="K111" s="398"/>
+      <c r="L111" s="398"/>
+      <c r="M111" s="398"/>
+      <c r="N111" s="398"/>
+      <c r="O111" s="398"/>
+      <c r="P111" s="398"/>
+      <c r="Q111" s="398"/>
+      <c r="R111" s="397"/>
+      <c r="S111" s="397"/>
+      <c r="T111" s="397"/>
+      <c r="U111" s="397"/>
+      <c r="V111" s="397"/>
+      <c r="W111" s="398"/>
+      <c r="X111" s="398"/>
+      <c r="Y111" s="397"/>
+      <c r="Z111" s="397"/>
+      <c r="AA111" s="397"/>
+      <c r="AB111" s="397"/>
+      <c r="AC111" s="397"/>
+      <c r="AD111" s="397"/>
+      <c r="AE111" s="397"/>
+      <c r="AF111" s="397"/>
+      <c r="AG111" s="397"/>
+      <c r="AH111" s="397"/>
+      <c r="AI111" s="397"/>
+      <c r="AJ111" s="397"/>
+      <c r="AK111" s="397"/>
+      <c r="AL111" s="397"/>
+      <c r="AM111" s="397"/>
+      <c r="AN111" s="397"/>
+      <c r="AO111" s="397"/>
+      <c r="AP111" s="397"/>
+      <c r="AQ111" s="397"/>
+      <c r="AR111" s="397"/>
+      <c r="AS111" s="397"/>
+      <c r="AT111" s="397"/>
+      <c r="AU111" s="397"/>
       <c r="AV111" s="135"/>
       <c r="AW111" s="266"/>
-      <c r="AX111" s="408"/>
+      <c r="AX111" s="411"/>
     </row>
     <row r="112" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A112" s="79"/>
       <c r="B112" s="194"/>
       <c r="C112" s="42"/>
-      <c r="D112" s="394"/>
-      <c r="E112" s="394"/>
-      <c r="F112" s="394"/>
-      <c r="G112" s="395"/>
-      <c r="H112" s="395"/>
-      <c r="I112" s="395"/>
-      <c r="J112" s="395"/>
-      <c r="K112" s="395"/>
-      <c r="L112" s="395"/>
-      <c r="M112" s="395"/>
-      <c r="N112" s="395"/>
-      <c r="O112" s="395"/>
-      <c r="P112" s="395"/>
-      <c r="Q112" s="395"/>
-      <c r="R112" s="394"/>
-      <c r="S112" s="394"/>
-      <c r="T112" s="394"/>
-      <c r="U112" s="394"/>
-      <c r="V112" s="394"/>
-      <c r="W112" s="395"/>
-      <c r="X112" s="395"/>
-      <c r="Y112" s="394"/>
-      <c r="Z112" s="394"/>
-      <c r="AA112" s="394"/>
-      <c r="AB112" s="394"/>
-      <c r="AC112" s="394"/>
-      <c r="AD112" s="394"/>
-      <c r="AE112" s="394"/>
-      <c r="AF112" s="394"/>
-      <c r="AG112" s="394"/>
-      <c r="AH112" s="394"/>
-      <c r="AI112" s="394"/>
-      <c r="AJ112" s="394"/>
-      <c r="AK112" s="394"/>
-      <c r="AL112" s="394"/>
-      <c r="AM112" s="394"/>
-      <c r="AN112" s="394"/>
-      <c r="AO112" s="394"/>
-      <c r="AP112" s="394"/>
-      <c r="AQ112" s="394"/>
-      <c r="AR112" s="394"/>
-      <c r="AS112" s="394"/>
-      <c r="AT112" s="394"/>
-      <c r="AU112" s="394"/>
+      <c r="D112" s="397"/>
+      <c r="E112" s="397"/>
+      <c r="F112" s="397"/>
+      <c r="G112" s="398"/>
+      <c r="H112" s="398"/>
+      <c r="I112" s="398"/>
+      <c r="J112" s="398"/>
+      <c r="K112" s="398"/>
+      <c r="L112" s="398"/>
+      <c r="M112" s="398"/>
+      <c r="N112" s="398"/>
+      <c r="O112" s="398"/>
+      <c r="P112" s="398"/>
+      <c r="Q112" s="398"/>
+      <c r="R112" s="397"/>
+      <c r="S112" s="397"/>
+      <c r="T112" s="397"/>
+      <c r="U112" s="397"/>
+      <c r="V112" s="397"/>
+      <c r="W112" s="398"/>
+      <c r="X112" s="398"/>
+      <c r="Y112" s="397"/>
+      <c r="Z112" s="397"/>
+      <c r="AA112" s="397"/>
+      <c r="AB112" s="397"/>
+      <c r="AC112" s="397"/>
+      <c r="AD112" s="397"/>
+      <c r="AE112" s="397"/>
+      <c r="AF112" s="397"/>
+      <c r="AG112" s="397"/>
+      <c r="AH112" s="397"/>
+      <c r="AI112" s="397"/>
+      <c r="AJ112" s="397"/>
+      <c r="AK112" s="397"/>
+      <c r="AL112" s="397"/>
+      <c r="AM112" s="397"/>
+      <c r="AN112" s="397"/>
+      <c r="AO112" s="397"/>
+      <c r="AP112" s="397"/>
+      <c r="AQ112" s="397"/>
+      <c r="AR112" s="397"/>
+      <c r="AS112" s="397"/>
+      <c r="AT112" s="397"/>
+      <c r="AU112" s="397"/>
       <c r="AV112" s="135"/>
       <c r="AW112" s="266"/>
-      <c r="AX112" s="408"/>
+      <c r="AX112" s="411"/>
     </row>
     <row r="113" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A113" s="79"/>
       <c r="B113" s="194"/>
       <c r="C113" s="42"/>
-      <c r="D113" s="394"/>
-      <c r="E113" s="394"/>
-      <c r="F113" s="394"/>
-      <c r="G113" s="395"/>
-      <c r="H113" s="395"/>
-      <c r="I113" s="395"/>
-      <c r="J113" s="395"/>
-      <c r="K113" s="395"/>
-      <c r="L113" s="395"/>
-      <c r="M113" s="395"/>
-      <c r="N113" s="395"/>
-      <c r="O113" s="395"/>
-      <c r="P113" s="395"/>
-      <c r="Q113" s="395"/>
-      <c r="R113" s="394"/>
-      <c r="S113" s="394"/>
-      <c r="T113" s="394"/>
-      <c r="U113" s="394"/>
-      <c r="V113" s="394"/>
-      <c r="W113" s="395"/>
-      <c r="X113" s="395"/>
-      <c r="Y113" s="394"/>
-      <c r="Z113" s="394"/>
-      <c r="AA113" s="394"/>
-      <c r="AB113" s="394"/>
-      <c r="AC113" s="394"/>
-      <c r="AD113" s="394"/>
-      <c r="AE113" s="394"/>
-      <c r="AF113" s="394"/>
-      <c r="AG113" s="394"/>
-      <c r="AH113" s="394"/>
-      <c r="AI113" s="394"/>
-      <c r="AJ113" s="394"/>
-      <c r="AK113" s="394"/>
-      <c r="AL113" s="394"/>
-      <c r="AM113" s="394"/>
-      <c r="AN113" s="394"/>
-      <c r="AO113" s="394"/>
-      <c r="AP113" s="394"/>
-      <c r="AQ113" s="394"/>
-      <c r="AR113" s="394"/>
-      <c r="AS113" s="394"/>
-      <c r="AT113" s="394"/>
-      <c r="AU113" s="394"/>
+      <c r="D113" s="397"/>
+      <c r="E113" s="397"/>
+      <c r="F113" s="397"/>
+      <c r="G113" s="398"/>
+      <c r="H113" s="398"/>
+      <c r="I113" s="398"/>
+      <c r="J113" s="398"/>
+      <c r="K113" s="398"/>
+      <c r="L113" s="398"/>
+      <c r="M113" s="398"/>
+      <c r="N113" s="398"/>
+      <c r="O113" s="398"/>
+      <c r="P113" s="398"/>
+      <c r="Q113" s="398"/>
+      <c r="R113" s="397"/>
+      <c r="S113" s="397"/>
+      <c r="T113" s="397"/>
+      <c r="U113" s="397"/>
+      <c r="V113" s="397"/>
+      <c r="W113" s="398"/>
+      <c r="X113" s="398"/>
+      <c r="Y113" s="397"/>
+      <c r="Z113" s="397"/>
+      <c r="AA113" s="397"/>
+      <c r="AB113" s="397"/>
+      <c r="AC113" s="397"/>
+      <c r="AD113" s="397"/>
+      <c r="AE113" s="397"/>
+      <c r="AF113" s="397"/>
+      <c r="AG113" s="397"/>
+      <c r="AH113" s="397"/>
+      <c r="AI113" s="397"/>
+      <c r="AJ113" s="397"/>
+      <c r="AK113" s="397"/>
+      <c r="AL113" s="397"/>
+      <c r="AM113" s="397"/>
+      <c r="AN113" s="397"/>
+      <c r="AO113" s="397"/>
+      <c r="AP113" s="397"/>
+      <c r="AQ113" s="397"/>
+      <c r="AR113" s="397"/>
+      <c r="AS113" s="397"/>
+      <c r="AT113" s="397"/>
+      <c r="AU113" s="397"/>
       <c r="AV113" s="135"/>
       <c r="AW113" s="266"/>
-      <c r="AX113" s="408"/>
+      <c r="AX113" s="411"/>
     </row>
     <row r="114" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A114" s="79"/>
       <c r="B114" s="194"/>
       <c r="C114" s="42"/>
-      <c r="D114" s="394"/>
-      <c r="E114" s="394"/>
-      <c r="F114" s="394"/>
-      <c r="G114" s="395"/>
-      <c r="H114" s="395"/>
-      <c r="I114" s="395"/>
-      <c r="J114" s="395"/>
-      <c r="K114" s="395"/>
-      <c r="L114" s="395"/>
-      <c r="M114" s="395"/>
-      <c r="N114" s="395"/>
-      <c r="O114" s="395"/>
-      <c r="P114" s="395"/>
-      <c r="Q114" s="395"/>
-      <c r="R114" s="394"/>
-      <c r="S114" s="394"/>
-      <c r="T114" s="394"/>
-      <c r="U114" s="394"/>
-      <c r="V114" s="394"/>
-      <c r="W114" s="395"/>
-      <c r="X114" s="395"/>
-      <c r="Y114" s="394"/>
-      <c r="Z114" s="394"/>
-      <c r="AA114" s="394"/>
-      <c r="AB114" s="394"/>
-      <c r="AC114" s="394"/>
-      <c r="AD114" s="394"/>
-      <c r="AE114" s="394"/>
-      <c r="AF114" s="394"/>
-      <c r="AG114" s="394"/>
-      <c r="AH114" s="394"/>
-      <c r="AI114" s="394"/>
-      <c r="AJ114" s="394"/>
-      <c r="AK114" s="394"/>
-      <c r="AL114" s="394"/>
-      <c r="AM114" s="394"/>
-      <c r="AN114" s="394"/>
-      <c r="AO114" s="394"/>
-      <c r="AP114" s="394"/>
-      <c r="AQ114" s="394"/>
-      <c r="AR114" s="394"/>
-      <c r="AS114" s="394"/>
-      <c r="AT114" s="394"/>
-      <c r="AU114" s="394"/>
+      <c r="D114" s="397"/>
+      <c r="E114" s="397"/>
+      <c r="F114" s="397"/>
+      <c r="G114" s="398"/>
+      <c r="H114" s="398"/>
+      <c r="I114" s="398"/>
+      <c r="J114" s="398"/>
+      <c r="K114" s="398"/>
+      <c r="L114" s="398"/>
+      <c r="M114" s="398"/>
+      <c r="N114" s="398"/>
+      <c r="O114" s="398"/>
+      <c r="P114" s="398"/>
+      <c r="Q114" s="398"/>
+      <c r="R114" s="397"/>
+      <c r="S114" s="397"/>
+      <c r="T114" s="397"/>
+      <c r="U114" s="397"/>
+      <c r="V114" s="397"/>
+      <c r="W114" s="398"/>
+      <c r="X114" s="398"/>
+      <c r="Y114" s="397"/>
+      <c r="Z114" s="397"/>
+      <c r="AA114" s="397"/>
+      <c r="AB114" s="397"/>
+      <c r="AC114" s="397"/>
+      <c r="AD114" s="397"/>
+      <c r="AE114" s="397"/>
+      <c r="AF114" s="397"/>
+      <c r="AG114" s="397"/>
+      <c r="AH114" s="397"/>
+      <c r="AI114" s="397"/>
+      <c r="AJ114" s="397"/>
+      <c r="AK114" s="397"/>
+      <c r="AL114" s="397"/>
+      <c r="AM114" s="397"/>
+      <c r="AN114" s="397"/>
+      <c r="AO114" s="397"/>
+      <c r="AP114" s="397"/>
+      <c r="AQ114" s="397"/>
+      <c r="AR114" s="397"/>
+      <c r="AS114" s="397"/>
+      <c r="AT114" s="397"/>
+      <c r="AU114" s="397"/>
       <c r="AV114" s="135"/>
       <c r="AW114" s="266"/>
-      <c r="AX114" s="408"/>
+      <c r="AX114" s="411"/>
     </row>
     <row r="115" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A115" s="79"/>
       <c r="B115" s="194"/>
       <c r="C115" s="42"/>
-      <c r="D115" s="394"/>
-      <c r="E115" s="394"/>
-      <c r="F115" s="394"/>
-      <c r="G115" s="395"/>
-      <c r="H115" s="395"/>
-      <c r="I115" s="395"/>
-      <c r="J115" s="395"/>
-      <c r="K115" s="395"/>
-      <c r="L115" s="395"/>
-      <c r="M115" s="395"/>
-      <c r="N115" s="395"/>
-      <c r="O115" s="395"/>
-      <c r="P115" s="395"/>
-      <c r="Q115" s="395"/>
-      <c r="R115" s="394"/>
-      <c r="S115" s="394"/>
-      <c r="T115" s="394"/>
-      <c r="U115" s="394"/>
-      <c r="V115" s="394"/>
-      <c r="W115" s="395"/>
-      <c r="X115" s="395"/>
-      <c r="Y115" s="394"/>
-      <c r="Z115" s="394"/>
-      <c r="AA115" s="394"/>
-      <c r="AB115" s="394"/>
-      <c r="AC115" s="394"/>
-      <c r="AD115" s="394"/>
-      <c r="AE115" s="394"/>
-      <c r="AF115" s="394"/>
-      <c r="AG115" s="394"/>
-      <c r="AH115" s="394"/>
-      <c r="AI115" s="394"/>
-      <c r="AJ115" s="394"/>
-      <c r="AK115" s="394"/>
-      <c r="AL115" s="394"/>
-      <c r="AM115" s="394"/>
-      <c r="AN115" s="394"/>
-      <c r="AO115" s="394"/>
-      <c r="AP115" s="394"/>
-      <c r="AQ115" s="394"/>
-      <c r="AR115" s="394"/>
-      <c r="AS115" s="394"/>
-      <c r="AT115" s="394"/>
-      <c r="AU115" s="394"/>
+      <c r="D115" s="397"/>
+      <c r="E115" s="397"/>
+      <c r="F115" s="397"/>
+      <c r="G115" s="398"/>
+      <c r="H115" s="398"/>
+      <c r="I115" s="398"/>
+      <c r="J115" s="398"/>
+      <c r="K115" s="398"/>
+      <c r="L115" s="398"/>
+      <c r="M115" s="398"/>
+      <c r="N115" s="398"/>
+      <c r="O115" s="398"/>
+      <c r="P115" s="398"/>
+      <c r="Q115" s="398"/>
+      <c r="R115" s="397"/>
+      <c r="S115" s="397"/>
+      <c r="T115" s="397"/>
+      <c r="U115" s="397"/>
+      <c r="V115" s="397"/>
+      <c r="W115" s="398"/>
+      <c r="X115" s="398"/>
+      <c r="Y115" s="397"/>
+      <c r="Z115" s="397"/>
+      <c r="AA115" s="397"/>
+      <c r="AB115" s="397"/>
+      <c r="AC115" s="397"/>
+      <c r="AD115" s="397"/>
+      <c r="AE115" s="397"/>
+      <c r="AF115" s="397"/>
+      <c r="AG115" s="397"/>
+      <c r="AH115" s="397"/>
+      <c r="AI115" s="397"/>
+      <c r="AJ115" s="397"/>
+      <c r="AK115" s="397"/>
+      <c r="AL115" s="397"/>
+      <c r="AM115" s="397"/>
+      <c r="AN115" s="397"/>
+      <c r="AO115" s="397"/>
+      <c r="AP115" s="397"/>
+      <c r="AQ115" s="397"/>
+      <c r="AR115" s="397"/>
+      <c r="AS115" s="397"/>
+      <c r="AT115" s="397"/>
+      <c r="AU115" s="397"/>
       <c r="AV115" s="135"/>
       <c r="AW115" s="266"/>
-      <c r="AX115" s="408"/>
+      <c r="AX115" s="411"/>
     </row>
     <row r="116" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A116" s="79"/>
       <c r="B116" s="194"/>
       <c r="C116" s="42"/>
-      <c r="D116" s="394"/>
-      <c r="E116" s="394"/>
-      <c r="F116" s="394"/>
-      <c r="G116" s="395"/>
-      <c r="H116" s="395"/>
-      <c r="I116" s="395"/>
-      <c r="J116" s="395"/>
-      <c r="K116" s="395"/>
-      <c r="L116" s="395"/>
-      <c r="M116" s="395"/>
-      <c r="N116" s="395"/>
-      <c r="O116" s="395"/>
-      <c r="P116" s="395"/>
-      <c r="Q116" s="395"/>
-      <c r="R116" s="394"/>
-      <c r="S116" s="394"/>
-      <c r="T116" s="394"/>
-      <c r="U116" s="394"/>
-      <c r="V116" s="394"/>
-      <c r="W116" s="395"/>
-      <c r="X116" s="395"/>
-      <c r="Y116" s="394"/>
-      <c r="Z116" s="394"/>
-      <c r="AA116" s="394"/>
-      <c r="AB116" s="394"/>
-      <c r="AC116" s="394"/>
-      <c r="AD116" s="394"/>
-      <c r="AE116" s="394"/>
-      <c r="AF116" s="394"/>
-      <c r="AG116" s="394"/>
-      <c r="AH116" s="394"/>
-      <c r="AI116" s="394"/>
-      <c r="AJ116" s="394"/>
-      <c r="AK116" s="394"/>
-      <c r="AL116" s="394"/>
-      <c r="AM116" s="394"/>
-      <c r="AN116" s="394"/>
-      <c r="AO116" s="394"/>
-      <c r="AP116" s="394"/>
-      <c r="AQ116" s="394"/>
-      <c r="AR116" s="394"/>
-      <c r="AS116" s="394"/>
-      <c r="AT116" s="394"/>
-      <c r="AU116" s="394"/>
+      <c r="D116" s="397"/>
+      <c r="E116" s="397"/>
+      <c r="F116" s="397"/>
+      <c r="G116" s="398"/>
+      <c r="H116" s="398"/>
+      <c r="I116" s="398"/>
+      <c r="J116" s="398"/>
+      <c r="K116" s="398"/>
+      <c r="L116" s="398"/>
+      <c r="M116" s="398"/>
+      <c r="N116" s="398"/>
+      <c r="O116" s="398"/>
+      <c r="P116" s="398"/>
+      <c r="Q116" s="398"/>
+      <c r="R116" s="397"/>
+      <c r="S116" s="397"/>
+      <c r="T116" s="397"/>
+      <c r="U116" s="397"/>
+      <c r="V116" s="397"/>
+      <c r="W116" s="398"/>
+      <c r="X116" s="398"/>
+      <c r="Y116" s="397"/>
+      <c r="Z116" s="397"/>
+      <c r="AA116" s="397"/>
+      <c r="AB116" s="397"/>
+      <c r="AC116" s="397"/>
+      <c r="AD116" s="397"/>
+      <c r="AE116" s="397"/>
+      <c r="AF116" s="397"/>
+      <c r="AG116" s="397"/>
+      <c r="AH116" s="397"/>
+      <c r="AI116" s="397"/>
+      <c r="AJ116" s="397"/>
+      <c r="AK116" s="397"/>
+      <c r="AL116" s="397"/>
+      <c r="AM116" s="397"/>
+      <c r="AN116" s="397"/>
+      <c r="AO116" s="397"/>
+      <c r="AP116" s="397"/>
+      <c r="AQ116" s="397"/>
+      <c r="AR116" s="397"/>
+      <c r="AS116" s="397"/>
+      <c r="AT116" s="397"/>
+      <c r="AU116" s="397"/>
       <c r="AV116" s="135"/>
       <c r="AW116" s="266"/>
-      <c r="AX116" s="408"/>
+      <c r="AX116" s="411"/>
     </row>
     <row r="117" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A117" s="79"/>
       <c r="B117" s="194"/>
       <c r="C117" s="42"/>
-      <c r="D117" s="394"/>
-      <c r="E117" s="394"/>
-      <c r="F117" s="394"/>
-      <c r="G117" s="395"/>
-      <c r="H117" s="395"/>
-      <c r="I117" s="395"/>
-      <c r="J117" s="395"/>
-      <c r="K117" s="395"/>
-      <c r="L117" s="395"/>
-      <c r="M117" s="395"/>
-      <c r="N117" s="395"/>
-      <c r="O117" s="395"/>
-      <c r="P117" s="395"/>
-      <c r="Q117" s="395"/>
-      <c r="R117" s="394"/>
-      <c r="S117" s="394"/>
-      <c r="T117" s="394"/>
-      <c r="U117" s="394"/>
-      <c r="V117" s="394"/>
-      <c r="W117" s="395"/>
-      <c r="X117" s="395"/>
-      <c r="Y117" s="394"/>
-      <c r="Z117" s="394"/>
-      <c r="AA117" s="394"/>
-      <c r="AB117" s="394"/>
-      <c r="AC117" s="394"/>
-      <c r="AD117" s="394"/>
-      <c r="AE117" s="394"/>
-      <c r="AF117" s="394"/>
-      <c r="AG117" s="394"/>
-      <c r="AH117" s="394"/>
-      <c r="AI117" s="394"/>
-      <c r="AJ117" s="394"/>
-      <c r="AK117" s="394"/>
-      <c r="AL117" s="394"/>
-      <c r="AM117" s="394"/>
-      <c r="AN117" s="394"/>
-      <c r="AO117" s="394"/>
-      <c r="AP117" s="394"/>
-      <c r="AQ117" s="394"/>
-      <c r="AR117" s="394"/>
-      <c r="AS117" s="394"/>
-      <c r="AT117" s="394"/>
-      <c r="AU117" s="394"/>
+      <c r="D117" s="397"/>
+      <c r="E117" s="397"/>
+      <c r="F117" s="397"/>
+      <c r="G117" s="398"/>
+      <c r="H117" s="398"/>
+      <c r="I117" s="398"/>
+      <c r="J117" s="398"/>
+      <c r="K117" s="398"/>
+      <c r="L117" s="398"/>
+      <c r="M117" s="398"/>
+      <c r="N117" s="398"/>
+      <c r="O117" s="398"/>
+      <c r="P117" s="398"/>
+      <c r="Q117" s="398"/>
+      <c r="R117" s="397"/>
+      <c r="S117" s="397"/>
+      <c r="T117" s="397"/>
+      <c r="U117" s="397"/>
+      <c r="V117" s="397"/>
+      <c r="W117" s="398"/>
+      <c r="X117" s="398"/>
+      <c r="Y117" s="397"/>
+      <c r="Z117" s="397"/>
+      <c r="AA117" s="397"/>
+      <c r="AB117" s="397"/>
+      <c r="AC117" s="397"/>
+      <c r="AD117" s="397"/>
+      <c r="AE117" s="397"/>
+      <c r="AF117" s="397"/>
+      <c r="AG117" s="397"/>
+      <c r="AH117" s="397"/>
+      <c r="AI117" s="397"/>
+      <c r="AJ117" s="397"/>
+      <c r="AK117" s="397"/>
+      <c r="AL117" s="397"/>
+      <c r="AM117" s="397"/>
+      <c r="AN117" s="397"/>
+      <c r="AO117" s="397"/>
+      <c r="AP117" s="397"/>
+      <c r="AQ117" s="397"/>
+      <c r="AR117" s="397"/>
+      <c r="AS117" s="397"/>
+      <c r="AT117" s="397"/>
+      <c r="AU117" s="397"/>
       <c r="AV117" s="135"/>
       <c r="AW117" s="266"/>
-      <c r="AX117" s="408"/>
+      <c r="AX117" s="411"/>
     </row>
     <row r="118" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A118" s="79"/>
       <c r="B118" s="194"/>
       <c r="C118" s="42"/>
-      <c r="D118" s="394"/>
-      <c r="E118" s="394"/>
-      <c r="F118" s="394"/>
-      <c r="G118" s="395"/>
-      <c r="H118" s="395"/>
-      <c r="I118" s="395"/>
-      <c r="J118" s="395"/>
-      <c r="K118" s="395"/>
-      <c r="L118" s="395"/>
-      <c r="M118" s="395"/>
-      <c r="N118" s="395"/>
-      <c r="O118" s="395"/>
-      <c r="P118" s="395"/>
-      <c r="Q118" s="395"/>
-      <c r="R118" s="394"/>
-      <c r="S118" s="394"/>
-      <c r="T118" s="394"/>
-      <c r="U118" s="394"/>
-      <c r="V118" s="394"/>
-      <c r="W118" s="395"/>
-      <c r="X118" s="395"/>
-      <c r="Y118" s="394"/>
-      <c r="Z118" s="394"/>
-      <c r="AA118" s="394"/>
-      <c r="AB118" s="394"/>
-      <c r="AC118" s="394"/>
-      <c r="AD118" s="394"/>
-      <c r="AE118" s="394"/>
-      <c r="AF118" s="394"/>
-      <c r="AG118" s="394"/>
-      <c r="AH118" s="394"/>
-      <c r="AI118" s="394"/>
-      <c r="AJ118" s="394"/>
-      <c r="AK118" s="394"/>
-      <c r="AL118" s="394"/>
-      <c r="AM118" s="394"/>
-      <c r="AN118" s="394"/>
-      <c r="AO118" s="394"/>
-      <c r="AP118" s="394"/>
-      <c r="AQ118" s="394"/>
-      <c r="AR118" s="394"/>
-      <c r="AS118" s="394"/>
-      <c r="AT118" s="394"/>
-      <c r="AU118" s="394"/>
+      <c r="D118" s="397"/>
+      <c r="E118" s="397"/>
+      <c r="F118" s="397"/>
+      <c r="G118" s="398"/>
+      <c r="H118" s="398"/>
+      <c r="I118" s="398"/>
+      <c r="J118" s="398"/>
+      <c r="K118" s="398"/>
+      <c r="L118" s="398"/>
+      <c r="M118" s="398"/>
+      <c r="N118" s="398"/>
+      <c r="O118" s="398"/>
+      <c r="P118" s="398"/>
+      <c r="Q118" s="398"/>
+      <c r="R118" s="397"/>
+      <c r="S118" s="397"/>
+      <c r="T118" s="397"/>
+      <c r="U118" s="397"/>
+      <c r="V118" s="397"/>
+      <c r="W118" s="398"/>
+      <c r="X118" s="398"/>
+      <c r="Y118" s="397"/>
+      <c r="Z118" s="397"/>
+      <c r="AA118" s="397"/>
+      <c r="AB118" s="397"/>
+      <c r="AC118" s="397"/>
+      <c r="AD118" s="397"/>
+      <c r="AE118" s="397"/>
+      <c r="AF118" s="397"/>
+      <c r="AG118" s="397"/>
+      <c r="AH118" s="397"/>
+      <c r="AI118" s="397"/>
+      <c r="AJ118" s="397"/>
+      <c r="AK118" s="397"/>
+      <c r="AL118" s="397"/>
+      <c r="AM118" s="397"/>
+      <c r="AN118" s="397"/>
+      <c r="AO118" s="397"/>
+      <c r="AP118" s="397"/>
+      <c r="AQ118" s="397"/>
+      <c r="AR118" s="397"/>
+      <c r="AS118" s="397"/>
+      <c r="AT118" s="397"/>
+      <c r="AU118" s="397"/>
       <c r="AV118" s="135"/>
       <c r="AW118" s="266"/>
-      <c r="AX118" s="408"/>
+      <c r="AX118" s="411"/>
     </row>
     <row r="119" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A119" s="79"/>
       <c r="B119" s="194"/>
       <c r="C119" s="42"/>
-      <c r="D119" s="394"/>
-      <c r="E119" s="394"/>
-      <c r="F119" s="394"/>
-      <c r="G119" s="395"/>
-      <c r="H119" s="395"/>
-      <c r="I119" s="395"/>
-      <c r="J119" s="395"/>
-      <c r="K119" s="395"/>
-      <c r="L119" s="395"/>
-      <c r="M119" s="395"/>
-      <c r="N119" s="395"/>
-      <c r="O119" s="395"/>
-      <c r="P119" s="395"/>
-      <c r="Q119" s="395"/>
-      <c r="R119" s="394"/>
-      <c r="S119" s="394"/>
-      <c r="T119" s="394"/>
-      <c r="U119" s="394"/>
-      <c r="V119" s="394"/>
-      <c r="W119" s="395"/>
-      <c r="X119" s="395"/>
-      <c r="Y119" s="394"/>
-      <c r="Z119" s="394"/>
-      <c r="AA119" s="394"/>
-      <c r="AB119" s="394"/>
-      <c r="AC119" s="394"/>
-      <c r="AD119" s="394"/>
-      <c r="AE119" s="394"/>
-      <c r="AF119" s="394"/>
-      <c r="AG119" s="394"/>
-      <c r="AH119" s="394"/>
-      <c r="AI119" s="394"/>
-      <c r="AJ119" s="394"/>
-      <c r="AK119" s="394"/>
-      <c r="AL119" s="394"/>
-      <c r="AM119" s="394"/>
-      <c r="AN119" s="394"/>
-      <c r="AO119" s="394"/>
-      <c r="AP119" s="394"/>
-      <c r="AQ119" s="394"/>
-      <c r="AR119" s="394"/>
-      <c r="AS119" s="394"/>
-      <c r="AT119" s="394"/>
-      <c r="AU119" s="394"/>
+      <c r="D119" s="397"/>
+      <c r="E119" s="397"/>
+      <c r="F119" s="397"/>
+      <c r="G119" s="398"/>
+      <c r="H119" s="398"/>
+      <c r="I119" s="398"/>
+      <c r="J119" s="398"/>
+      <c r="K119" s="398"/>
+      <c r="L119" s="398"/>
+      <c r="M119" s="398"/>
+      <c r="N119" s="398"/>
+      <c r="O119" s="398"/>
+      <c r="P119" s="398"/>
+      <c r="Q119" s="398"/>
+      <c r="R119" s="397"/>
+      <c r="S119" s="397"/>
+      <c r="T119" s="397"/>
+      <c r="U119" s="397"/>
+      <c r="V119" s="397"/>
+      <c r="W119" s="398"/>
+      <c r="X119" s="398"/>
+      <c r="Y119" s="397"/>
+      <c r="Z119" s="397"/>
+      <c r="AA119" s="397"/>
+      <c r="AB119" s="397"/>
+      <c r="AC119" s="397"/>
+      <c r="AD119" s="397"/>
+      <c r="AE119" s="397"/>
+      <c r="AF119" s="397"/>
+      <c r="AG119" s="397"/>
+      <c r="AH119" s="397"/>
+      <c r="AI119" s="397"/>
+      <c r="AJ119" s="397"/>
+      <c r="AK119" s="397"/>
+      <c r="AL119" s="397"/>
+      <c r="AM119" s="397"/>
+      <c r="AN119" s="397"/>
+      <c r="AO119" s="397"/>
+      <c r="AP119" s="397"/>
+      <c r="AQ119" s="397"/>
+      <c r="AR119" s="397"/>
+      <c r="AS119" s="397"/>
+      <c r="AT119" s="397"/>
+      <c r="AU119" s="397"/>
       <c r="AV119" s="135"/>
       <c r="AW119" s="266"/>
-      <c r="AX119" s="408"/>
+      <c r="AX119" s="411"/>
     </row>
     <row r="120" s="180" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A120" s="294"/>
-      <c r="B120" s="400"/>
-      <c r="C120" s="401"/>
-      <c r="D120" s="401"/>
-      <c r="E120" s="401"/>
-      <c r="F120" s="401"/>
-      <c r="G120" s="401"/>
-      <c r="H120" s="401"/>
-      <c r="I120" s="401"/>
-      <c r="J120" s="401"/>
-      <c r="K120" s="401"/>
-      <c r="L120" s="401"/>
-      <c r="M120" s="401"/>
-      <c r="N120" s="401"/>
-      <c r="O120" s="401"/>
-      <c r="P120" s="401"/>
-      <c r="Q120" s="401"/>
-      <c r="R120" s="401"/>
-      <c r="S120" s="401"/>
-      <c r="T120" s="401"/>
-      <c r="U120" s="401"/>
-      <c r="V120" s="401"/>
-      <c r="W120" s="401"/>
-      <c r="X120" s="401"/>
-      <c r="Y120" s="401"/>
-      <c r="Z120" s="401"/>
-      <c r="AA120" s="401"/>
-      <c r="AB120" s="401"/>
-      <c r="AC120" s="401"/>
-      <c r="AD120" s="401"/>
-      <c r="AE120" s="401"/>
-      <c r="AF120" s="401"/>
-      <c r="AG120" s="401"/>
-      <c r="AH120" s="401"/>
-      <c r="AI120" s="401"/>
-      <c r="AJ120" s="401"/>
-      <c r="AK120" s="401"/>
-      <c r="AL120" s="401"/>
-      <c r="AM120" s="401"/>
-      <c r="AN120" s="401"/>
-      <c r="AO120" s="401"/>
-      <c r="AP120" s="401"/>
-      <c r="AQ120" s="401"/>
-      <c r="AR120" s="401"/>
-      <c r="AS120" s="401"/>
-      <c r="AT120" s="401"/>
-      <c r="AU120" s="401"/>
-      <c r="AV120" s="401"/>
-      <c r="AW120" s="297"/>
-    </row>
-    <row r="121" s="298" customFormat="1" ht="21" customHeight="1" spans="1:49">
+      <c r="A120" s="297"/>
+      <c r="B120" s="403"/>
+      <c r="C120" s="404"/>
+      <c r="D120" s="404"/>
+      <c r="E120" s="404"/>
+      <c r="F120" s="404"/>
+      <c r="G120" s="404"/>
+      <c r="H120" s="404"/>
+      <c r="I120" s="404"/>
+      <c r="J120" s="404"/>
+      <c r="K120" s="404"/>
+      <c r="L120" s="404"/>
+      <c r="M120" s="404"/>
+      <c r="N120" s="404"/>
+      <c r="O120" s="404"/>
+      <c r="P120" s="404"/>
+      <c r="Q120" s="404"/>
+      <c r="R120" s="404"/>
+      <c r="S120" s="404"/>
+      <c r="T120" s="404"/>
+      <c r="U120" s="404"/>
+      <c r="V120" s="404"/>
+      <c r="W120" s="404"/>
+      <c r="X120" s="404"/>
+      <c r="Y120" s="404"/>
+      <c r="Z120" s="404"/>
+      <c r="AA120" s="404"/>
+      <c r="AB120" s="404"/>
+      <c r="AC120" s="404"/>
+      <c r="AD120" s="404"/>
+      <c r="AE120" s="404"/>
+      <c r="AF120" s="404"/>
+      <c r="AG120" s="404"/>
+      <c r="AH120" s="404"/>
+      <c r="AI120" s="404"/>
+      <c r="AJ120" s="404"/>
+      <c r="AK120" s="404"/>
+      <c r="AL120" s="404"/>
+      <c r="AM120" s="404"/>
+      <c r="AN120" s="404"/>
+      <c r="AO120" s="404"/>
+      <c r="AP120" s="404"/>
+      <c r="AQ120" s="404"/>
+      <c r="AR120" s="404"/>
+      <c r="AS120" s="404"/>
+      <c r="AT120" s="404"/>
+      <c r="AU120" s="404"/>
+      <c r="AV120" s="404"/>
+      <c r="AW120" s="300"/>
+    </row>
+    <row r="121" s="301" customFormat="1" ht="21" customHeight="1" spans="1:49">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -22819,7 +22826,7 @@
       <c r="AV121" s="145"/>
       <c r="AW121" s="160"/>
     </row>
-    <row r="122" s="298" customFormat="1" ht="21" customHeight="1" spans="1:49">
+    <row r="122" s="301" customFormat="1" ht="21" customHeight="1" spans="1:49">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -23890,7 +23897,7 @@
     </row>
     <row r="143" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A143" s="79"/>
-      <c r="B143" s="410" t="s">
+      <c r="B143" s="413" t="s">
         <v>42</v>
       </c>
       <c r="C143" s="42"/>
@@ -23944,52 +23951,52 @@
     <row r="144" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A144" s="79"/>
       <c r="B144" s="194"/>
-      <c r="C144" s="396"/>
-      <c r="D144" s="396"/>
-      <c r="E144" s="399"/>
-      <c r="F144" s="399"/>
-      <c r="G144" s="399"/>
-      <c r="H144" s="399"/>
-      <c r="I144" s="399"/>
-      <c r="J144" s="396"/>
-      <c r="K144" s="396"/>
-      <c r="L144" s="396"/>
-      <c r="M144" s="396"/>
-      <c r="N144" s="396"/>
-      <c r="O144" s="396"/>
-      <c r="P144" s="396"/>
-      <c r="Q144" s="396"/>
-      <c r="R144" s="396"/>
-      <c r="S144" s="396"/>
-      <c r="T144" s="396"/>
-      <c r="U144" s="396"/>
-      <c r="V144" s="396"/>
-      <c r="W144" s="396"/>
-      <c r="X144" s="396"/>
-      <c r="Y144" s="396"/>
-      <c r="Z144" s="396"/>
-      <c r="AA144" s="396"/>
-      <c r="AB144" s="396"/>
-      <c r="AC144" s="396"/>
-      <c r="AD144" s="396"/>
-      <c r="AE144" s="396"/>
-      <c r="AF144" s="396"/>
-      <c r="AG144" s="396"/>
-      <c r="AH144" s="396"/>
-      <c r="AI144" s="396"/>
-      <c r="AJ144" s="396"/>
-      <c r="AK144" s="396"/>
-      <c r="AL144" s="396"/>
-      <c r="AM144" s="396"/>
-      <c r="AN144" s="396"/>
-      <c r="AO144" s="396"/>
-      <c r="AP144" s="396"/>
-      <c r="AQ144" s="396"/>
-      <c r="AR144" s="396"/>
-      <c r="AS144" s="396"/>
-      <c r="AT144" s="396"/>
-      <c r="AU144" s="396"/>
-      <c r="AV144" s="396"/>
+      <c r="C144" s="399"/>
+      <c r="D144" s="399"/>
+      <c r="E144" s="402"/>
+      <c r="F144" s="402"/>
+      <c r="G144" s="402"/>
+      <c r="H144" s="402"/>
+      <c r="I144" s="402"/>
+      <c r="J144" s="399"/>
+      <c r="K144" s="399"/>
+      <c r="L144" s="399"/>
+      <c r="M144" s="399"/>
+      <c r="N144" s="399"/>
+      <c r="O144" s="399"/>
+      <c r="P144" s="399"/>
+      <c r="Q144" s="399"/>
+      <c r="R144" s="399"/>
+      <c r="S144" s="399"/>
+      <c r="T144" s="399"/>
+      <c r="U144" s="399"/>
+      <c r="V144" s="399"/>
+      <c r="W144" s="399"/>
+      <c r="X144" s="399"/>
+      <c r="Y144" s="399"/>
+      <c r="Z144" s="399"/>
+      <c r="AA144" s="399"/>
+      <c r="AB144" s="399"/>
+      <c r="AC144" s="399"/>
+      <c r="AD144" s="399"/>
+      <c r="AE144" s="399"/>
+      <c r="AF144" s="399"/>
+      <c r="AG144" s="399"/>
+      <c r="AH144" s="399"/>
+      <c r="AI144" s="399"/>
+      <c r="AJ144" s="399"/>
+      <c r="AK144" s="399"/>
+      <c r="AL144" s="399"/>
+      <c r="AM144" s="399"/>
+      <c r="AN144" s="399"/>
+      <c r="AO144" s="399"/>
+      <c r="AP144" s="399"/>
+      <c r="AQ144" s="399"/>
+      <c r="AR144" s="399"/>
+      <c r="AS144" s="399"/>
+      <c r="AT144" s="399"/>
+      <c r="AU144" s="399"/>
+      <c r="AV144" s="399"/>
       <c r="AW144" s="266"/>
     </row>
     <row r="145" s="180" customFormat="1" customHeight="1" spans="1:49">
@@ -24108,645 +24115,645 @@
       <c r="A147" s="79"/>
       <c r="B147" s="189"/>
       <c r="C147" s="135"/>
-      <c r="D147" s="411">
+      <c r="D147" s="414">
         <v>1</v>
       </c>
-      <c r="E147" s="412" t="s">
+      <c r="E147" s="415" t="s">
         <v>48</v>
       </c>
-      <c r="F147" s="413"/>
-      <c r="G147" s="414" t="s">
+      <c r="F147" s="416"/>
+      <c r="G147" s="417" t="s">
         <v>49</v>
       </c>
-      <c r="H147" s="415"/>
-      <c r="I147" s="415"/>
-      <c r="J147" s="415"/>
-      <c r="K147" s="429"/>
-      <c r="L147" s="430" t="s">
+      <c r="H147" s="418"/>
+      <c r="I147" s="418"/>
+      <c r="J147" s="418"/>
+      <c r="K147" s="432"/>
+      <c r="L147" s="433" t="s">
         <v>50</v>
       </c>
-      <c r="M147" s="415"/>
-      <c r="N147" s="415"/>
-      <c r="O147" s="415"/>
-      <c r="P147" s="415"/>
-      <c r="Q147" s="415"/>
-      <c r="R147" s="415"/>
-      <c r="S147" s="415"/>
-      <c r="T147" s="415"/>
-      <c r="U147" s="435"/>
-      <c r="V147" s="412" t="s">
+      <c r="M147" s="418"/>
+      <c r="N147" s="418"/>
+      <c r="O147" s="418"/>
+      <c r="P147" s="418"/>
+      <c r="Q147" s="418"/>
+      <c r="R147" s="418"/>
+      <c r="S147" s="418"/>
+      <c r="T147" s="418"/>
+      <c r="U147" s="438"/>
+      <c r="V147" s="415" t="s">
         <v>51</v>
       </c>
-      <c r="W147" s="413"/>
-      <c r="X147" s="414"/>
-      <c r="Y147" s="415"/>
-      <c r="Z147" s="415"/>
-      <c r="AA147" s="415"/>
-      <c r="AB147" s="415"/>
-      <c r="AC147" s="415"/>
-      <c r="AD147" s="415"/>
-      <c r="AE147" s="415"/>
-      <c r="AF147" s="415"/>
-      <c r="AG147" s="415"/>
-      <c r="AH147" s="415"/>
-      <c r="AI147" s="415"/>
-      <c r="AJ147" s="415"/>
-      <c r="AK147" s="415"/>
-      <c r="AL147" s="415"/>
-      <c r="AM147" s="415"/>
-      <c r="AN147" s="415"/>
-      <c r="AO147" s="415"/>
-      <c r="AP147" s="415"/>
-      <c r="AQ147" s="415"/>
-      <c r="AR147" s="415"/>
-      <c r="AS147" s="415"/>
-      <c r="AT147" s="415"/>
-      <c r="AU147" s="415"/>
-      <c r="AV147" s="435"/>
+      <c r="W147" s="416"/>
+      <c r="X147" s="417"/>
+      <c r="Y147" s="418"/>
+      <c r="Z147" s="418"/>
+      <c r="AA147" s="418"/>
+      <c r="AB147" s="418"/>
+      <c r="AC147" s="418"/>
+      <c r="AD147" s="418"/>
+      <c r="AE147" s="418"/>
+      <c r="AF147" s="418"/>
+      <c r="AG147" s="418"/>
+      <c r="AH147" s="418"/>
+      <c r="AI147" s="418"/>
+      <c r="AJ147" s="418"/>
+      <c r="AK147" s="418"/>
+      <c r="AL147" s="418"/>
+      <c r="AM147" s="418"/>
+      <c r="AN147" s="418"/>
+      <c r="AO147" s="418"/>
+      <c r="AP147" s="418"/>
+      <c r="AQ147" s="418"/>
+      <c r="AR147" s="418"/>
+      <c r="AS147" s="418"/>
+      <c r="AT147" s="418"/>
+      <c r="AU147" s="418"/>
+      <c r="AV147" s="438"/>
       <c r="AW147" s="266"/>
     </row>
     <row r="148" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A148" s="79"/>
       <c r="B148" s="189"/>
       <c r="C148" s="135"/>
-      <c r="D148" s="416">
+      <c r="D148" s="419">
         <v>2</v>
       </c>
-      <c r="E148" s="417" t="s">
+      <c r="E148" s="420" t="s">
         <v>48</v>
       </c>
-      <c r="F148" s="418"/>
-      <c r="G148" s="419" t="s">
+      <c r="F148" s="421"/>
+      <c r="G148" s="422" t="s">
         <v>52</v>
       </c>
-      <c r="H148" s="420"/>
-      <c r="I148" s="420"/>
-      <c r="J148" s="420"/>
-      <c r="K148" s="431"/>
-      <c r="L148" s="432" t="s">
+      <c r="H148" s="423"/>
+      <c r="I148" s="423"/>
+      <c r="J148" s="423"/>
+      <c r="K148" s="434"/>
+      <c r="L148" s="435" t="s">
         <v>53</v>
       </c>
-      <c r="M148" s="420"/>
-      <c r="N148" s="420"/>
-      <c r="O148" s="420"/>
-      <c r="P148" s="420"/>
-      <c r="Q148" s="420"/>
-      <c r="R148" s="420"/>
-      <c r="S148" s="420"/>
-      <c r="T148" s="420"/>
-      <c r="U148" s="436"/>
-      <c r="V148" s="417" t="s">
+      <c r="M148" s="423"/>
+      <c r="N148" s="423"/>
+      <c r="O148" s="423"/>
+      <c r="P148" s="423"/>
+      <c r="Q148" s="423"/>
+      <c r="R148" s="423"/>
+      <c r="S148" s="423"/>
+      <c r="T148" s="423"/>
+      <c r="U148" s="439"/>
+      <c r="V148" s="420" t="s">
         <v>51</v>
       </c>
-      <c r="W148" s="418"/>
-      <c r="X148" s="419"/>
-      <c r="Y148" s="420"/>
-      <c r="Z148" s="420"/>
-      <c r="AA148" s="420"/>
-      <c r="AB148" s="420"/>
-      <c r="AC148" s="420"/>
-      <c r="AD148" s="420"/>
-      <c r="AE148" s="420"/>
-      <c r="AF148" s="420"/>
-      <c r="AG148" s="420"/>
-      <c r="AH148" s="420"/>
-      <c r="AI148" s="420"/>
-      <c r="AJ148" s="420"/>
-      <c r="AK148" s="420"/>
-      <c r="AL148" s="420"/>
-      <c r="AM148" s="420"/>
-      <c r="AN148" s="420"/>
-      <c r="AO148" s="420"/>
-      <c r="AP148" s="420"/>
-      <c r="AQ148" s="420"/>
-      <c r="AR148" s="420"/>
-      <c r="AS148" s="420"/>
-      <c r="AT148" s="420"/>
-      <c r="AU148" s="420"/>
-      <c r="AV148" s="436"/>
+      <c r="W148" s="421"/>
+      <c r="X148" s="422"/>
+      <c r="Y148" s="423"/>
+      <c r="Z148" s="423"/>
+      <c r="AA148" s="423"/>
+      <c r="AB148" s="423"/>
+      <c r="AC148" s="423"/>
+      <c r="AD148" s="423"/>
+      <c r="AE148" s="423"/>
+      <c r="AF148" s="423"/>
+      <c r="AG148" s="423"/>
+      <c r="AH148" s="423"/>
+      <c r="AI148" s="423"/>
+      <c r="AJ148" s="423"/>
+      <c r="AK148" s="423"/>
+      <c r="AL148" s="423"/>
+      <c r="AM148" s="423"/>
+      <c r="AN148" s="423"/>
+      <c r="AO148" s="423"/>
+      <c r="AP148" s="423"/>
+      <c r="AQ148" s="423"/>
+      <c r="AR148" s="423"/>
+      <c r="AS148" s="423"/>
+      <c r="AT148" s="423"/>
+      <c r="AU148" s="423"/>
+      <c r="AV148" s="439"/>
       <c r="AW148" s="266"/>
     </row>
     <row r="149" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A149" s="79"/>
       <c r="B149" s="189"/>
       <c r="C149" s="135"/>
-      <c r="D149" s="416">
+      <c r="D149" s="419">
         <v>3</v>
       </c>
-      <c r="E149" s="417" t="s">
+      <c r="E149" s="420" t="s">
         <v>48</v>
       </c>
-      <c r="F149" s="418"/>
-      <c r="G149" s="419" t="s">
+      <c r="F149" s="421"/>
+      <c r="G149" s="422" t="s">
         <v>54</v>
       </c>
-      <c r="H149" s="420"/>
-      <c r="I149" s="420"/>
-      <c r="J149" s="420"/>
-      <c r="K149" s="431"/>
-      <c r="L149" s="432" t="s">
+      <c r="H149" s="423"/>
+      <c r="I149" s="423"/>
+      <c r="J149" s="423"/>
+      <c r="K149" s="434"/>
+      <c r="L149" s="435" t="s">
         <v>55</v>
       </c>
-      <c r="M149" s="420"/>
-      <c r="N149" s="420"/>
-      <c r="O149" s="420"/>
-      <c r="P149" s="420"/>
-      <c r="Q149" s="420"/>
-      <c r="R149" s="420"/>
-      <c r="S149" s="420"/>
-      <c r="T149" s="420"/>
-      <c r="U149" s="436"/>
-      <c r="V149" s="417" t="s">
+      <c r="M149" s="423"/>
+      <c r="N149" s="423"/>
+      <c r="O149" s="423"/>
+      <c r="P149" s="423"/>
+      <c r="Q149" s="423"/>
+      <c r="R149" s="423"/>
+      <c r="S149" s="423"/>
+      <c r="T149" s="423"/>
+      <c r="U149" s="439"/>
+      <c r="V149" s="420" t="s">
         <v>51</v>
       </c>
-      <c r="W149" s="418"/>
-      <c r="X149" s="419"/>
-      <c r="Y149" s="420"/>
-      <c r="Z149" s="420"/>
-      <c r="AA149" s="420"/>
-      <c r="AB149" s="420"/>
-      <c r="AC149" s="420"/>
-      <c r="AD149" s="420"/>
-      <c r="AE149" s="420"/>
-      <c r="AF149" s="420"/>
-      <c r="AG149" s="420"/>
-      <c r="AH149" s="420"/>
-      <c r="AI149" s="420"/>
-      <c r="AJ149" s="420"/>
-      <c r="AK149" s="420"/>
-      <c r="AL149" s="420"/>
-      <c r="AM149" s="420"/>
-      <c r="AN149" s="420"/>
-      <c r="AO149" s="420"/>
-      <c r="AP149" s="420"/>
-      <c r="AQ149" s="420"/>
-      <c r="AR149" s="420"/>
-      <c r="AS149" s="420"/>
-      <c r="AT149" s="420"/>
-      <c r="AU149" s="420"/>
-      <c r="AV149" s="436"/>
+      <c r="W149" s="421"/>
+      <c r="X149" s="422"/>
+      <c r="Y149" s="423"/>
+      <c r="Z149" s="423"/>
+      <c r="AA149" s="423"/>
+      <c r="AB149" s="423"/>
+      <c r="AC149" s="423"/>
+      <c r="AD149" s="423"/>
+      <c r="AE149" s="423"/>
+      <c r="AF149" s="423"/>
+      <c r="AG149" s="423"/>
+      <c r="AH149" s="423"/>
+      <c r="AI149" s="423"/>
+      <c r="AJ149" s="423"/>
+      <c r="AK149" s="423"/>
+      <c r="AL149" s="423"/>
+      <c r="AM149" s="423"/>
+      <c r="AN149" s="423"/>
+      <c r="AO149" s="423"/>
+      <c r="AP149" s="423"/>
+      <c r="AQ149" s="423"/>
+      <c r="AR149" s="423"/>
+      <c r="AS149" s="423"/>
+      <c r="AT149" s="423"/>
+      <c r="AU149" s="423"/>
+      <c r="AV149" s="439"/>
       <c r="AW149" s="266"/>
     </row>
     <row r="150" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A150" s="79"/>
       <c r="B150" s="189"/>
       <c r="C150" s="135"/>
-      <c r="D150" s="416">
+      <c r="D150" s="419">
         <v>4</v>
       </c>
-      <c r="E150" s="417" t="s">
+      <c r="E150" s="420" t="s">
         <v>48</v>
       </c>
-      <c r="F150" s="418"/>
-      <c r="G150" s="419" t="s">
+      <c r="F150" s="421"/>
+      <c r="G150" s="422" t="s">
         <v>56</v>
       </c>
-      <c r="H150" s="420"/>
-      <c r="I150" s="420"/>
-      <c r="J150" s="420"/>
-      <c r="K150" s="431"/>
-      <c r="L150" s="432" t="s">
+      <c r="H150" s="423"/>
+      <c r="I150" s="423"/>
+      <c r="J150" s="423"/>
+      <c r="K150" s="434"/>
+      <c r="L150" s="435" t="s">
         <v>57</v>
       </c>
-      <c r="M150" s="420"/>
-      <c r="N150" s="420"/>
-      <c r="O150" s="420"/>
-      <c r="P150" s="420"/>
-      <c r="Q150" s="420"/>
-      <c r="R150" s="420"/>
-      <c r="S150" s="420"/>
-      <c r="T150" s="420"/>
-      <c r="U150" s="436"/>
-      <c r="V150" s="417" t="s">
+      <c r="M150" s="423"/>
+      <c r="N150" s="423"/>
+      <c r="O150" s="423"/>
+      <c r="P150" s="423"/>
+      <c r="Q150" s="423"/>
+      <c r="R150" s="423"/>
+      <c r="S150" s="423"/>
+      <c r="T150" s="423"/>
+      <c r="U150" s="439"/>
+      <c r="V150" s="420" t="s">
         <v>51</v>
       </c>
-      <c r="W150" s="418"/>
-      <c r="X150" s="419"/>
-      <c r="Y150" s="420"/>
-      <c r="Z150" s="420"/>
-      <c r="AA150" s="420"/>
-      <c r="AB150" s="420"/>
-      <c r="AC150" s="420"/>
-      <c r="AD150" s="420"/>
-      <c r="AE150" s="420"/>
-      <c r="AF150" s="420"/>
-      <c r="AG150" s="420"/>
-      <c r="AH150" s="420"/>
-      <c r="AI150" s="420"/>
-      <c r="AJ150" s="420"/>
-      <c r="AK150" s="420"/>
-      <c r="AL150" s="420"/>
-      <c r="AM150" s="420"/>
-      <c r="AN150" s="420"/>
-      <c r="AO150" s="420"/>
-      <c r="AP150" s="420"/>
-      <c r="AQ150" s="420"/>
-      <c r="AR150" s="420"/>
-      <c r="AS150" s="420"/>
-      <c r="AT150" s="420"/>
-      <c r="AU150" s="420"/>
-      <c r="AV150" s="436"/>
+      <c r="W150" s="421"/>
+      <c r="X150" s="422"/>
+      <c r="Y150" s="423"/>
+      <c r="Z150" s="423"/>
+      <c r="AA150" s="423"/>
+      <c r="AB150" s="423"/>
+      <c r="AC150" s="423"/>
+      <c r="AD150" s="423"/>
+      <c r="AE150" s="423"/>
+      <c r="AF150" s="423"/>
+      <c r="AG150" s="423"/>
+      <c r="AH150" s="423"/>
+      <c r="AI150" s="423"/>
+      <c r="AJ150" s="423"/>
+      <c r="AK150" s="423"/>
+      <c r="AL150" s="423"/>
+      <c r="AM150" s="423"/>
+      <c r="AN150" s="423"/>
+      <c r="AO150" s="423"/>
+      <c r="AP150" s="423"/>
+      <c r="AQ150" s="423"/>
+      <c r="AR150" s="423"/>
+      <c r="AS150" s="423"/>
+      <c r="AT150" s="423"/>
+      <c r="AU150" s="423"/>
+      <c r="AV150" s="439"/>
       <c r="AW150" s="266"/>
     </row>
     <row r="151" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A151" s="79"/>
       <c r="B151" s="189"/>
       <c r="C151" s="135"/>
-      <c r="D151" s="416">
+      <c r="D151" s="419">
         <v>5</v>
       </c>
-      <c r="E151" s="417" t="s">
+      <c r="E151" s="420" t="s">
         <v>58</v>
       </c>
-      <c r="F151" s="418"/>
-      <c r="G151" s="419" t="s">
+      <c r="F151" s="421"/>
+      <c r="G151" s="422" t="s">
         <v>59</v>
       </c>
-      <c r="H151" s="420"/>
-      <c r="I151" s="420"/>
-      <c r="J151" s="420"/>
-      <c r="K151" s="431"/>
-      <c r="L151" s="432" t="s">
+      <c r="H151" s="423"/>
+      <c r="I151" s="423"/>
+      <c r="J151" s="423"/>
+      <c r="K151" s="434"/>
+      <c r="L151" s="435" t="s">
         <v>60</v>
       </c>
-      <c r="M151" s="420"/>
-      <c r="N151" s="420"/>
-      <c r="O151" s="420"/>
-      <c r="P151" s="420"/>
-      <c r="Q151" s="420"/>
-      <c r="R151" s="420"/>
-      <c r="S151" s="420"/>
-      <c r="T151" s="420"/>
-      <c r="U151" s="436"/>
-      <c r="V151" s="417" t="s">
+      <c r="M151" s="423"/>
+      <c r="N151" s="423"/>
+      <c r="O151" s="423"/>
+      <c r="P151" s="423"/>
+      <c r="Q151" s="423"/>
+      <c r="R151" s="423"/>
+      <c r="S151" s="423"/>
+      <c r="T151" s="423"/>
+      <c r="U151" s="439"/>
+      <c r="V151" s="420" t="s">
         <v>51</v>
       </c>
-      <c r="W151" s="418"/>
-      <c r="X151" s="419"/>
-      <c r="Y151" s="420"/>
-      <c r="Z151" s="420"/>
-      <c r="AA151" s="420"/>
-      <c r="AB151" s="420"/>
-      <c r="AC151" s="420"/>
-      <c r="AD151" s="420"/>
-      <c r="AE151" s="420"/>
-      <c r="AF151" s="420"/>
-      <c r="AG151" s="420"/>
-      <c r="AH151" s="420"/>
-      <c r="AI151" s="420"/>
-      <c r="AJ151" s="420"/>
-      <c r="AK151" s="420"/>
-      <c r="AL151" s="420"/>
-      <c r="AM151" s="420"/>
-      <c r="AN151" s="420"/>
-      <c r="AO151" s="420"/>
-      <c r="AP151" s="420"/>
-      <c r="AQ151" s="420"/>
-      <c r="AR151" s="420"/>
-      <c r="AS151" s="420"/>
-      <c r="AT151" s="420"/>
-      <c r="AU151" s="420"/>
-      <c r="AV151" s="436"/>
+      <c r="W151" s="421"/>
+      <c r="X151" s="422"/>
+      <c r="Y151" s="423"/>
+      <c r="Z151" s="423"/>
+      <c r="AA151" s="423"/>
+      <c r="AB151" s="423"/>
+      <c r="AC151" s="423"/>
+      <c r="AD151" s="423"/>
+      <c r="AE151" s="423"/>
+      <c r="AF151" s="423"/>
+      <c r="AG151" s="423"/>
+      <c r="AH151" s="423"/>
+      <c r="AI151" s="423"/>
+      <c r="AJ151" s="423"/>
+      <c r="AK151" s="423"/>
+      <c r="AL151" s="423"/>
+      <c r="AM151" s="423"/>
+      <c r="AN151" s="423"/>
+      <c r="AO151" s="423"/>
+      <c r="AP151" s="423"/>
+      <c r="AQ151" s="423"/>
+      <c r="AR151" s="423"/>
+      <c r="AS151" s="423"/>
+      <c r="AT151" s="423"/>
+      <c r="AU151" s="423"/>
+      <c r="AV151" s="439"/>
       <c r="AW151" s="266"/>
     </row>
     <row r="152" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A152" s="79"/>
       <c r="B152" s="189"/>
       <c r="C152" s="135"/>
-      <c r="D152" s="416">
+      <c r="D152" s="419">
         <v>6</v>
       </c>
-      <c r="E152" s="421" t="s">
+      <c r="E152" s="424" t="s">
         <v>58</v>
       </c>
-      <c r="F152" s="422"/>
-      <c r="G152" s="423" t="s">
+      <c r="F152" s="425"/>
+      <c r="G152" s="426" t="s">
         <v>61</v>
       </c>
-      <c r="H152" s="424"/>
-      <c r="I152" s="424"/>
-      <c r="J152" s="424"/>
-      <c r="K152" s="433"/>
-      <c r="L152" s="434" t="s">
+      <c r="H152" s="427"/>
+      <c r="I152" s="427"/>
+      <c r="J152" s="427"/>
+      <c r="K152" s="436"/>
+      <c r="L152" s="437" t="s">
         <v>62</v>
       </c>
-      <c r="M152" s="424"/>
-      <c r="N152" s="424"/>
-      <c r="O152" s="424"/>
-      <c r="P152" s="424"/>
-      <c r="Q152" s="424"/>
-      <c r="R152" s="424"/>
-      <c r="S152" s="424"/>
-      <c r="T152" s="424"/>
-      <c r="U152" s="437"/>
-      <c r="V152" s="421" t="s">
+      <c r="M152" s="427"/>
+      <c r="N152" s="427"/>
+      <c r="O152" s="427"/>
+      <c r="P152" s="427"/>
+      <c r="Q152" s="427"/>
+      <c r="R152" s="427"/>
+      <c r="S152" s="427"/>
+      <c r="T152" s="427"/>
+      <c r="U152" s="440"/>
+      <c r="V152" s="424" t="s">
         <v>51</v>
       </c>
-      <c r="W152" s="422"/>
-      <c r="X152" s="423"/>
-      <c r="Y152" s="424"/>
-      <c r="Z152" s="424"/>
-      <c r="AA152" s="424"/>
-      <c r="AB152" s="424"/>
-      <c r="AC152" s="424"/>
-      <c r="AD152" s="424"/>
-      <c r="AE152" s="424"/>
-      <c r="AF152" s="424"/>
-      <c r="AG152" s="424"/>
-      <c r="AH152" s="424"/>
-      <c r="AI152" s="424"/>
-      <c r="AJ152" s="424"/>
-      <c r="AK152" s="424"/>
-      <c r="AL152" s="424"/>
-      <c r="AM152" s="424"/>
-      <c r="AN152" s="424"/>
-      <c r="AO152" s="424"/>
-      <c r="AP152" s="424"/>
-      <c r="AQ152" s="424"/>
-      <c r="AR152" s="424"/>
-      <c r="AS152" s="424"/>
-      <c r="AT152" s="424"/>
-      <c r="AU152" s="424"/>
-      <c r="AV152" s="437"/>
+      <c r="W152" s="425"/>
+      <c r="X152" s="426"/>
+      <c r="Y152" s="427"/>
+      <c r="Z152" s="427"/>
+      <c r="AA152" s="427"/>
+      <c r="AB152" s="427"/>
+      <c r="AC152" s="427"/>
+      <c r="AD152" s="427"/>
+      <c r="AE152" s="427"/>
+      <c r="AF152" s="427"/>
+      <c r="AG152" s="427"/>
+      <c r="AH152" s="427"/>
+      <c r="AI152" s="427"/>
+      <c r="AJ152" s="427"/>
+      <c r="AK152" s="427"/>
+      <c r="AL152" s="427"/>
+      <c r="AM152" s="427"/>
+      <c r="AN152" s="427"/>
+      <c r="AO152" s="427"/>
+      <c r="AP152" s="427"/>
+      <c r="AQ152" s="427"/>
+      <c r="AR152" s="427"/>
+      <c r="AS152" s="427"/>
+      <c r="AT152" s="427"/>
+      <c r="AU152" s="427"/>
+      <c r="AV152" s="440"/>
       <c r="AW152" s="266"/>
     </row>
     <row r="153" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A153" s="79"/>
       <c r="B153" s="189"/>
       <c r="C153" s="135"/>
-      <c r="D153" s="416">
+      <c r="D153" s="419">
         <v>7</v>
       </c>
-      <c r="E153" s="421" t="s">
+      <c r="E153" s="424" t="s">
         <v>58</v>
       </c>
-      <c r="F153" s="422"/>
-      <c r="G153" s="423" t="s">
+      <c r="F153" s="425"/>
+      <c r="G153" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="H153" s="424"/>
-      <c r="I153" s="424"/>
-      <c r="J153" s="424"/>
-      <c r="K153" s="433"/>
-      <c r="L153" s="434" t="s">
+      <c r="H153" s="427"/>
+      <c r="I153" s="427"/>
+      <c r="J153" s="427"/>
+      <c r="K153" s="436"/>
+      <c r="L153" s="437" t="s">
         <v>64</v>
       </c>
-      <c r="M153" s="424"/>
-      <c r="N153" s="424"/>
-      <c r="O153" s="424"/>
-      <c r="P153" s="424"/>
-      <c r="Q153" s="424"/>
-      <c r="R153" s="424"/>
-      <c r="S153" s="424"/>
-      <c r="T153" s="424"/>
-      <c r="U153" s="437"/>
-      <c r="V153" s="421" t="s">
+      <c r="M153" s="427"/>
+      <c r="N153" s="427"/>
+      <c r="O153" s="427"/>
+      <c r="P153" s="427"/>
+      <c r="Q153" s="427"/>
+      <c r="R153" s="427"/>
+      <c r="S153" s="427"/>
+      <c r="T153" s="427"/>
+      <c r="U153" s="440"/>
+      <c r="V153" s="424" t="s">
         <v>51</v>
       </c>
-      <c r="W153" s="422"/>
-      <c r="X153" s="423"/>
-      <c r="Y153" s="424"/>
-      <c r="Z153" s="424"/>
-      <c r="AA153" s="424"/>
-      <c r="AB153" s="424"/>
-      <c r="AC153" s="424"/>
-      <c r="AD153" s="424"/>
-      <c r="AE153" s="424"/>
-      <c r="AF153" s="424"/>
-      <c r="AG153" s="424"/>
-      <c r="AH153" s="424"/>
-      <c r="AI153" s="424"/>
-      <c r="AJ153" s="424"/>
-      <c r="AK153" s="424"/>
-      <c r="AL153" s="424"/>
-      <c r="AM153" s="424"/>
-      <c r="AN153" s="424"/>
-      <c r="AO153" s="424"/>
-      <c r="AP153" s="424"/>
-      <c r="AQ153" s="424"/>
-      <c r="AR153" s="424"/>
-      <c r="AS153" s="424"/>
-      <c r="AT153" s="424"/>
-      <c r="AU153" s="424"/>
-      <c r="AV153" s="437"/>
+      <c r="W153" s="425"/>
+      <c r="X153" s="426"/>
+      <c r="Y153" s="427"/>
+      <c r="Z153" s="427"/>
+      <c r="AA153" s="427"/>
+      <c r="AB153" s="427"/>
+      <c r="AC153" s="427"/>
+      <c r="AD153" s="427"/>
+      <c r="AE153" s="427"/>
+      <c r="AF153" s="427"/>
+      <c r="AG153" s="427"/>
+      <c r="AH153" s="427"/>
+      <c r="AI153" s="427"/>
+      <c r="AJ153" s="427"/>
+      <c r="AK153" s="427"/>
+      <c r="AL153" s="427"/>
+      <c r="AM153" s="427"/>
+      <c r="AN153" s="427"/>
+      <c r="AO153" s="427"/>
+      <c r="AP153" s="427"/>
+      <c r="AQ153" s="427"/>
+      <c r="AR153" s="427"/>
+      <c r="AS153" s="427"/>
+      <c r="AT153" s="427"/>
+      <c r="AU153" s="427"/>
+      <c r="AV153" s="440"/>
       <c r="AW153" s="266"/>
     </row>
     <row r="154" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A154" s="79"/>
       <c r="B154" s="189"/>
       <c r="C154" s="135"/>
-      <c r="D154" s="416">
+      <c r="D154" s="419">
         <v>8</v>
       </c>
-      <c r="E154" s="421" t="s">
+      <c r="E154" s="424" t="s">
         <v>58</v>
       </c>
-      <c r="F154" s="422"/>
-      <c r="G154" s="423" t="s">
+      <c r="F154" s="425"/>
+      <c r="G154" s="426" t="s">
         <v>65</v>
       </c>
-      <c r="H154" s="424"/>
-      <c r="I154" s="424"/>
-      <c r="J154" s="424"/>
-      <c r="K154" s="433"/>
-      <c r="L154" s="434" t="s">
+      <c r="H154" s="427"/>
+      <c r="I154" s="427"/>
+      <c r="J154" s="427"/>
+      <c r="K154" s="436"/>
+      <c r="L154" s="437" t="s">
         <v>66</v>
       </c>
-      <c r="M154" s="424"/>
-      <c r="N154" s="424"/>
-      <c r="O154" s="424"/>
-      <c r="P154" s="424"/>
-      <c r="Q154" s="424"/>
-      <c r="R154" s="424"/>
-      <c r="S154" s="424"/>
-      <c r="T154" s="424"/>
-      <c r="U154" s="437"/>
-      <c r="V154" s="421" t="s">
+      <c r="M154" s="427"/>
+      <c r="N154" s="427"/>
+      <c r="O154" s="427"/>
+      <c r="P154" s="427"/>
+      <c r="Q154" s="427"/>
+      <c r="R154" s="427"/>
+      <c r="S154" s="427"/>
+      <c r="T154" s="427"/>
+      <c r="U154" s="440"/>
+      <c r="V154" s="424" t="s">
         <v>67</v>
       </c>
-      <c r="W154" s="422"/>
-      <c r="X154" s="423"/>
-      <c r="Y154" s="424"/>
-      <c r="Z154" s="424"/>
-      <c r="AA154" s="424"/>
-      <c r="AB154" s="424"/>
-      <c r="AC154" s="424"/>
-      <c r="AD154" s="424"/>
-      <c r="AE154" s="424"/>
-      <c r="AF154" s="424"/>
-      <c r="AG154" s="424"/>
-      <c r="AH154" s="424"/>
-      <c r="AI154" s="424"/>
-      <c r="AJ154" s="424"/>
-      <c r="AK154" s="424"/>
-      <c r="AL154" s="424"/>
-      <c r="AM154" s="424"/>
-      <c r="AN154" s="424"/>
-      <c r="AO154" s="424"/>
-      <c r="AP154" s="424"/>
-      <c r="AQ154" s="424"/>
-      <c r="AR154" s="424"/>
-      <c r="AS154" s="424"/>
-      <c r="AT154" s="424"/>
-      <c r="AU154" s="424"/>
-      <c r="AV154" s="437"/>
+      <c r="W154" s="425"/>
+      <c r="X154" s="426"/>
+      <c r="Y154" s="427"/>
+      <c r="Z154" s="427"/>
+      <c r="AA154" s="427"/>
+      <c r="AB154" s="427"/>
+      <c r="AC154" s="427"/>
+      <c r="AD154" s="427"/>
+      <c r="AE154" s="427"/>
+      <c r="AF154" s="427"/>
+      <c r="AG154" s="427"/>
+      <c r="AH154" s="427"/>
+      <c r="AI154" s="427"/>
+      <c r="AJ154" s="427"/>
+      <c r="AK154" s="427"/>
+      <c r="AL154" s="427"/>
+      <c r="AM154" s="427"/>
+      <c r="AN154" s="427"/>
+      <c r="AO154" s="427"/>
+      <c r="AP154" s="427"/>
+      <c r="AQ154" s="427"/>
+      <c r="AR154" s="427"/>
+      <c r="AS154" s="427"/>
+      <c r="AT154" s="427"/>
+      <c r="AU154" s="427"/>
+      <c r="AV154" s="440"/>
       <c r="AW154" s="266"/>
     </row>
     <row r="155" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A155" s="79"/>
       <c r="B155" s="189"/>
       <c r="C155" s="135"/>
-      <c r="D155" s="416">
+      <c r="D155" s="419">
         <v>9</v>
       </c>
-      <c r="E155" s="421"/>
-      <c r="F155" s="422"/>
-      <c r="G155" s="423"/>
-      <c r="H155" s="424"/>
-      <c r="I155" s="424"/>
-      <c r="J155" s="424"/>
-      <c r="K155" s="433"/>
-      <c r="L155" s="434"/>
-      <c r="M155" s="424"/>
-      <c r="N155" s="424"/>
-      <c r="O155" s="424"/>
-      <c r="P155" s="424"/>
-      <c r="Q155" s="424"/>
-      <c r="R155" s="424"/>
-      <c r="S155" s="424"/>
-      <c r="T155" s="424"/>
-      <c r="U155" s="437"/>
-      <c r="V155" s="421"/>
-      <c r="W155" s="422"/>
-      <c r="X155" s="423"/>
-      <c r="Y155" s="424"/>
-      <c r="Z155" s="424"/>
-      <c r="AA155" s="424"/>
-      <c r="AB155" s="424"/>
-      <c r="AC155" s="424"/>
-      <c r="AD155" s="424"/>
-      <c r="AE155" s="424"/>
-      <c r="AF155" s="424"/>
-      <c r="AG155" s="424"/>
-      <c r="AH155" s="424"/>
-      <c r="AI155" s="424"/>
-      <c r="AJ155" s="424"/>
-      <c r="AK155" s="424"/>
-      <c r="AL155" s="424"/>
-      <c r="AM155" s="424"/>
-      <c r="AN155" s="424"/>
-      <c r="AO155" s="424"/>
-      <c r="AP155" s="424"/>
-      <c r="AQ155" s="424"/>
-      <c r="AR155" s="424"/>
-      <c r="AS155" s="424"/>
-      <c r="AT155" s="424"/>
-      <c r="AU155" s="424"/>
-      <c r="AV155" s="437"/>
+      <c r="E155" s="424"/>
+      <c r="F155" s="425"/>
+      <c r="G155" s="426"/>
+      <c r="H155" s="427"/>
+      <c r="I155" s="427"/>
+      <c r="J155" s="427"/>
+      <c r="K155" s="436"/>
+      <c r="L155" s="437"/>
+      <c r="M155" s="427"/>
+      <c r="N155" s="427"/>
+      <c r="O155" s="427"/>
+      <c r="P155" s="427"/>
+      <c r="Q155" s="427"/>
+      <c r="R155" s="427"/>
+      <c r="S155" s="427"/>
+      <c r="T155" s="427"/>
+      <c r="U155" s="440"/>
+      <c r="V155" s="424"/>
+      <c r="W155" s="425"/>
+      <c r="X155" s="426"/>
+      <c r="Y155" s="427"/>
+      <c r="Z155" s="427"/>
+      <c r="AA155" s="427"/>
+      <c r="AB155" s="427"/>
+      <c r="AC155" s="427"/>
+      <c r="AD155" s="427"/>
+      <c r="AE155" s="427"/>
+      <c r="AF155" s="427"/>
+      <c r="AG155" s="427"/>
+      <c r="AH155" s="427"/>
+      <c r="AI155" s="427"/>
+      <c r="AJ155" s="427"/>
+      <c r="AK155" s="427"/>
+      <c r="AL155" s="427"/>
+      <c r="AM155" s="427"/>
+      <c r="AN155" s="427"/>
+      <c r="AO155" s="427"/>
+      <c r="AP155" s="427"/>
+      <c r="AQ155" s="427"/>
+      <c r="AR155" s="427"/>
+      <c r="AS155" s="427"/>
+      <c r="AT155" s="427"/>
+      <c r="AU155" s="427"/>
+      <c r="AV155" s="440"/>
       <c r="AW155" s="266"/>
     </row>
     <row r="156" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A156" s="79"/>
       <c r="B156" s="189"/>
       <c r="C156" s="135"/>
-      <c r="D156" s="425">
+      <c r="D156" s="428">
         <v>10</v>
       </c>
-      <c r="E156" s="421"/>
-      <c r="F156" s="422"/>
-      <c r="G156" s="423"/>
-      <c r="H156" s="424"/>
-      <c r="I156" s="424"/>
-      <c r="J156" s="424"/>
-      <c r="K156" s="433"/>
-      <c r="L156" s="434"/>
-      <c r="M156" s="424"/>
-      <c r="N156" s="424"/>
-      <c r="O156" s="424"/>
-      <c r="P156" s="424"/>
-      <c r="Q156" s="424"/>
-      <c r="R156" s="424"/>
-      <c r="S156" s="424"/>
-      <c r="T156" s="424"/>
-      <c r="U156" s="437"/>
-      <c r="V156" s="421"/>
-      <c r="W156" s="422"/>
-      <c r="X156" s="423"/>
-      <c r="Y156" s="424"/>
-      <c r="Z156" s="424"/>
-      <c r="AA156" s="424"/>
-      <c r="AB156" s="424"/>
-      <c r="AC156" s="424"/>
-      <c r="AD156" s="424"/>
-      <c r="AE156" s="424"/>
-      <c r="AF156" s="424"/>
-      <c r="AG156" s="424"/>
-      <c r="AH156" s="424"/>
-      <c r="AI156" s="424"/>
-      <c r="AJ156" s="424"/>
-      <c r="AK156" s="424"/>
-      <c r="AL156" s="424"/>
-      <c r="AM156" s="424"/>
-      <c r="AN156" s="424"/>
-      <c r="AO156" s="424"/>
-      <c r="AP156" s="424"/>
-      <c r="AQ156" s="424"/>
-      <c r="AR156" s="424"/>
-      <c r="AS156" s="424"/>
-      <c r="AT156" s="424"/>
-      <c r="AU156" s="424"/>
-      <c r="AV156" s="437"/>
+      <c r="E156" s="424"/>
+      <c r="F156" s="425"/>
+      <c r="G156" s="426"/>
+      <c r="H156" s="427"/>
+      <c r="I156" s="427"/>
+      <c r="J156" s="427"/>
+      <c r="K156" s="436"/>
+      <c r="L156" s="437"/>
+      <c r="M156" s="427"/>
+      <c r="N156" s="427"/>
+      <c r="O156" s="427"/>
+      <c r="P156" s="427"/>
+      <c r="Q156" s="427"/>
+      <c r="R156" s="427"/>
+      <c r="S156" s="427"/>
+      <c r="T156" s="427"/>
+      <c r="U156" s="440"/>
+      <c r="V156" s="424"/>
+      <c r="W156" s="425"/>
+      <c r="X156" s="426"/>
+      <c r="Y156" s="427"/>
+      <c r="Z156" s="427"/>
+      <c r="AA156" s="427"/>
+      <c r="AB156" s="427"/>
+      <c r="AC156" s="427"/>
+      <c r="AD156" s="427"/>
+      <c r="AE156" s="427"/>
+      <c r="AF156" s="427"/>
+      <c r="AG156" s="427"/>
+      <c r="AH156" s="427"/>
+      <c r="AI156" s="427"/>
+      <c r="AJ156" s="427"/>
+      <c r="AK156" s="427"/>
+      <c r="AL156" s="427"/>
+      <c r="AM156" s="427"/>
+      <c r="AN156" s="427"/>
+      <c r="AO156" s="427"/>
+      <c r="AP156" s="427"/>
+      <c r="AQ156" s="427"/>
+      <c r="AR156" s="427"/>
+      <c r="AS156" s="427"/>
+      <c r="AT156" s="427"/>
+      <c r="AU156" s="427"/>
+      <c r="AV156" s="440"/>
       <c r="AW156" s="266"/>
     </row>
     <row r="157" s="180" customFormat="1" customHeight="1" spans="1:49">
       <c r="A157" s="79"/>
       <c r="B157" s="189"/>
       <c r="C157" s="135"/>
-      <c r="D157" s="426"/>
-      <c r="E157" s="427"/>
-      <c r="F157" s="427"/>
+      <c r="D157" s="429"/>
+      <c r="E157" s="430"/>
+      <c r="F157" s="430"/>
       <c r="G157" s="274"/>
-      <c r="H157" s="428"/>
-      <c r="I157" s="428"/>
-      <c r="J157" s="428"/>
-      <c r="K157" s="428"/>
-      <c r="L157" s="428"/>
-      <c r="M157" s="428"/>
-      <c r="N157" s="428"/>
-      <c r="O157" s="428"/>
-      <c r="P157" s="428"/>
-      <c r="Q157" s="428"/>
-      <c r="R157" s="428"/>
-      <c r="S157" s="428"/>
-      <c r="T157" s="428"/>
-      <c r="U157" s="428"/>
-      <c r="V157" s="427"/>
-      <c r="W157" s="427"/>
-      <c r="X157" s="428"/>
-      <c r="Y157" s="428"/>
-      <c r="Z157" s="428"/>
-      <c r="AA157" s="428"/>
-      <c r="AB157" s="428"/>
-      <c r="AC157" s="428"/>
-      <c r="AD157" s="428"/>
-      <c r="AE157" s="428"/>
-      <c r="AF157" s="428"/>
-      <c r="AG157" s="428"/>
-      <c r="AH157" s="428"/>
-      <c r="AI157" s="428"/>
-      <c r="AJ157" s="428"/>
-      <c r="AK157" s="428"/>
-      <c r="AL157" s="428"/>
-      <c r="AM157" s="428"/>
-      <c r="AN157" s="428"/>
-      <c r="AO157" s="428"/>
-      <c r="AP157" s="428"/>
-      <c r="AQ157" s="428"/>
-      <c r="AR157" s="428"/>
-      <c r="AS157" s="428"/>
-      <c r="AT157" s="428"/>
-      <c r="AU157" s="428"/>
-      <c r="AV157" s="428"/>
+      <c r="H157" s="431"/>
+      <c r="I157" s="431"/>
+      <c r="J157" s="431"/>
+      <c r="K157" s="431"/>
+      <c r="L157" s="431"/>
+      <c r="M157" s="431"/>
+      <c r="N157" s="431"/>
+      <c r="O157" s="431"/>
+      <c r="P157" s="431"/>
+      <c r="Q157" s="431"/>
+      <c r="R157" s="431"/>
+      <c r="S157" s="431"/>
+      <c r="T157" s="431"/>
+      <c r="U157" s="431"/>
+      <c r="V157" s="430"/>
+      <c r="W157" s="430"/>
+      <c r="X157" s="431"/>
+      <c r="Y157" s="431"/>
+      <c r="Z157" s="431"/>
+      <c r="AA157" s="431"/>
+      <c r="AB157" s="431"/>
+      <c r="AC157" s="431"/>
+      <c r="AD157" s="431"/>
+      <c r="AE157" s="431"/>
+      <c r="AF157" s="431"/>
+      <c r="AG157" s="431"/>
+      <c r="AH157" s="431"/>
+      <c r="AI157" s="431"/>
+      <c r="AJ157" s="431"/>
+      <c r="AK157" s="431"/>
+      <c r="AL157" s="431"/>
+      <c r="AM157" s="431"/>
+      <c r="AN157" s="431"/>
+      <c r="AO157" s="431"/>
+      <c r="AP157" s="431"/>
+      <c r="AQ157" s="431"/>
+      <c r="AR157" s="431"/>
+      <c r="AS157" s="431"/>
+      <c r="AT157" s="431"/>
+      <c r="AU157" s="431"/>
+      <c r="AV157" s="431"/>
       <c r="AW157" s="266"/>
     </row>
     <row r="158" s="180" customFormat="1" customHeight="1" spans="1:49">
@@ -24905,55 +24912,55 @@
       <c r="AW160" s="266"/>
     </row>
     <row r="161" s="181" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A161" s="302"/>
-      <c r="B161" s="303"/>
-      <c r="C161" s="303"/>
-      <c r="D161" s="303"/>
-      <c r="E161" s="303"/>
-      <c r="F161" s="303"/>
-      <c r="G161" s="303"/>
-      <c r="H161" s="303"/>
-      <c r="I161" s="303"/>
-      <c r="J161" s="303"/>
-      <c r="K161" s="303"/>
-      <c r="L161" s="303"/>
-      <c r="M161" s="303"/>
-      <c r="N161" s="303"/>
-      <c r="O161" s="303"/>
-      <c r="P161" s="303"/>
-      <c r="Q161" s="303"/>
-      <c r="R161" s="303"/>
-      <c r="S161" s="303"/>
-      <c r="T161" s="303"/>
-      <c r="U161" s="303"/>
-      <c r="V161" s="303"/>
-      <c r="W161" s="303"/>
-      <c r="X161" s="303"/>
-      <c r="Y161" s="303"/>
-      <c r="Z161" s="303"/>
-      <c r="AA161" s="303"/>
-      <c r="AB161" s="303"/>
-      <c r="AC161" s="303"/>
-      <c r="AD161" s="303"/>
-      <c r="AE161" s="303"/>
-      <c r="AF161" s="303"/>
-      <c r="AG161" s="303"/>
-      <c r="AH161" s="303"/>
-      <c r="AI161" s="303"/>
-      <c r="AJ161" s="303"/>
-      <c r="AK161" s="303"/>
-      <c r="AL161" s="303"/>
-      <c r="AM161" s="303"/>
-      <c r="AN161" s="303"/>
-      <c r="AO161" s="303"/>
-      <c r="AP161" s="303"/>
-      <c r="AQ161" s="303"/>
-      <c r="AR161" s="303"/>
-      <c r="AS161" s="303"/>
-      <c r="AT161" s="303"/>
-      <c r="AU161" s="303"/>
-      <c r="AV161" s="303"/>
-      <c r="AW161" s="386"/>
+      <c r="A161" s="305"/>
+      <c r="B161" s="306"/>
+      <c r="C161" s="306"/>
+      <c r="D161" s="306"/>
+      <c r="E161" s="306"/>
+      <c r="F161" s="306"/>
+      <c r="G161" s="306"/>
+      <c r="H161" s="306"/>
+      <c r="I161" s="306"/>
+      <c r="J161" s="306"/>
+      <c r="K161" s="306"/>
+      <c r="L161" s="306"/>
+      <c r="M161" s="306"/>
+      <c r="N161" s="306"/>
+      <c r="O161" s="306"/>
+      <c r="P161" s="306"/>
+      <c r="Q161" s="306"/>
+      <c r="R161" s="306"/>
+      <c r="S161" s="306"/>
+      <c r="T161" s="306"/>
+      <c r="U161" s="306"/>
+      <c r="V161" s="306"/>
+      <c r="W161" s="306"/>
+      <c r="X161" s="306"/>
+      <c r="Y161" s="306"/>
+      <c r="Z161" s="306"/>
+      <c r="AA161" s="306"/>
+      <c r="AB161" s="306"/>
+      <c r="AC161" s="306"/>
+      <c r="AD161" s="306"/>
+      <c r="AE161" s="306"/>
+      <c r="AF161" s="306"/>
+      <c r="AG161" s="306"/>
+      <c r="AH161" s="306"/>
+      <c r="AI161" s="306"/>
+      <c r="AJ161" s="306"/>
+      <c r="AK161" s="306"/>
+      <c r="AL161" s="306"/>
+      <c r="AM161" s="306"/>
+      <c r="AN161" s="306"/>
+      <c r="AO161" s="306"/>
+      <c r="AP161" s="306"/>
+      <c r="AQ161" s="306"/>
+      <c r="AR161" s="306"/>
+      <c r="AS161" s="306"/>
+      <c r="AT161" s="306"/>
+      <c r="AU161" s="306"/>
+      <c r="AV161" s="306"/>
+      <c r="AW161" s="389"/>
     </row>
   </sheetData>
   <mergeCells count="200">
@@ -25169,8 +25176,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ189"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="Q175" sqref="Q175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -28445,7 +28452,7 @@
       <c r="L59" s="216"/>
       <c r="M59" s="216"/>
       <c r="N59" s="237"/>
-      <c r="O59" s="439" t="s">
+      <c r="O59" s="442" t="s">
         <v>92</v>
       </c>
       <c r="P59" s="216"/>
@@ -29934,7 +29941,7 @@
       <c r="A88" s="79"/>
       <c r="B88" s="189"/>
       <c r="C88" s="135"/>
-      <c r="D88" s="440" t="s">
+      <c r="D88" s="443" t="s">
         <v>115</v>
       </c>
       <c r="E88" s="42"/>
@@ -30362,7 +30369,7 @@
       <c r="A96" s="79"/>
       <c r="B96" s="189"/>
       <c r="C96" s="135"/>
-      <c r="D96" s="440" t="s">
+      <c r="D96" s="443" t="s">
         <v>121</v>
       </c>
       <c r="E96" s="42"/>
@@ -30630,7 +30637,7 @@
       <c r="A101" s="79"/>
       <c r="B101" s="189"/>
       <c r="C101" s="135"/>
-      <c r="D101" s="440" t="s">
+      <c r="D101" s="443" t="s">
         <v>125</v>
       </c>
       <c r="E101" s="42"/>
@@ -33193,7 +33200,7 @@
       <c r="L149" s="216"/>
       <c r="M149" s="216"/>
       <c r="N149" s="237"/>
-      <c r="O149" s="439" t="s">
+      <c r="O149" s="442" t="s">
         <v>92</v>
       </c>
       <c r="P149" s="216"/>
@@ -33434,7 +33441,7 @@
       <c r="H156" s="271"/>
       <c r="I156" s="271"/>
       <c r="J156" s="271"/>
-      <c r="K156" s="295" t="s">
+      <c r="K156" s="298" t="s">
         <v>74</v>
       </c>
       <c r="L156" s="271"/>
@@ -33446,7 +33453,7 @@
       <c r="R156" s="271"/>
       <c r="S156" s="271"/>
       <c r="T156" s="271"/>
-      <c r="U156" s="295" t="s">
+      <c r="U156" s="298" t="s">
         <v>79</v>
       </c>
       <c r="V156" s="271"/>
@@ -33459,13 +33466,13 @@
       <c r="AC156" s="271"/>
       <c r="AD156" s="271"/>
       <c r="AE156" s="271"/>
-      <c r="AF156" s="295" t="s">
+      <c r="AF156" s="298" t="s">
         <v>80</v>
       </c>
       <c r="AG156" s="280"/>
       <c r="AH156" s="271"/>
       <c r="AI156" s="245"/>
-      <c r="AJ156" s="295" t="s">
+      <c r="AJ156" s="298" t="s">
         <v>47</v>
       </c>
       <c r="AK156" s="271"/>
@@ -34027,18 +34034,18 @@
       <c r="AV165" s="292"/>
       <c r="AW165" s="42"/>
       <c r="AX165" s="186"/>
-      <c r="AY165" s="296"/>
-      <c r="AZ165" s="296"/>
-      <c r="BA165" s="296"/>
-      <c r="BB165" s="296"/>
-      <c r="BC165" s="296"/>
-      <c r="BD165" s="296"/>
-      <c r="BE165" s="296"/>
-      <c r="BF165" s="296"/>
-      <c r="BG165" s="296"/>
-      <c r="BH165" s="296"/>
-      <c r="BI165" s="296"/>
-      <c r="BJ165" s="296"/>
+      <c r="AY165" s="299"/>
+      <c r="AZ165" s="299"/>
+      <c r="BA165" s="299"/>
+      <c r="BB165" s="299"/>
+      <c r="BC165" s="299"/>
+      <c r="BD165" s="299"/>
+      <c r="BE165" s="299"/>
+      <c r="BF165" s="299"/>
+      <c r="BG165" s="299"/>
+      <c r="BH165" s="299"/>
+      <c r="BI165" s="299"/>
+      <c r="BJ165" s="299"/>
     </row>
     <row r="166" s="180" customFormat="1" ht="14" customHeight="1" spans="1:50">
       <c r="A166" s="79"/>
@@ -34428,7 +34435,9 @@
       <c r="A173" s="79"/>
       <c r="B173" s="189"/>
       <c r="C173" s="189"/>
-      <c r="D173" s="135"/>
+      <c r="D173" s="294" t="s">
+        <v>155</v>
+      </c>
       <c r="E173" s="42"/>
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
@@ -34534,7 +34543,9 @@
       <c r="A175" s="79"/>
       <c r="B175" s="189"/>
       <c r="C175" s="135"/>
-      <c r="D175" s="42"/>
+      <c r="D175" s="295" t="s">
+        <v>155</v>
+      </c>
       <c r="E175" s="42"/>
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
@@ -34639,7 +34650,9 @@
     <row r="177" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A177" s="79"/>
       <c r="B177" s="189"/>
-      <c r="C177" s="135"/>
+      <c r="C177" s="135" t="s">
+        <v>133</v>
+      </c>
       <c r="D177" s="42"/>
       <c r="E177" s="42"/>
       <c r="F177" s="42"/>
@@ -34691,7 +34704,9 @@
     <row r="178" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A178" s="79"/>
       <c r="B178" s="189"/>
-      <c r="C178" s="135"/>
+      <c r="C178" s="135" t="s">
+        <v>136</v>
+      </c>
       <c r="D178" s="42"/>
       <c r="E178" s="42"/>
       <c r="F178" s="42"/>
@@ -34744,7 +34759,9 @@
       <c r="A179" s="79"/>
       <c r="B179" s="189"/>
       <c r="C179" s="135"/>
-      <c r="D179" s="42"/>
+      <c r="D179" s="295" t="s">
+        <v>155</v>
+      </c>
       <c r="E179" s="42"/>
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
@@ -34795,7 +34812,9 @@
     <row r="180" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A180" s="79"/>
       <c r="B180" s="189"/>
-      <c r="C180" s="135"/>
+      <c r="C180" s="135" t="s">
+        <v>139</v>
+      </c>
       <c r="D180" s="42"/>
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
@@ -34848,7 +34867,9 @@
       <c r="A181" s="79"/>
       <c r="B181" s="189"/>
       <c r="C181" s="135"/>
-      <c r="D181" s="42"/>
+      <c r="D181" s="295" t="s">
+        <v>155</v>
+      </c>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
@@ -34899,7 +34920,9 @@
     <row r="182" s="180" customFormat="1" customHeight="1" spans="1:50">
       <c r="A182" s="79"/>
       <c r="B182" s="189"/>
-      <c r="C182" s="135"/>
+      <c r="C182" s="135" t="s">
+        <v>142</v>
+      </c>
       <c r="D182" s="42"/>
       <c r="E182" s="42"/>
       <c r="F182" s="42"/>
@@ -34952,7 +34975,9 @@
       <c r="A183" s="79"/>
       <c r="B183" s="189"/>
       <c r="C183" s="135"/>
-      <c r="D183" s="42"/>
+      <c r="D183" s="296" t="s">
+        <v>155</v>
+      </c>
       <c r="E183" s="42"/>
       <c r="F183" s="42"/>
       <c r="G183" s="42"/>
@@ -35157,7 +35182,7 @@
       <c r="AX186" s="186"/>
     </row>
     <row r="187" s="180" customFormat="1" customHeight="1" spans="1:50">
-      <c r="A187" s="294"/>
+      <c r="A187" s="297"/>
       <c r="B187" s="189"/>
       <c r="C187" s="135"/>
       <c r="D187" s="42"/>
@@ -35205,7 +35230,7 @@
       <c r="AT187" s="42"/>
       <c r="AU187" s="42"/>
       <c r="AV187" s="42"/>
-      <c r="AW187" s="297"/>
+      <c r="AW187" s="300"/>
       <c r="AX187" s="186"/>
     </row>
     <row r="188" s="180" customFormat="1" customHeight="1" spans="1:49">
@@ -35394,6 +35419,11 @@
   <hyperlinks>
     <hyperlink ref="D169" location="'Xử lý 10.1'!A1" display="(Xem chi tiết)"/>
     <hyperlink ref="D171" location="'Xử lý 10.2'!A1" display="(Xem chi tiết)"/>
+    <hyperlink ref="D173" location="'Xử lý 10.3'!A1" display="(Xem chi tiết)"/>
+    <hyperlink ref="D175" location="'Xử lý 10.4'!A1" display="(Xem chi tiết)"/>
+    <hyperlink ref="D179" location="'Xử lý 10.5'!A1" display="(Xem chi tiết)"/>
+    <hyperlink ref="D181" location="'Xử lý 10.6'!A1" display="(Xem chi tiết)"/>
+    <hyperlink ref="D183" location="'Xử lý 10.7'!A1" display="(Xem chi tiết)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" scale="59" orientation="portrait"/>
@@ -35415,7 +35445,7 @@
   <sheetPr/>
   <dimension ref="A1:BF37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A16" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
@@ -37621,7 +37651,7 @@
   <dimension ref="A1:BF37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -48328,8 +48358,8 @@
   <sheetPr/>
   <dimension ref="A1:BF54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -49671,7 +49701,7 @@
       <c r="V22" s="99"/>
       <c r="W22" s="99"/>
       <c r="X22" s="99"/>
-      <c r="Y22" s="441" t="s">
+      <c r="Y22" s="444" t="s">
         <v>215</v>
       </c>
       <c r="Z22" s="99" t="s">
@@ -49795,7 +49825,7 @@
       <c r="V24" s="99"/>
       <c r="W24" s="99"/>
       <c r="X24" s="99"/>
-      <c r="Y24" s="441" t="s">
+      <c r="Y24" s="444" t="s">
         <v>218</v>
       </c>
       <c r="Z24" s="99" t="s">
@@ -49921,7 +49951,7 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="440" t="s">
+      <c r="Y26" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z26" s="42" t="s">
@@ -49984,7 +50014,7 @@
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
-      <c r="Y27" s="440" t="s">
+      <c r="Y27" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z27" s="42" t="s">
@@ -50046,7 +50076,7 @@
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
-      <c r="Y28" s="440" t="s">
+      <c r="Y28" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z28" s="42" t="s">
@@ -50108,7 +50138,7 @@
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
-      <c r="Y29" s="440" t="s">
+      <c r="Y29" s="443" t="s">
         <v>227</v>
       </c>
       <c r="Z29" s="42" t="s">
@@ -50166,10 +50196,10 @@
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
-      <c r="Y30" s="440" t="s">
+      <c r="Y30" s="443" t="s">
         <v>215</v>
       </c>
-      <c r="Z30" s="440" t="s">
+      <c r="Z30" s="443" t="s">
         <v>230</v>
       </c>
       <c r="AA30" s="42"/>
@@ -50230,7 +50260,7 @@
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
-      <c r="Y31" s="440" t="s">
+      <c r="Y31" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z31" s="42" t="s">
@@ -50355,7 +50385,7 @@
       <c r="V33" s="42"/>
       <c r="W33" s="101"/>
       <c r="X33" s="101"/>
-      <c r="Y33" s="440" t="s">
+      <c r="Y33" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z33" s="82" t="s">
@@ -50419,7 +50449,7 @@
       <c r="V34" s="42"/>
       <c r="W34" s="101"/>
       <c r="X34" s="101"/>
-      <c r="Y34" s="440" t="s">
+      <c r="Y34" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z34" s="82" t="s">
@@ -50543,7 +50573,7 @@
       <c r="V36" s="42"/>
       <c r="W36" s="101"/>
       <c r="X36" s="101"/>
-      <c r="Y36" s="440" t="s">
+      <c r="Y36" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z36" s="82" t="s">
@@ -50607,7 +50637,7 @@
       <c r="V37" s="42"/>
       <c r="W37" s="101"/>
       <c r="X37" s="101"/>
-      <c r="Y37" s="440" t="s">
+      <c r="Y37" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z37" s="82" t="s">
@@ -50671,7 +50701,7 @@
       <c r="V38" s="42"/>
       <c r="W38" s="101"/>
       <c r="X38" s="101"/>
-      <c r="Y38" s="440" t="s">
+      <c r="Y38" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z38" s="82" t="s">
@@ -50735,7 +50765,7 @@
       <c r="V39" s="42"/>
       <c r="W39" s="101"/>
       <c r="X39" s="101"/>
-      <c r="Y39" s="440" t="s">
+      <c r="Y39" s="443" t="s">
         <v>227</v>
       </c>
       <c r="Z39" s="82" t="s">
@@ -50799,7 +50829,7 @@
       <c r="V40" s="42"/>
       <c r="W40" s="101"/>
       <c r="X40" s="101"/>
-      <c r="Y40" s="440" t="s">
+      <c r="Y40" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z40" s="82" t="s">
@@ -50923,7 +50953,7 @@
       <c r="V42" s="42"/>
       <c r="W42" s="101"/>
       <c r="X42" s="101"/>
-      <c r="Y42" s="440" t="s">
+      <c r="Y42" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z42" s="82" t="s">
@@ -50987,7 +51017,7 @@
       <c r="V43" s="42"/>
       <c r="W43" s="101"/>
       <c r="X43" s="101"/>
-      <c r="Y43" s="440" t="s">
+      <c r="Y43" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z43" s="82" t="s">
@@ -51051,7 +51081,7 @@
       <c r="V44" s="42"/>
       <c r="W44" s="101"/>
       <c r="X44" s="101"/>
-      <c r="Y44" s="440" t="s">
+      <c r="Y44" s="443" t="s">
         <v>227</v>
       </c>
       <c r="Z44" s="82" t="s">
@@ -51115,7 +51145,7 @@
       <c r="V45" s="42"/>
       <c r="W45" s="101"/>
       <c r="X45" s="101"/>
-      <c r="Y45" s="440" t="s">
+      <c r="Y45" s="443" t="s">
         <v>215</v>
       </c>
       <c r="Z45" s="82" t="s">
@@ -51393,7 +51423,7 @@
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="442" t="s">
+      <c r="F50" s="445" t="s">
         <v>257</v>
       </c>
       <c r="G50" s="44"/>
@@ -51453,7 +51483,7 @@
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="E51" s="45"/>
-      <c r="F51" s="442" t="s">
+      <c r="F51" s="445" t="s">
         <v>258</v>
       </c>
       <c r="G51" s="44"/>

--- a/Week2/ManHinhChiTiet/ReservationTab.xlsx
+++ b/Week2/ManHinhChiTiet/ReservationTab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16895" windowHeight="9024" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="278">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -669,6 +669,9 @@
     <t>2 người</t>
   </si>
   <si>
+    <t>Mặc định</t>
+  </si>
+  <si>
     <t>Ngày hiện tại(dd/MM/yyyy)</t>
   </si>
   <si>
@@ -679,9 +682,6 @@
   </si>
   <si>
     <t>tableTypes[0].name</t>
-  </si>
-  <si>
-    <t>selectedTableType.name</t>
   </si>
   <si>
     <t>Thoát</t>
@@ -726,16 +726,22 @@
     <t>"Vui lòng nhập số người"</t>
   </si>
   <si>
-    <t>Tripwfmh jpw[</t>
-  </si>
-  <si>
-    <t>Trường hợp không đúng định dạng là số</t>
+    <t>Trường hợp số người &lt;= 0</t>
   </si>
   <si>
     <t>VALIDATE_PEOPLE_E002</t>
   </si>
   <si>
     <t>"Chỉ được nhập số"</t>
+  </si>
+  <si>
+    <t>Trường hợp không đúng định dạng là số</t>
+  </si>
+  <si>
+    <t>VALIDATE_PEOPLE_E003</t>
+  </si>
+  <si>
+    <t>"Số người lớn hơn 0"</t>
   </si>
   <si>
     <t>Nếu thoả mãn, hiển thị số người đã nhập ra view Tab soạn yêu cầu.</t>
@@ -2593,7 +2599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="481">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4045,10 +4051,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -21259,7 +21261,7 @@
     <row r="86" s="171" customFormat="1" customHeight="1" spans="1:49">
       <c r="A86" s="79"/>
       <c r="B86" s="172"/>
-      <c r="C86" s="481" t="s">
+      <c r="C86" s="480" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="42"/>
@@ -21312,7 +21314,7 @@
     <row r="87" s="171" customFormat="1" customHeight="1" spans="1:49">
       <c r="A87" s="79"/>
       <c r="B87" s="172"/>
-      <c r="C87" s="481" t="s">
+      <c r="C87" s="480" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="42"/>
@@ -21365,7 +21367,7 @@
     <row r="88" s="171" customFormat="1" customHeight="1" spans="1:49">
       <c r="A88" s="79"/>
       <c r="B88" s="172"/>
-      <c r="C88" s="481" t="s">
+      <c r="C88" s="480" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="42"/>
@@ -24456,8 +24458,8 @@
       <c r="H147" s="457"/>
       <c r="I147" s="457"/>
       <c r="J147" s="457"/>
-      <c r="K147" s="472"/>
-      <c r="L147" s="473" t="s">
+      <c r="K147" s="471"/>
+      <c r="L147" s="472" t="s">
         <v>50</v>
       </c>
       <c r="M147" s="457"/>
@@ -24468,7 +24470,7 @@
       <c r="R147" s="457"/>
       <c r="S147" s="457"/>
       <c r="T147" s="457"/>
-      <c r="U147" s="478"/>
+      <c r="U147" s="477"/>
       <c r="V147" s="454" t="s">
         <v>51</v>
       </c>
@@ -24497,7 +24499,7 @@
       <c r="AS147" s="457"/>
       <c r="AT147" s="457"/>
       <c r="AU147" s="457"/>
-      <c r="AV147" s="478"/>
+      <c r="AV147" s="477"/>
       <c r="AW147" s="204"/>
     </row>
     <row r="148" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24517,8 +24519,8 @@
       <c r="H148" s="462"/>
       <c r="I148" s="462"/>
       <c r="J148" s="462"/>
-      <c r="K148" s="474"/>
-      <c r="L148" s="475" t="s">
+      <c r="K148" s="473"/>
+      <c r="L148" s="474" t="s">
         <v>53</v>
       </c>
       <c r="M148" s="462"/>
@@ -24529,7 +24531,7 @@
       <c r="R148" s="462"/>
       <c r="S148" s="462"/>
       <c r="T148" s="462"/>
-      <c r="U148" s="479"/>
+      <c r="U148" s="478"/>
       <c r="V148" s="459" t="s">
         <v>51</v>
       </c>
@@ -24558,7 +24560,7 @@
       <c r="AS148" s="462"/>
       <c r="AT148" s="462"/>
       <c r="AU148" s="462"/>
-      <c r="AV148" s="479"/>
+      <c r="AV148" s="478"/>
       <c r="AW148" s="204"/>
     </row>
     <row r="149" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24578,8 +24580,8 @@
       <c r="H149" s="462"/>
       <c r="I149" s="462"/>
       <c r="J149" s="462"/>
-      <c r="K149" s="474"/>
-      <c r="L149" s="475" t="s">
+      <c r="K149" s="473"/>
+      <c r="L149" s="474" t="s">
         <v>55</v>
       </c>
       <c r="M149" s="462"/>
@@ -24590,7 +24592,7 @@
       <c r="R149" s="462"/>
       <c r="S149" s="462"/>
       <c r="T149" s="462"/>
-      <c r="U149" s="479"/>
+      <c r="U149" s="478"/>
       <c r="V149" s="459" t="s">
         <v>51</v>
       </c>
@@ -24619,7 +24621,7 @@
       <c r="AS149" s="462"/>
       <c r="AT149" s="462"/>
       <c r="AU149" s="462"/>
-      <c r="AV149" s="479"/>
+      <c r="AV149" s="478"/>
       <c r="AW149" s="204"/>
     </row>
     <row r="150" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24639,8 +24641,8 @@
       <c r="H150" s="462"/>
       <c r="I150" s="462"/>
       <c r="J150" s="462"/>
-      <c r="K150" s="474"/>
-      <c r="L150" s="475" t="s">
+      <c r="K150" s="473"/>
+      <c r="L150" s="474" t="s">
         <v>57</v>
       </c>
       <c r="M150" s="462"/>
@@ -24651,7 +24653,7 @@
       <c r="R150" s="462"/>
       <c r="S150" s="462"/>
       <c r="T150" s="462"/>
-      <c r="U150" s="479"/>
+      <c r="U150" s="478"/>
       <c r="V150" s="459" t="s">
         <v>51</v>
       </c>
@@ -24680,7 +24682,7 @@
       <c r="AS150" s="462"/>
       <c r="AT150" s="462"/>
       <c r="AU150" s="462"/>
-      <c r="AV150" s="479"/>
+      <c r="AV150" s="478"/>
       <c r="AW150" s="204"/>
     </row>
     <row r="151" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24700,8 +24702,8 @@
       <c r="H151" s="462"/>
       <c r="I151" s="462"/>
       <c r="J151" s="462"/>
-      <c r="K151" s="474"/>
-      <c r="L151" s="475" t="s">
+      <c r="K151" s="473"/>
+      <c r="L151" s="474" t="s">
         <v>60</v>
       </c>
       <c r="M151" s="462"/>
@@ -24712,7 +24714,7 @@
       <c r="R151" s="462"/>
       <c r="S151" s="462"/>
       <c r="T151" s="462"/>
-      <c r="U151" s="479"/>
+      <c r="U151" s="478"/>
       <c r="V151" s="459" t="s">
         <v>51</v>
       </c>
@@ -24741,7 +24743,7 @@
       <c r="AS151" s="462"/>
       <c r="AT151" s="462"/>
       <c r="AU151" s="462"/>
-      <c r="AV151" s="479"/>
+      <c r="AV151" s="478"/>
       <c r="AW151" s="204"/>
     </row>
     <row r="152" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24761,8 +24763,8 @@
       <c r="H152" s="466"/>
       <c r="I152" s="466"/>
       <c r="J152" s="466"/>
-      <c r="K152" s="476"/>
-      <c r="L152" s="477" t="s">
+      <c r="K152" s="475"/>
+      <c r="L152" s="476" t="s">
         <v>62</v>
       </c>
       <c r="M152" s="466"/>
@@ -24773,7 +24775,7 @@
       <c r="R152" s="466"/>
       <c r="S152" s="466"/>
       <c r="T152" s="466"/>
-      <c r="U152" s="480"/>
+      <c r="U152" s="479"/>
       <c r="V152" s="463" t="s">
         <v>51</v>
       </c>
@@ -24802,7 +24804,7 @@
       <c r="AS152" s="466"/>
       <c r="AT152" s="466"/>
       <c r="AU152" s="466"/>
-      <c r="AV152" s="480"/>
+      <c r="AV152" s="479"/>
       <c r="AW152" s="204"/>
     </row>
     <row r="153" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24822,8 +24824,8 @@
       <c r="H153" s="466"/>
       <c r="I153" s="466"/>
       <c r="J153" s="466"/>
-      <c r="K153" s="476"/>
-      <c r="L153" s="477" t="s">
+      <c r="K153" s="475"/>
+      <c r="L153" s="476" t="s">
         <v>64</v>
       </c>
       <c r="M153" s="466"/>
@@ -24834,7 +24836,7 @@
       <c r="R153" s="466"/>
       <c r="S153" s="466"/>
       <c r="T153" s="466"/>
-      <c r="U153" s="480"/>
+      <c r="U153" s="479"/>
       <c r="V153" s="463" t="s">
         <v>51</v>
       </c>
@@ -24863,7 +24865,7 @@
       <c r="AS153" s="466"/>
       <c r="AT153" s="466"/>
       <c r="AU153" s="466"/>
-      <c r="AV153" s="480"/>
+      <c r="AV153" s="479"/>
       <c r="AW153" s="204"/>
     </row>
     <row r="154" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24883,8 +24885,8 @@
       <c r="H154" s="466"/>
       <c r="I154" s="466"/>
       <c r="J154" s="466"/>
-      <c r="K154" s="476"/>
-      <c r="L154" s="477" t="s">
+      <c r="K154" s="475"/>
+      <c r="L154" s="476" t="s">
         <v>66</v>
       </c>
       <c r="M154" s="466"/>
@@ -24895,7 +24897,7 @@
       <c r="R154" s="466"/>
       <c r="S154" s="466"/>
       <c r="T154" s="466"/>
-      <c r="U154" s="480"/>
+      <c r="U154" s="479"/>
       <c r="V154" s="463" t="s">
         <v>67</v>
       </c>
@@ -24924,7 +24926,7 @@
       <c r="AS154" s="466"/>
       <c r="AT154" s="466"/>
       <c r="AU154" s="466"/>
-      <c r="AV154" s="480"/>
+      <c r="AV154" s="479"/>
       <c r="AW154" s="204"/>
     </row>
     <row r="155" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -24944,8 +24946,8 @@
       <c r="H155" s="466"/>
       <c r="I155" s="466"/>
       <c r="J155" s="466"/>
-      <c r="K155" s="476"/>
-      <c r="L155" s="477" t="s">
+      <c r="K155" s="475"/>
+      <c r="L155" s="476" t="s">
         <v>69</v>
       </c>
       <c r="M155" s="466"/>
@@ -24956,7 +24958,7 @@
       <c r="R155" s="466"/>
       <c r="S155" s="466"/>
       <c r="T155" s="466"/>
-      <c r="U155" s="480"/>
+      <c r="U155" s="479"/>
       <c r="V155" s="463" t="s">
         <v>67</v>
       </c>
@@ -24985,7 +24987,7 @@
       <c r="AS155" s="466"/>
       <c r="AT155" s="466"/>
       <c r="AU155" s="466"/>
-      <c r="AV155" s="480"/>
+      <c r="AV155" s="479"/>
       <c r="AW155" s="204"/>
     </row>
     <row r="156" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -25005,8 +25007,8 @@
       <c r="H156" s="466"/>
       <c r="I156" s="466"/>
       <c r="J156" s="466"/>
-      <c r="K156" s="476"/>
-      <c r="L156" s="477" t="s">
+      <c r="K156" s="475"/>
+      <c r="L156" s="476" t="s">
         <v>69</v>
       </c>
       <c r="M156" s="466"/>
@@ -25017,7 +25019,7 @@
       <c r="R156" s="466"/>
       <c r="S156" s="466"/>
       <c r="T156" s="466"/>
-      <c r="U156" s="480"/>
+      <c r="U156" s="479"/>
       <c r="V156" s="463" t="s">
         <v>67</v>
       </c>
@@ -25046,14 +25048,14 @@
       <c r="AS156" s="466"/>
       <c r="AT156" s="466"/>
       <c r="AU156" s="466"/>
-      <c r="AV156" s="480"/>
+      <c r="AV156" s="479"/>
       <c r="AW156" s="204"/>
     </row>
     <row r="157" s="171" customFormat="1" customHeight="1" spans="1:49">
       <c r="A157" s="79"/>
       <c r="B157" s="172"/>
       <c r="C157" s="135"/>
-      <c r="D157" s="468">
+      <c r="D157" s="467">
         <v>11</v>
       </c>
       <c r="E157" s="463" t="s">
@@ -25066,8 +25068,8 @@
       <c r="H157" s="466"/>
       <c r="I157" s="466"/>
       <c r="J157" s="466"/>
-      <c r="K157" s="476"/>
-      <c r="L157" s="477" t="s">
+      <c r="K157" s="475"/>
+      <c r="L157" s="476" t="s">
         <v>69</v>
       </c>
       <c r="M157" s="466"/>
@@ -25078,7 +25080,7 @@
       <c r="R157" s="466"/>
       <c r="S157" s="466"/>
       <c r="T157" s="466"/>
-      <c r="U157" s="480"/>
+      <c r="U157" s="479"/>
       <c r="V157" s="463" t="s">
         <v>67</v>
       </c>
@@ -25107,58 +25109,58 @@
       <c r="AS157" s="466"/>
       <c r="AT157" s="466"/>
       <c r="AU157" s="466"/>
-      <c r="AV157" s="480"/>
+      <c r="AV157" s="479"/>
       <c r="AW157" s="204"/>
     </row>
     <row r="158" s="171" customFormat="1" customHeight="1" spans="1:49">
       <c r="A158" s="79"/>
       <c r="B158" s="172"/>
       <c r="C158" s="135"/>
-      <c r="D158" s="469"/>
-      <c r="E158" s="470"/>
-      <c r="F158" s="470"/>
+      <c r="D158" s="468"/>
+      <c r="E158" s="469"/>
+      <c r="F158" s="469"/>
       <c r="G158" s="314"/>
-      <c r="H158" s="471"/>
-      <c r="I158" s="471"/>
-      <c r="J158" s="471"/>
-      <c r="K158" s="471"/>
-      <c r="L158" s="471"/>
-      <c r="M158" s="471"/>
-      <c r="N158" s="471"/>
-      <c r="O158" s="471"/>
-      <c r="P158" s="471"/>
-      <c r="Q158" s="471"/>
-      <c r="R158" s="471"/>
-      <c r="S158" s="471"/>
-      <c r="T158" s="471"/>
-      <c r="U158" s="471"/>
-      <c r="V158" s="470"/>
-      <c r="W158" s="470"/>
-      <c r="X158" s="471"/>
-      <c r="Y158" s="471"/>
-      <c r="Z158" s="471"/>
-      <c r="AA158" s="471"/>
-      <c r="AB158" s="471"/>
-      <c r="AC158" s="471"/>
-      <c r="AD158" s="471"/>
-      <c r="AE158" s="471"/>
-      <c r="AF158" s="471"/>
-      <c r="AG158" s="471"/>
-      <c r="AH158" s="471"/>
-      <c r="AI158" s="471"/>
-      <c r="AJ158" s="471"/>
-      <c r="AK158" s="471"/>
-      <c r="AL158" s="471"/>
-      <c r="AM158" s="471"/>
-      <c r="AN158" s="471"/>
-      <c r="AO158" s="471"/>
-      <c r="AP158" s="471"/>
-      <c r="AQ158" s="471"/>
-      <c r="AR158" s="471"/>
-      <c r="AS158" s="471"/>
-      <c r="AT158" s="471"/>
-      <c r="AU158" s="471"/>
-      <c r="AV158" s="471"/>
+      <c r="H158" s="470"/>
+      <c r="I158" s="470"/>
+      <c r="J158" s="470"/>
+      <c r="K158" s="470"/>
+      <c r="L158" s="470"/>
+      <c r="M158" s="470"/>
+      <c r="N158" s="470"/>
+      <c r="O158" s="470"/>
+      <c r="P158" s="470"/>
+      <c r="Q158" s="470"/>
+      <c r="R158" s="470"/>
+      <c r="S158" s="470"/>
+      <c r="T158" s="470"/>
+      <c r="U158" s="470"/>
+      <c r="V158" s="469"/>
+      <c r="W158" s="469"/>
+      <c r="X158" s="470"/>
+      <c r="Y158" s="470"/>
+      <c r="Z158" s="470"/>
+      <c r="AA158" s="470"/>
+      <c r="AB158" s="470"/>
+      <c r="AC158" s="470"/>
+      <c r="AD158" s="470"/>
+      <c r="AE158" s="470"/>
+      <c r="AF158" s="470"/>
+      <c r="AG158" s="470"/>
+      <c r="AH158" s="470"/>
+      <c r="AI158" s="470"/>
+      <c r="AJ158" s="470"/>
+      <c r="AK158" s="470"/>
+      <c r="AL158" s="470"/>
+      <c r="AM158" s="470"/>
+      <c r="AN158" s="470"/>
+      <c r="AO158" s="470"/>
+      <c r="AP158" s="470"/>
+      <c r="AQ158" s="470"/>
+      <c r="AR158" s="470"/>
+      <c r="AS158" s="470"/>
+      <c r="AT158" s="470"/>
+      <c r="AU158" s="470"/>
+      <c r="AV158" s="470"/>
       <c r="AW158" s="204"/>
     </row>
     <row r="159" s="171" customFormat="1" customHeight="1" spans="1:49">
@@ -25581,8 +25583,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ189"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="AF154" sqref="AF154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -28857,7 +28859,7 @@
       <c r="L59" s="257"/>
       <c r="M59" s="257"/>
       <c r="N59" s="278"/>
-      <c r="O59" s="482" t="s">
+      <c r="O59" s="481" t="s">
         <v>96</v>
       </c>
       <c r="P59" s="257"/>
@@ -30346,7 +30348,7 @@
       <c r="A88" s="79"/>
       <c r="B88" s="172"/>
       <c r="C88" s="135"/>
-      <c r="D88" s="483" t="s">
+      <c r="D88" s="482" t="s">
         <v>119</v>
       </c>
       <c r="E88" s="42"/>
@@ -30774,7 +30776,7 @@
       <c r="A96" s="79"/>
       <c r="B96" s="172"/>
       <c r="C96" s="135"/>
-      <c r="D96" s="483" t="s">
+      <c r="D96" s="482" t="s">
         <v>125</v>
       </c>
       <c r="E96" s="42"/>
@@ -31042,7 +31044,7 @@
       <c r="A101" s="79"/>
       <c r="B101" s="172"/>
       <c r="C101" s="135"/>
-      <c r="D101" s="483" t="s">
+      <c r="D101" s="482" t="s">
         <v>129</v>
       </c>
       <c r="E101" s="42"/>
@@ -33605,7 +33607,7 @@
       <c r="L149" s="257"/>
       <c r="M149" s="257"/>
       <c r="N149" s="278"/>
-      <c r="O149" s="482" t="s">
+      <c r="O149" s="481" t="s">
         <v>96</v>
       </c>
       <c r="P149" s="257"/>
@@ -33922,7 +33924,9 @@
       <c r="R157" s="317"/>
       <c r="S157" s="317"/>
       <c r="T157" s="323"/>
-      <c r="U157" s="322"/>
+      <c r="U157" s="322" t="s">
+        <v>151</v>
+      </c>
       <c r="V157" s="317"/>
       <c r="W157" s="317"/>
       <c r="X157" s="317"/>
@@ -33971,7 +33975,7 @@
       <c r="I158" s="317"/>
       <c r="J158" s="323"/>
       <c r="K158" s="316" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L158" s="317"/>
       <c r="M158" s="317"/>
@@ -33982,7 +33986,9 @@
       <c r="R158" s="317"/>
       <c r="S158" s="317"/>
       <c r="T158" s="323"/>
-      <c r="U158" s="317"/>
+      <c r="U158" s="317" t="s">
+        <v>151</v>
+      </c>
       <c r="V158" s="317"/>
       <c r="W158" s="317"/>
       <c r="X158" s="317"/>
@@ -34031,7 +34037,7 @@
       <c r="I159" s="317"/>
       <c r="J159" s="323"/>
       <c r="K159" s="317" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L159" s="317"/>
       <c r="M159" s="317"/>
@@ -34042,7 +34048,9 @@
       <c r="R159" s="317"/>
       <c r="S159" s="317"/>
       <c r="T159" s="323"/>
-      <c r="U159" s="317"/>
+      <c r="U159" s="317" t="s">
+        <v>151</v>
+      </c>
       <c r="V159" s="317"/>
       <c r="W159" s="317"/>
       <c r="X159" s="317"/>
@@ -34091,7 +34099,7 @@
       <c r="I160" s="317"/>
       <c r="J160" s="323"/>
       <c r="K160" s="317" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L160" s="317"/>
       <c r="M160" s="317"/>
@@ -34103,7 +34111,7 @@
       <c r="S160" s="317"/>
       <c r="T160" s="323"/>
       <c r="U160" s="317" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V160" s="317"/>
       <c r="W160" s="317"/>
@@ -34121,9 +34129,7 @@
       <c r="AG160" s="317"/>
       <c r="AH160" s="317"/>
       <c r="AI160" s="323"/>
-      <c r="AJ160" s="317" t="s">
-        <v>155</v>
-      </c>
+      <c r="AJ160" s="317"/>
       <c r="AK160" s="317"/>
       <c r="AL160" s="317"/>
       <c r="AM160" s="317"/>
@@ -34346,7 +34352,9 @@
       <c r="R164" s="317"/>
       <c r="S164" s="317"/>
       <c r="T164" s="323"/>
-      <c r="U164" s="316"/>
+      <c r="U164" s="316" t="s">
+        <v>87</v>
+      </c>
       <c r="V164" s="328"/>
       <c r="W164" s="328"/>
       <c r="X164" s="328"/>
@@ -35850,8 +35858,8 @@
   <sheetPr/>
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -37613,7 +37621,9 @@
       <c r="AH29" s="223"/>
       <c r="AI29" s="223"/>
       <c r="AJ29" s="224"/>
-      <c r="AK29" s="127"/>
+      <c r="AK29" s="127" t="s">
+        <v>171</v>
+      </c>
       <c r="AL29" s="225"/>
       <c r="AM29" s="225"/>
       <c r="AN29" s="225"/>
@@ -37626,7 +37636,9 @@
       <c r="AU29" s="225"/>
       <c r="AV29" s="226"/>
       <c r="AW29" s="163"/>
-      <c r="AY29" s="217"/>
+      <c r="AY29" s="217" t="s">
+        <v>172</v>
+      </c>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
@@ -37654,7 +37666,7 @@
       <c r="M30" s="210"/>
       <c r="N30" s="211"/>
       <c r="O30" s="208" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P30" s="209"/>
       <c r="Q30" s="209"/>
@@ -37678,7 +37690,7 @@
       <c r="AI30" s="212"/>
       <c r="AJ30" s="213"/>
       <c r="AK30" s="214" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL30" s="215"/>
       <c r="AM30" s="215"/>
@@ -37693,7 +37705,7 @@
       <c r="AV30" s="216"/>
       <c r="AW30" s="163"/>
       <c r="AY30" s="217" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
@@ -37709,7 +37721,7 @@
       <c r="C31" s="13"/>
       <c r="E31" s="40"/>
       <c r="F31" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -37826,7 +37838,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="E33" s="40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -37887,7 +37899,7 @@
       <c r="C34" s="13"/>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -38469,7 +38481,7 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
@@ -38531,7 +38543,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14"/>
@@ -38592,7 +38604,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="4"/>
@@ -39546,7 +39558,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -39607,7 +39619,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -39788,7 +39800,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -39798,7 +39810,7 @@
       <c r="M29" s="60"/>
       <c r="N29" s="61"/>
       <c r="O29" s="62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
@@ -39822,7 +39834,7 @@
       <c r="AI29" s="96"/>
       <c r="AJ29" s="126"/>
       <c r="AK29" s="127" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL29" s="128"/>
       <c r="AM29" s="128"/>
@@ -39837,7 +39849,7 @@
       <c r="AV29" s="152"/>
       <c r="AW29" s="163"/>
       <c r="AY29" s="217" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
@@ -39911,7 +39923,7 @@
       <c r="C31" s="13"/>
       <c r="E31" s="40"/>
       <c r="F31" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -40028,7 +40040,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="E33" s="40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -40089,7 +40101,7 @@
       <c r="C34" s="13"/>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -40722,7 +40734,7 @@
       <c r="B7" s="172"/>
       <c r="C7" s="135"/>
       <c r="D7" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="42"/>
@@ -40783,7 +40795,7 @@
       <c r="B8" s="172"/>
       <c r="C8" s="135"/>
       <c r="D8" s="42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E8" s="173"/>
       <c r="F8" s="171"/>
@@ -41737,7 +41749,7 @@
       <c r="C25" s="135"/>
       <c r="D25" s="42"/>
       <c r="E25" s="43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -41798,7 +41810,7 @@
       <c r="C26" s="135"/>
       <c r="D26" s="42"/>
       <c r="E26" s="43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -41982,7 +41994,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="179" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H29" s="180"/>
       <c r="I29" s="180"/>
@@ -41992,7 +42004,7 @@
       <c r="M29" s="74"/>
       <c r="N29" s="185"/>
       <c r="O29" s="186" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P29" s="187"/>
       <c r="Q29" s="187"/>
@@ -42016,7 +42028,7 @@
       <c r="AI29" s="187"/>
       <c r="AJ29" s="195"/>
       <c r="AK29" s="196" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL29" s="197"/>
       <c r="AM29" s="197"/>
@@ -42032,7 +42044,7 @@
       <c r="AW29" s="204"/>
       <c r="AX29" s="42"/>
       <c r="AY29" s="205" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AZ29" s="42"/>
       <c r="BA29" s="42"/>
@@ -42107,7 +42119,7 @@
       <c r="C31" s="135"/>
       <c r="E31" s="43"/>
       <c r="F31" s="42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -42224,7 +42236,7 @@
       <c r="B33" s="172"/>
       <c r="C33" s="135"/>
       <c r="E33" s="43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -42285,7 +42297,7 @@
       <c r="C34" s="135"/>
       <c r="E34" s="173"/>
       <c r="F34" s="42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
@@ -42918,7 +42930,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -42978,7 +42990,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="14"/>
@@ -43037,7 +43049,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
@@ -43099,7 +43111,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="4"/>
@@ -43160,7 +43172,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="4"/>
@@ -44054,7 +44066,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="E27" s="40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -44677,7 +44689,7 @@
   <sheetPr/>
   <dimension ref="A1:BF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
@@ -45027,7 +45039,7 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
@@ -45088,7 +45100,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D7" s="14"/>
       <c r="F7" s="14"/>
@@ -45149,7 +45161,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -45208,7 +45220,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D9" s="15"/>
       <c r="F9" s="14"/>
@@ -45269,7 +45281,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14"/>
@@ -45330,7 +45342,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="4"/>
@@ -45974,7 +45986,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="E22" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AW22" s="163"/>
       <c r="AY22" s="4"/>
@@ -45992,7 +46004,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -46051,7 +46063,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14"/>
       <c r="E24" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -46113,7 +46125,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="40"/>
       <c r="F25" s="14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -46173,7 +46185,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -46234,7 +46246,7 @@
       <c r="C27" s="13"/>
       <c r="E27" s="40"/>
       <c r="F27" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -47206,7 +47218,7 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
@@ -47268,7 +47280,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14"/>
@@ -47329,7 +47341,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="4"/>
@@ -47973,7 +47985,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="E19" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AW19" s="163"/>
       <c r="AY19" s="4"/>
@@ -49257,7 +49269,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
@@ -49319,7 +49331,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
@@ -49379,7 +49391,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
@@ -49578,7 +49590,7 @@
       <c r="L12" s="60"/>
       <c r="M12" s="61"/>
       <c r="N12" s="62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
@@ -49602,7 +49614,7 @@
       <c r="AH12" s="96"/>
       <c r="AI12" s="126"/>
       <c r="AJ12" s="127" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK12" s="128"/>
       <c r="AL12" s="128"/>
@@ -49985,7 +49997,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
@@ -50106,7 +50118,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -50117,7 +50129,7 @@
       <c r="L21" s="35"/>
       <c r="M21" s="70"/>
       <c r="N21" s="71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
@@ -50179,7 +50191,7 @@
       <c r="L22" s="37"/>
       <c r="M22" s="73"/>
       <c r="N22" s="74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O22" s="74"/>
       <c r="P22" s="74"/>
@@ -50191,11 +50203,11 @@
       <c r="V22" s="99"/>
       <c r="W22" s="99"/>
       <c r="X22" s="99"/>
-      <c r="Y22" s="484" t="s">
-        <v>227</v>
+      <c r="Y22" s="483" t="s">
+        <v>229</v>
       </c>
       <c r="Z22" s="99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA22" s="99"/>
       <c r="AB22" s="99"/>
@@ -50303,7 +50315,7 @@
       <c r="L24" s="37"/>
       <c r="M24" s="73"/>
       <c r="N24" s="74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O24" s="74"/>
       <c r="P24" s="74"/>
@@ -50315,11 +50327,11 @@
       <c r="V24" s="99"/>
       <c r="W24" s="99"/>
       <c r="X24" s="99"/>
-      <c r="Y24" s="484" t="s">
-        <v>230</v>
+      <c r="Y24" s="483" t="s">
+        <v>232</v>
       </c>
       <c r="Z24" s="99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AA24" s="99"/>
       <c r="AB24" s="99"/>
@@ -50429,7 +50441,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="73"/>
       <c r="N26" s="79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
@@ -50441,11 +50453,11 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="483" t="s">
-        <v>227</v>
+      <c r="Y26" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z26" s="42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA26" s="42"/>
       <c r="AB26" s="42"/>
@@ -50494,7 +50506,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="73"/>
       <c r="N27" s="79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -50504,11 +50516,11 @@
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
-      <c r="Y27" s="483" t="s">
-        <v>227</v>
+      <c r="Y27" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z27" s="42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AA27" s="42"/>
       <c r="AB27" s="42"/>
@@ -50556,7 +50568,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="73"/>
       <c r="N28" s="79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
@@ -50566,11 +50578,11 @@
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
-      <c r="Y28" s="483" t="s">
-        <v>227</v>
+      <c r="Y28" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z28" s="42" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AA28" s="42"/>
       <c r="AB28" s="42"/>
@@ -50618,7 +50630,7 @@
       <c r="L29" s="37"/>
       <c r="M29" s="73"/>
       <c r="N29" s="79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -50628,11 +50640,11 @@
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
-      <c r="Y29" s="483" t="s">
-        <v>239</v>
+      <c r="Y29" s="482" t="s">
+        <v>241</v>
       </c>
       <c r="Z29" s="42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AA29" s="42"/>
       <c r="AB29" s="42"/>
@@ -50676,7 +50688,7 @@
       <c r="L30" s="37"/>
       <c r="M30" s="73"/>
       <c r="N30" s="79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
@@ -50686,11 +50698,11 @@
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
-      <c r="Y30" s="483" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z30" s="483" t="s">
-        <v>242</v>
+      <c r="Y30" s="482" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z30" s="482" t="s">
+        <v>244</v>
       </c>
       <c r="AA30" s="42"/>
       <c r="AB30" s="42"/>
@@ -50740,7 +50752,7 @@
       <c r="L31" s="37"/>
       <c r="M31" s="73"/>
       <c r="N31" s="79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
@@ -50750,11 +50762,11 @@
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
-      <c r="Y31" s="483" t="s">
-        <v>227</v>
+      <c r="Y31" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z31" s="42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA31" s="42"/>
       <c r="AB31" s="42"/>
@@ -50863,7 +50875,7 @@
       <c r="L33" s="37"/>
       <c r="M33" s="73"/>
       <c r="N33" s="80" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O33" s="81"/>
       <c r="P33" s="82"/>
@@ -50875,11 +50887,11 @@
       <c r="V33" s="42"/>
       <c r="W33" s="101"/>
       <c r="X33" s="101"/>
-      <c r="Y33" s="483" t="s">
-        <v>227</v>
+      <c r="Y33" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z33" s="82" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA33" s="82"/>
       <c r="AB33" s="82"/>
@@ -50927,7 +50939,7 @@
       <c r="L34" s="37"/>
       <c r="M34" s="73"/>
       <c r="N34" s="80" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O34" s="81"/>
       <c r="P34" s="82"/>
@@ -50939,11 +50951,11 @@
       <c r="V34" s="42"/>
       <c r="W34" s="101"/>
       <c r="X34" s="101"/>
-      <c r="Y34" s="483" t="s">
-        <v>227</v>
+      <c r="Y34" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z34" s="82" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AA34" s="82"/>
       <c r="AB34" s="82"/>
@@ -51051,7 +51063,7 @@
       <c r="L36" s="37"/>
       <c r="M36" s="73"/>
       <c r="N36" s="80" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O36" s="81"/>
       <c r="P36" s="82"/>
@@ -51063,11 +51075,11 @@
       <c r="V36" s="42"/>
       <c r="W36" s="101"/>
       <c r="X36" s="101"/>
-      <c r="Y36" s="483" t="s">
-        <v>227</v>
+      <c r="Y36" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z36" s="82" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA36" s="82"/>
       <c r="AB36" s="82"/>
@@ -51115,7 +51127,7 @@
       <c r="L37" s="37"/>
       <c r="M37" s="73"/>
       <c r="N37" s="80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O37" s="81"/>
       <c r="P37" s="82"/>
@@ -51127,11 +51139,11 @@
       <c r="V37" s="42"/>
       <c r="W37" s="101"/>
       <c r="X37" s="101"/>
-      <c r="Y37" s="483" t="s">
-        <v>227</v>
+      <c r="Y37" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z37" s="82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA37" s="82"/>
       <c r="AB37" s="82"/>
@@ -51179,7 +51191,7 @@
       <c r="L38" s="37"/>
       <c r="M38" s="73"/>
       <c r="N38" s="80" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O38" s="81"/>
       <c r="P38" s="82"/>
@@ -51191,11 +51203,11 @@
       <c r="V38" s="42"/>
       <c r="W38" s="101"/>
       <c r="X38" s="101"/>
-      <c r="Y38" s="483" t="s">
-        <v>227</v>
+      <c r="Y38" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z38" s="82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA38" s="82"/>
       <c r="AB38" s="82"/>
@@ -51243,7 +51255,7 @@
       <c r="L39" s="37"/>
       <c r="M39" s="73"/>
       <c r="N39" s="80" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O39" s="81"/>
       <c r="P39" s="82"/>
@@ -51255,11 +51267,11 @@
       <c r="V39" s="42"/>
       <c r="W39" s="101"/>
       <c r="X39" s="101"/>
-      <c r="Y39" s="483" t="s">
-        <v>239</v>
+      <c r="Y39" s="482" t="s">
+        <v>241</v>
       </c>
       <c r="Z39" s="82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AA39" s="82"/>
       <c r="AB39" s="82"/>
@@ -51307,7 +51319,7 @@
       <c r="L40" s="37"/>
       <c r="M40" s="73"/>
       <c r="N40" s="80" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O40" s="81"/>
       <c r="P40" s="82"/>
@@ -51319,11 +51331,11 @@
       <c r="V40" s="42"/>
       <c r="W40" s="101"/>
       <c r="X40" s="101"/>
-      <c r="Y40" s="483" t="s">
-        <v>227</v>
+      <c r="Y40" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z40" s="82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AA40" s="82"/>
       <c r="AB40" s="82"/>
@@ -51431,7 +51443,7 @@
       <c r="L42" s="37"/>
       <c r="M42" s="73"/>
       <c r="N42" s="80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O42" s="81"/>
       <c r="P42" s="82"/>
@@ -51443,11 +51455,11 @@
       <c r="V42" s="42"/>
       <c r="W42" s="101"/>
       <c r="X42" s="101"/>
-      <c r="Y42" s="483" t="s">
-        <v>227</v>
+      <c r="Y42" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z42" s="82" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA42" s="82"/>
       <c r="AB42" s="82"/>
@@ -51495,7 +51507,7 @@
       <c r="L43" s="37"/>
       <c r="M43" s="73"/>
       <c r="N43" s="80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O43" s="81"/>
       <c r="P43" s="82"/>
@@ -51507,11 +51519,11 @@
       <c r="V43" s="42"/>
       <c r="W43" s="101"/>
       <c r="X43" s="101"/>
-      <c r="Y43" s="483" t="s">
-        <v>227</v>
+      <c r="Y43" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z43" s="82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA43" s="82"/>
       <c r="AB43" s="82"/>
@@ -51559,7 +51571,7 @@
       <c r="L44" s="37"/>
       <c r="M44" s="73"/>
       <c r="N44" s="80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O44" s="81"/>
       <c r="P44" s="82"/>
@@ -51571,11 +51583,11 @@
       <c r="V44" s="42"/>
       <c r="W44" s="101"/>
       <c r="X44" s="101"/>
-      <c r="Y44" s="483" t="s">
-        <v>239</v>
+      <c r="Y44" s="482" t="s">
+        <v>241</v>
       </c>
       <c r="Z44" s="82" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AA44" s="82"/>
       <c r="AB44" s="82"/>
@@ -51623,7 +51635,7 @@
       <c r="L45" s="37"/>
       <c r="M45" s="73"/>
       <c r="N45" s="80" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O45" s="81"/>
       <c r="P45" s="82"/>
@@ -51635,11 +51647,11 @@
       <c r="V45" s="42"/>
       <c r="W45" s="101"/>
       <c r="X45" s="101"/>
-      <c r="Y45" s="483" t="s">
-        <v>227</v>
+      <c r="Y45" s="482" t="s">
+        <v>229</v>
       </c>
       <c r="Z45" s="82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AA45" s="82"/>
       <c r="AB45" s="82"/>
@@ -51853,7 +51865,7 @@
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="E49" s="41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -51913,8 +51925,8 @@
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="485" t="s">
-        <v>266</v>
+      <c r="F50" s="484" t="s">
+        <v>268</v>
       </c>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
@@ -51973,8 +51985,8 @@
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="E51" s="45"/>
-      <c r="F51" s="485" t="s">
-        <v>267</v>
+      <c r="F51" s="484" t="s">
+        <v>269</v>
       </c>
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
@@ -52033,13 +52045,13 @@
       <c r="C52" s="13"/>
       <c r="D52" s="4"/>
       <c r="E52" s="46" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
       <c r="H52" s="48"/>
       <c r="I52" s="83" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
@@ -52098,13 +52110,13 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
       <c r="H53" s="51"/>
       <c r="I53" s="85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J53" s="86"/>
       <c r="K53" s="86"/>
@@ -52133,7 +52145,7 @@
       <c r="AH53" s="86"/>
       <c r="AI53" s="137"/>
       <c r="AJ53" s="138" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AK53" s="86"/>
       <c r="AL53" s="86"/>
@@ -52159,13 +52171,13 @@
     </row>
     <row r="54" customHeight="1" spans="5:47">
       <c r="E54" s="52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="53"/>
       <c r="H54" s="54"/>
       <c r="I54" s="87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J54" s="88"/>
       <c r="K54" s="88"/>
@@ -52194,7 +52206,7 @@
       <c r="AH54" s="88"/>
       <c r="AI54" s="139"/>
       <c r="AJ54" s="140" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AK54" s="88"/>
       <c r="AL54" s="88"/>

--- a/Week2/ManHinhChiTiet/ReservationTab.xlsx
+++ b/Week2/ManHinhChiTiet/ReservationTab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9024" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="2" r:id="rId1"/>
@@ -732,16 +732,16 @@
     <t>VALIDATE_PEOPLE_E002</t>
   </si>
   <si>
-    <t>"Chỉ được nhập số"</t>
+    <t>"Số người &gt;= 0"</t>
   </si>
   <si>
     <t>Trường hợp không đúng định dạng là số</t>
   </si>
   <si>
-    <t>VALIDATE_PEOPLE_E003</t>
+    <t>VALIDATE_NUMBER_E001</t>
   </si>
   <si>
-    <t>"Số người lớn hơn 0"</t>
+    <t>"Chỉ được nhập số"</t>
   </si>
   <si>
     <t>Nếu thoả mãn, hiển thị số người đã nhập ra view Tab soạn yêu cầu.</t>
@@ -35858,8 +35858,8 @@
   <sheetPr/>
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -38131,7 +38131,7 @@
   <sheetPr/>
   <dimension ref="A1:BF37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="G7" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AY29" sqref="AY29"/>
     </sheetView>
   </sheetViews>
@@ -40323,7 +40323,7 @@
   <dimension ref="A1:BF37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+      <selection activeCell="AY29" sqref="AY29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -42519,7 +42519,7 @@
   <sheetPr/>
   <dimension ref="A1:BF37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -44689,7 +44689,7 @@
   <sheetPr/>
   <dimension ref="A1:BF37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
@@ -46868,7 +46868,7 @@
   <sheetPr/>
   <dimension ref="A1:BF34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -48860,8 +48860,8 @@
   <sheetPr/>
   <dimension ref="A1:BF54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
